--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A11DF9-945C-3E4A-98E5-7883ABFC18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA671E41-FEBC-D14B-8C03-C59620032A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="280" windowWidth="26540" windowHeight="28800"/>
+    <workbookView xWindow="64360" yWindow="500" windowWidth="26540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Public Report'!$4:$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Public Report'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>DATE</t>
   </si>
@@ -209,17 +210,26 @@
   <si>
     <t xml:space="preserve">04/13/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">04/20/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/27/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/04/2022 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="170" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="167" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -371,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,7 +391,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -392,10 +402,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,12 +416,12 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -706,11 +716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A37" sqref="A37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1544,8 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
-        <v>44644</v>
+        <f>VALUE(B34)</f>
+        <v>44650</v>
       </c>
       <c r="B34" s="24" t="str">
         <f>'Public Report'!A42</f>
@@ -1559,7 +1570,8 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
-        <v>44645</v>
+        <f t="shared" ref="A35:A38" si="4">VALUE(B35)</f>
+        <v>44657</v>
       </c>
       <c r="B35" s="24" t="str">
         <f>'Public Report'!A43</f>
@@ -1584,7 +1596,8 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
-        <v>44646</v>
+        <f t="shared" si="4"/>
+        <v>44664</v>
       </c>
       <c r="B36" s="24" t="str">
         <f>'Public Report'!A44</f>
@@ -1605,6 +1618,84 @@
       <c r="F36" s="22">
         <f t="shared" si="3"/>
         <v>-3.2837091193213528E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
+        <f t="shared" si="4"/>
+        <v>44671</v>
+      </c>
+      <c r="B37" s="24" t="str">
+        <f>'Public Report'!A45</f>
+        <v xml:space="preserve">04/20/2022 </v>
+      </c>
+      <c r="C37" s="25">
+        <f>'Public Report'!O45</f>
+        <v>3059150</v>
+      </c>
+      <c r="D37" s="22">
+        <f t="shared" ref="D37:D38" si="5">(C37-C36)/C36</f>
+        <v>-1.3480694483276592E-2</v>
+      </c>
+      <c r="E37" s="26">
+        <f>'Public Report'!AA45</f>
+        <v>1409256</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" ref="F37:F38" si="6">(E37-E36)/E36</f>
+        <v>-1.363235818028981E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <f t="shared" si="4"/>
+        <v>44678</v>
+      </c>
+      <c r="B38" s="24" t="str">
+        <f>'Public Report'!A46</f>
+        <v xml:space="preserve">04/27/2022 </v>
+      </c>
+      <c r="C38" s="25">
+        <f>'Public Report'!O46</f>
+        <v>3109117</v>
+      </c>
+      <c r="D38" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6333622084565975E-2</v>
+      </c>
+      <c r="E38" s="26">
+        <f>'Public Report'!AA46</f>
+        <v>1400620</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="6"/>
+        <v>-6.1280562225741811E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <f t="shared" ref="A39" si="7">VALUE(B39)</f>
+        <v>44685</v>
+      </c>
+      <c r="B39" s="24" t="str">
+        <f>'Public Report'!A47</f>
+        <v xml:space="preserve">05/04/2022 </v>
+      </c>
+      <c r="C39" s="25">
+        <f>'Public Report'!O47</f>
+        <v>3109874</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" ref="D39" si="8">(C39-C38)/C38</f>
+        <v>2.434774889462185E-4</v>
+      </c>
+      <c r="E39" s="26">
+        <f>'Public Report'!AA47</f>
+        <v>1402069</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" ref="F39" si="9">(E39-E38)/E38</f>
+        <v>1.0345418457540232E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1614,11 +1705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5975,68 +6066,344 @@
         <v>194722</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-    </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-    </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
+    <row r="45" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="16">
+        <v>1049</v>
+      </c>
+      <c r="C45" s="7">
+        <v>4468406</v>
+      </c>
+      <c r="D45" s="6">
+        <v>166</v>
+      </c>
+      <c r="E45" s="17">
+        <v>90475</v>
+      </c>
+      <c r="F45" s="16">
+        <v>667</v>
+      </c>
+      <c r="G45" s="18">
+        <v>3965554</v>
+      </c>
+      <c r="H45" s="6">
+        <v>231</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1232033</v>
+      </c>
+      <c r="J45" s="6">
+        <v>436</v>
+      </c>
+      <c r="K45" s="18">
+        <v>2733521</v>
+      </c>
+      <c r="L45" s="6">
+        <v>216</v>
+      </c>
+      <c r="M45" s="18">
+        <v>412377</v>
+      </c>
+      <c r="N45" s="16">
+        <v>546</v>
+      </c>
+      <c r="O45" s="7">
+        <v>3059150</v>
+      </c>
+      <c r="P45" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>8457</v>
+      </c>
+      <c r="R45" s="16">
+        <v>392</v>
+      </c>
+      <c r="S45" s="18">
+        <v>2830753</v>
+      </c>
+      <c r="T45" s="6">
+        <v>182</v>
+      </c>
+      <c r="U45" s="18">
+        <v>1056890</v>
+      </c>
+      <c r="V45" s="6">
+        <v>210</v>
+      </c>
+      <c r="W45" s="18">
+        <v>1773862</v>
+      </c>
+      <c r="X45" s="6">
+        <v>126</v>
+      </c>
+      <c r="Y45" s="18">
+        <v>219941</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>503</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>1409256</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC45" s="17">
+        <v>82018</v>
+      </c>
+      <c r="AD45" s="16">
+        <v>275</v>
+      </c>
+      <c r="AE45" s="18">
+        <v>1134801</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG45" s="18">
+        <v>175142</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>226</v>
+      </c>
+      <c r="AI45" s="18">
+        <v>959659</v>
+      </c>
+      <c r="AJ45" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK45" s="18">
+        <v>192436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="16">
+        <v>1051</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4509737</v>
+      </c>
+      <c r="D46" s="6">
+        <v>166</v>
+      </c>
+      <c r="E46" s="17">
+        <v>91805</v>
+      </c>
+      <c r="F46" s="16">
+        <v>668</v>
+      </c>
+      <c r="G46" s="18">
+        <v>4005385</v>
+      </c>
+      <c r="H46" s="6">
+        <v>231</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1242799</v>
+      </c>
+      <c r="J46" s="6">
+        <v>437</v>
+      </c>
+      <c r="K46" s="18">
+        <v>2762586</v>
+      </c>
+      <c r="L46" s="6">
+        <v>217</v>
+      </c>
+      <c r="M46" s="18">
+        <v>412547</v>
+      </c>
+      <c r="N46" s="16">
+        <v>548</v>
+      </c>
+      <c r="O46" s="7">
+        <v>3109117</v>
+      </c>
+      <c r="P46" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>8176</v>
+      </c>
+      <c r="R46" s="16">
+        <v>393</v>
+      </c>
+      <c r="S46" s="18">
+        <v>2880589</v>
+      </c>
+      <c r="T46" s="6">
+        <v>182</v>
+      </c>
+      <c r="U46" s="18">
+        <v>1069686</v>
+      </c>
+      <c r="V46" s="6">
+        <v>211</v>
+      </c>
+      <c r="W46" s="18">
+        <v>1810903</v>
+      </c>
+      <c r="X46" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y46" s="18">
+        <v>220352</v>
+      </c>
+      <c r="Z46" s="16">
+        <v>503</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>1400620</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC46" s="17">
+        <v>83629</v>
+      </c>
+      <c r="AD46" s="16">
+        <v>275</v>
+      </c>
+      <c r="AE46" s="18">
+        <v>1124796</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG46" s="18">
+        <v>173113</v>
+      </c>
+      <c r="AH46" s="6">
+        <v>226</v>
+      </c>
+      <c r="AI46" s="18">
+        <v>951683</v>
+      </c>
+      <c r="AJ46" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK46" s="18">
+        <v>192195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="16">
+        <v>1050</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4511943</v>
+      </c>
+      <c r="D47" s="6">
+        <v>166</v>
+      </c>
+      <c r="E47" s="17">
+        <v>94442</v>
+      </c>
+      <c r="F47" s="16">
+        <v>667</v>
+      </c>
+      <c r="G47" s="18">
+        <v>4004796</v>
+      </c>
+      <c r="H47" s="6">
+        <v>231</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1243413</v>
+      </c>
+      <c r="J47" s="6">
+        <v>436</v>
+      </c>
+      <c r="K47" s="18">
+        <v>2761383</v>
+      </c>
+      <c r="L47" s="6">
+        <v>217</v>
+      </c>
+      <c r="M47" s="18">
+        <v>412705</v>
+      </c>
+      <c r="N47" s="16">
+        <v>547</v>
+      </c>
+      <c r="O47" s="7">
+        <v>3109874</v>
+      </c>
+      <c r="P47" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q47" s="17">
+        <v>9265</v>
+      </c>
+      <c r="R47" s="16">
+        <v>392</v>
+      </c>
+      <c r="S47" s="18">
+        <v>2880773</v>
+      </c>
+      <c r="T47" s="6">
+        <v>182</v>
+      </c>
+      <c r="U47" s="18">
+        <v>1070961</v>
+      </c>
+      <c r="V47" s="6">
+        <v>210</v>
+      </c>
+      <c r="W47" s="18">
+        <v>1809812</v>
+      </c>
+      <c r="X47" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>219836</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>503</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>1402069</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC47" s="17">
+        <v>85177</v>
+      </c>
+      <c r="AD47" s="16">
+        <v>275</v>
+      </c>
+      <c r="AE47" s="18">
+        <v>1124024</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG47" s="18">
+        <v>172452</v>
+      </c>
+      <c r="AH47" s="6">
+        <v>226</v>
+      </c>
+      <c r="AI47" s="18">
+        <v>951572</v>
+      </c>
+      <c r="AJ47" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK47" s="18">
+        <v>192869</v>
+      </c>
     </row>
     <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M48" s="20"/>
@@ -6807,21 +7174,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="AD7:AI7"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -6832,6 +7193,12 @@
     <mergeCell ref="L7:M8"/>
     <mergeCell ref="N7:O8"/>
     <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="AD7:AI7"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="V8:W8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA671E41-FEBC-D14B-8C03-C59620032A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D35DF-5DB6-7B41-A3C3-AA2F17B0342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64360" yWindow="500" windowWidth="26540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42740" yWindow="500" windowWidth="26540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>DATE</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">05/04/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2022 </t>
   </si>
 </sst>
 </file>
@@ -429,16 +432,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="164" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1698,6 +1701,32 @@
         <v>1.0345418457540232E-3</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <f t="shared" ref="A40" si="10">VALUE(B40)</f>
+        <v>44692</v>
+      </c>
+      <c r="B40" s="24" t="str">
+        <f>'Public Report'!A48</f>
+        <v xml:space="preserve">05/11/2022 </v>
+      </c>
+      <c r="C40" s="25">
+        <f>'Public Report'!O48</f>
+        <v>3093138</v>
+      </c>
+      <c r="D40" s="22">
+        <f t="shared" ref="D40" si="11">(C40-C39)/C39</f>
+        <v>-5.3815685137082727E-3</v>
+      </c>
+      <c r="E40" s="26">
+        <f>'Public Report'!AA48</f>
+        <v>1407734</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" ref="F40" si="12">(E40-E39)/E39</f>
+        <v>4.0404573526695194E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,7 +1738,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD47"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1778,48 +1807,48 @@
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -1828,42 +1857,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -1871,15 +1900,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1888,7 +1917,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="27"/>
@@ -1896,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1937,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="27"/>
@@ -1916,10 +1945,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="27"/>
-      <c r="AB7" s="30" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="30"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1957,7 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="27"/>
@@ -1939,11 +1968,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1956,12 +1985,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="L8" s="31"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1974,12 +2003,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="27"/>
-      <c r="X8" s="31"/>
+      <c r="X8" s="28"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="27"/>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="28"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -2001,7 +2030,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -6405,26 +6434,118 @@
         <v>192869</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
+    <row r="48" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="16">
+        <v>1049</v>
+      </c>
+      <c r="C48" s="7">
+        <v>4500872</v>
+      </c>
+      <c r="D48" s="6">
+        <v>166</v>
+      </c>
+      <c r="E48" s="17">
+        <v>95220</v>
+      </c>
+      <c r="F48" s="16">
+        <v>666</v>
+      </c>
+      <c r="G48" s="18">
+        <v>3997173</v>
+      </c>
+      <c r="H48" s="6">
+        <v>231</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1233410</v>
+      </c>
+      <c r="J48" s="6">
+        <v>435</v>
+      </c>
+      <c r="K48" s="18">
+        <v>2763763</v>
+      </c>
+      <c r="L48" s="6">
+        <v>217</v>
+      </c>
+      <c r="M48" s="18">
+        <v>408480</v>
+      </c>
+      <c r="N48" s="16">
+        <v>547</v>
+      </c>
+      <c r="O48" s="7">
+        <v>3093138</v>
+      </c>
+      <c r="P48" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>8958</v>
+      </c>
+      <c r="R48" s="16">
+        <v>392</v>
+      </c>
+      <c r="S48" s="18">
+        <v>2870390</v>
+      </c>
+      <c r="T48" s="6">
+        <v>182</v>
+      </c>
+      <c r="U48" s="18">
+        <v>1061735</v>
+      </c>
+      <c r="V48" s="6">
+        <v>210</v>
+      </c>
+      <c r="W48" s="18">
+        <v>1808655</v>
+      </c>
+      <c r="X48" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y48" s="18">
+        <v>213790</v>
+      </c>
+      <c r="Z48" s="16">
+        <v>502</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>1407734</v>
+      </c>
+      <c r="AB48" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC48" s="17">
+        <v>86262</v>
+      </c>
+      <c r="AD48" s="16">
+        <v>274</v>
+      </c>
+      <c r="AE48" s="18">
+        <v>1126782</v>
+      </c>
+      <c r="AF48" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG48" s="18">
+        <v>171675</v>
+      </c>
+      <c r="AH48" s="6">
+        <v>225</v>
+      </c>
+      <c r="AI48" s="18">
+        <v>955107</v>
+      </c>
+      <c r="AJ48" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK48" s="18">
+        <v>194689</v>
+      </c>
     </row>
     <row r="49" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M49" s="20"/>
@@ -7174,15 +7295,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -7199,6 +7311,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D35DF-5DB6-7B41-A3C3-AA2F17B0342D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C5277-D8B7-1D4D-9523-757B26C110AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42740" yWindow="500" windowWidth="26540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42740" yWindow="500" windowWidth="26540" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>DATE</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">05/11/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/18/2022 </t>
   </si>
 </sst>
 </file>
@@ -432,16 +435,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="164" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1727,6 +1730,32 @@
         <v>4.0404573526695194E-3</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <f t="shared" ref="A41" si="13">VALUE(B41)</f>
+        <v>44699</v>
+      </c>
+      <c r="B41" s="24" t="str">
+        <f>'Public Report'!A49</f>
+        <v xml:space="preserve">05/18/2022 </v>
+      </c>
+      <c r="C41" s="25">
+        <f>'Public Report'!O49</f>
+        <v>3066737</v>
+      </c>
+      <c r="D41" s="22">
+        <f t="shared" ref="D41" si="14">(C41-C40)/C40</f>
+        <v>-8.5353450120880473E-3</v>
+      </c>
+      <c r="E41" s="26">
+        <f>'Public Report'!AA49</f>
+        <v>1417902</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" ref="F41" si="15">(E41-E40)/E40</f>
+        <v>7.2229554731220525E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1737,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1807,48 +1836,48 @@
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31" t="s">
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -1857,42 +1886,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -1900,15 +1929,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1946,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="27"/>
@@ -1925,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1966,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="28" t="s">
+      <c r="X7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="27"/>
@@ -1945,10 +1974,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="27"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="30"/>
       <c r="AD7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1986,7 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="28" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="27"/>
@@ -1968,11 +1997,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1985,12 +2014,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2003,12 +2032,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
+      <c r="X8" s="31"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2021,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
+      <c r="AJ8" s="31"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -2030,7 +2059,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -6547,28 +6576,120 @@
         <v>194689</v>
       </c>
     </row>
-    <row r="49" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-    </row>
-    <row r="50" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C49" s="7">
+        <v>4484640</v>
+      </c>
+      <c r="D49" s="6">
+        <v>166</v>
+      </c>
+      <c r="E49" s="17">
+        <v>98120</v>
+      </c>
+      <c r="F49" s="16">
+        <v>665</v>
+      </c>
+      <c r="G49" s="18">
+        <v>3972490</v>
+      </c>
+      <c r="H49" s="6">
+        <v>231</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1238368</v>
+      </c>
+      <c r="J49" s="6">
+        <v>434</v>
+      </c>
+      <c r="K49" s="18">
+        <v>2734122</v>
+      </c>
+      <c r="L49" s="6">
+        <v>217</v>
+      </c>
+      <c r="M49" s="18">
+        <v>414030</v>
+      </c>
+      <c r="N49" s="16">
+        <v>549</v>
+      </c>
+      <c r="O49" s="7">
+        <v>3066737</v>
+      </c>
+      <c r="P49" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>10170</v>
+      </c>
+      <c r="R49" s="16">
+        <v>394</v>
+      </c>
+      <c r="S49" s="18">
+        <v>2841310</v>
+      </c>
+      <c r="T49" s="6">
+        <v>183</v>
+      </c>
+      <c r="U49" s="18">
+        <v>1066451</v>
+      </c>
+      <c r="V49" s="6">
+        <v>211</v>
+      </c>
+      <c r="W49" s="18">
+        <v>1774858</v>
+      </c>
+      <c r="X49" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y49" s="18">
+        <v>215257</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>499</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>1417902</v>
+      </c>
+      <c r="AB49" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC49" s="17">
+        <v>87949</v>
+      </c>
+      <c r="AD49" s="16">
+        <v>271</v>
+      </c>
+      <c r="AE49" s="18">
+        <v>1131180</v>
+      </c>
+      <c r="AF49" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG49" s="18">
+        <v>171917</v>
+      </c>
+      <c r="AH49" s="6">
+        <v>223</v>
+      </c>
+      <c r="AI49" s="18">
+        <v>959263</v>
+      </c>
+      <c r="AJ49" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK49" s="18">
+        <v>198773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
       <c r="O50" s="19"/>
@@ -6589,7 +6710,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="19"/>
@@ -6610,7 +6731,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="19"/>
@@ -6631,7 +6752,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
       <c r="O53" s="19"/>
@@ -6652,7 +6773,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="19"/>
@@ -6673,7 +6794,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="1"/>
@@ -6693,7 +6814,7 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="1"/>
@@ -6713,7 +6834,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="1"/>
@@ -6733,7 +6854,7 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="1"/>
@@ -6753,7 +6874,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="1"/>
@@ -6773,7 +6894,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="1"/>
@@ -6793,7 +6914,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="1"/>
@@ -6813,7 +6934,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="1"/>
@@ -6833,7 +6954,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="1"/>
@@ -6853,7 +6974,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="1"/>
@@ -7295,6 +7416,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -7311,15 +7441,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C5277-D8B7-1D4D-9523-757B26C110AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344008B3-878D-084B-AE99-8353AB7F477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42740" yWindow="500" windowWidth="26540" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42740" yWindow="500" windowWidth="26540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>DATE</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">05/18/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/25/2022 </t>
   </si>
 </sst>
 </file>
@@ -435,16 +438,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1756,6 +1759,32 @@
         <v>7.2229554731220525E-3</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <f t="shared" ref="A42" si="16">VALUE(B42)</f>
+        <v>44706</v>
+      </c>
+      <c r="B42" s="24" t="str">
+        <f>'Public Report'!A50</f>
+        <v xml:space="preserve">05/25/2022 </v>
+      </c>
+      <c r="C42" s="25">
+        <f>'Public Report'!O50</f>
+        <v>3107833</v>
+      </c>
+      <c r="D42" s="22">
+        <f t="shared" ref="D42" si="17">(C42-C41)/C41</f>
+        <v>1.3400562226235898E-2</v>
+      </c>
+      <c r="E42" s="26">
+        <f>'Public Report'!AA50</f>
+        <v>1420845</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" ref="F42" si="18">(E42-E41)/E41</f>
+        <v>2.0756018399014885E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1766,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1836,48 +1865,48 @@
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -1886,42 +1915,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -1929,15 +1958,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1975,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="27"/>
@@ -1954,10 +1983,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1995,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="27"/>
@@ -1974,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="27"/>
-      <c r="AB7" s="30" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="30"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +2015,7 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="27"/>
@@ -1997,11 +2026,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2014,12 +2043,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="L8" s="31"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2032,12 +2061,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="27"/>
-      <c r="X8" s="31"/>
+      <c r="X8" s="28"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2079,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="27"/>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="28"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -2059,7 +2088,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -6689,26 +6718,118 @@
         <v>198773</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
+    <row r="50" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4528678</v>
+      </c>
+      <c r="D50" s="6">
+        <v>166</v>
+      </c>
+      <c r="E50" s="17">
+        <v>99383</v>
+      </c>
+      <c r="F50" s="16">
+        <v>665</v>
+      </c>
+      <c r="G50" s="18">
+        <v>4008995</v>
+      </c>
+      <c r="H50" s="6">
+        <v>231</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1233143</v>
+      </c>
+      <c r="J50" s="6">
+        <v>434</v>
+      </c>
+      <c r="K50" s="18">
+        <v>2775852</v>
+      </c>
+      <c r="L50" s="6">
+        <v>217</v>
+      </c>
+      <c r="M50" s="18">
+        <v>420299</v>
+      </c>
+      <c r="N50" s="16">
+        <v>549</v>
+      </c>
+      <c r="O50" s="7">
+        <v>3107833</v>
+      </c>
+      <c r="P50" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q50" s="17">
+        <v>10192</v>
+      </c>
+      <c r="R50" s="16">
+        <v>394</v>
+      </c>
+      <c r="S50" s="18">
+        <v>2878891</v>
+      </c>
+      <c r="T50" s="6">
+        <v>183</v>
+      </c>
+      <c r="U50" s="18">
+        <v>1062093</v>
+      </c>
+      <c r="V50" s="6">
+        <v>211</v>
+      </c>
+      <c r="W50" s="18">
+        <v>1816798</v>
+      </c>
+      <c r="X50" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y50" s="18">
+        <v>218750</v>
+      </c>
+      <c r="Z50" s="16">
+        <v>499</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>1420845</v>
+      </c>
+      <c r="AB50" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC50" s="17">
+        <v>89192</v>
+      </c>
+      <c r="AD50" s="16">
+        <v>271</v>
+      </c>
+      <c r="AE50" s="18">
+        <v>1130104</v>
+      </c>
+      <c r="AF50" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG50" s="18">
+        <v>171050</v>
+      </c>
+      <c r="AH50" s="6">
+        <v>223</v>
+      </c>
+      <c r="AI50" s="18">
+        <v>959054</v>
+      </c>
+      <c r="AJ50" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK50" s="18">
+        <v>201549</v>
+      </c>
     </row>
     <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M51" s="20"/>
@@ -7416,15 +7537,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -7441,6 +7553,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344008B3-878D-084B-AE99-8353AB7F477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CE4FF-3AEC-ED4C-92FE-9E30FEB69552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42740" yWindow="500" windowWidth="26540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42740" yWindow="500" windowWidth="45960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'5ace8123-0b60-4288-a639-430bc26a4bd6'"</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$43</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$3:$D$43</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$3:$F$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Public Report'!$4:$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Public Report'!$A:$A</definedName>
   </definedNames>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>DATE</t>
   </si>
@@ -166,12 +171,6 @@
     <t xml:space="preserve">09/08/2021 </t>
   </si>
   <si>
-    <t>change2</t>
-  </si>
-  <si>
-    <t>change1</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -227,6 +226,15 @@
   </si>
   <si>
     <t xml:space="preserve">05/25/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2022 </t>
+  </si>
+  <si>
+    <t>INSTITUTIONAL % change</t>
+  </si>
+  <si>
+    <t>RETAIL % change</t>
   </si>
 </sst>
 </file>
@@ -438,16 +446,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,6 +474,1466 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% change</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>INSTITUTIONAL % change</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2.1050421186105299E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0397667138091925E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9178089300552737E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3720825413764631E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6514610865647251E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0258353367196153E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.0542048650525111E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7443669600629057E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3462701547710511E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3980757861765681E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.943136642557793E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1141851312849736E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8820999140728512E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2415520394370674E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.005373157915531E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0901773891470691E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4963066383509461E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0149328426332467E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0158559929635734E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.1765282040855927E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.6590508311010627E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.597551993047229E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0856525186017705E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.7035643669634652E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.2900627996544451E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3040367949425247E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6824248324759991E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2167955789614615E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.0108378491037932E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.4808319781792896E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3199181708414406E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1210000617646045E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.612017754279052E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-8.0480161939175572E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3480694483276592E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6333622084565975E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.434774889462185E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5.3815685137082727E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.5353450120880473E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3400562226235898E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.0023604871947752E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-987D-2F46-B997-EFBDEE782699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RETAIL % change</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-1.4434046701599721E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3227541059030884E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7769172633727416E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6578209875376389E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7366826745991088E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3831391057328829E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.275783518784047E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.228728872346768E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7168688295729082E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.6875335163587692E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7846250370344552E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.876040874561155E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2391167416875406E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7358785443179281E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5916443325105449E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6108493645809108E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3623085352084119E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.200962818805695E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3979355484631165E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1852594252907998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.3410016445553376E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.6781511590497206E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4247432237289261E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7991061028210685E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.4596731219350965E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.9548105735758075E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0054350885355169E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.2282649159023992E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1365591563303897E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6353900678995572E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.505548624700455E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5593958696213873E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.5315257766105946E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.2837091193213528E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.363235818028981E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.1280562225741811E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0345418457540232E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0404573526695194E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2229554731220525E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0756018399014885E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0380653765892836E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-987D-2F46-B997-EFBDEE782699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="478103759"/>
+        <c:axId val="758081567"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="478103759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758081567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="758081567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478103759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>526585</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4802</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAEFB02-69C0-1A88-0738-BBD7792C5247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,22 +2209,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,9 +3253,36 @@
         <v>2.0756018399014885E-3</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
+        <f t="shared" ref="A43" si="19">VALUE(B43)</f>
+        <v>44713</v>
+      </c>
+      <c r="B43" s="24" t="str">
+        <f>'Public Report'!A51</f>
+        <v xml:space="preserve">06/01/2022 </v>
+      </c>
+      <c r="C43" s="25">
+        <f>'Public Report'!O51</f>
+        <v>3105346</v>
+      </c>
+      <c r="D43" s="22">
+        <f t="shared" ref="D43" si="20">(C43-C42)/C42</f>
+        <v>-8.0023604871947752E-4</v>
+      </c>
+      <c r="E43" s="26">
+        <f>'Public Report'!AA51</f>
+        <v>1420855</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" ref="F43" si="21">(E43-E42)/E42</f>
+        <v>7.0380653765892836E-6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1796,7 +3291,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B60" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1865,48 +3360,48 @@
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31" t="s">
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -1915,42 +3410,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -1958,15 +3453,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +3470,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="27"/>
@@ -1983,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +3490,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="28" t="s">
+      <c r="X7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="27"/>
@@ -2003,10 +3498,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="27"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="30"/>
       <c r="AD7" s="27" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +3510,7 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="28" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="27"/>
@@ -2026,11 +3521,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2043,12 +3538,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2061,12 +3556,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
+      <c r="X8" s="31"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="27" t="s">
         <v>3</v>
       </c>
@@ -2079,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
+      <c r="AJ8" s="31"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -2088,7 +3583,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -4912,7 +6407,7 @@
     </row>
     <row r="34" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="16">
         <v>1053</v>
@@ -5025,7 +6520,7 @@
     </row>
     <row r="35" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" s="16">
         <v>1053</v>
@@ -5138,7 +6633,7 @@
     </row>
     <row r="36" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="16">
         <v>1054</v>
@@ -5251,7 +6746,7 @@
     </row>
     <row r="37" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37" s="16">
         <v>1048</v>
@@ -5364,7 +6859,7 @@
     </row>
     <row r="38" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="16">
         <v>1047</v>
@@ -5477,7 +6972,7 @@
     </row>
     <row r="39" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="16">
         <v>1047</v>
@@ -5590,7 +7085,7 @@
     </row>
     <row r="40" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="16">
         <v>1047</v>
@@ -5703,7 +7198,7 @@
     </row>
     <row r="41" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="16">
         <v>1047</v>
@@ -5816,7 +7311,7 @@
     </row>
     <row r="42" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="16">
         <v>1048</v>
@@ -5929,7 +7424,7 @@
     </row>
     <row r="43" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="16">
         <v>1048</v>
@@ -6042,7 +7537,7 @@
     </row>
     <row r="44" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="16">
         <v>1048</v>
@@ -6155,7 +7650,7 @@
     </row>
     <row r="45" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="16">
         <v>1049</v>
@@ -6268,7 +7763,7 @@
     </row>
     <row r="46" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="16">
         <v>1051</v>
@@ -6381,7 +7876,7 @@
     </row>
     <row r="47" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="16">
         <v>1050</v>
@@ -6494,7 +7989,7 @@
     </row>
     <row r="48" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="16">
         <v>1049</v>
@@ -6607,7 +8102,7 @@
     </row>
     <row r="49" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="16">
         <v>1048</v>
@@ -6720,7 +8215,7 @@
     </row>
     <row r="50" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="16">
         <v>1048</v>
@@ -6831,26 +8326,118 @@
         <v>201549</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
+    <row r="51" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C51" s="7">
+        <v>4526201</v>
+      </c>
+      <c r="D51" s="6">
+        <v>166</v>
+      </c>
+      <c r="E51" s="17">
+        <v>101054</v>
+      </c>
+      <c r="F51" s="16">
+        <v>665</v>
+      </c>
+      <c r="G51" s="18">
+        <v>4002812</v>
+      </c>
+      <c r="H51" s="6">
+        <v>232</v>
+      </c>
+      <c r="I51" s="18">
+        <v>1226650</v>
+      </c>
+      <c r="J51" s="6">
+        <v>433</v>
+      </c>
+      <c r="K51" s="18">
+        <v>2776162</v>
+      </c>
+      <c r="L51" s="6">
+        <v>217</v>
+      </c>
+      <c r="M51" s="18">
+        <v>422335</v>
+      </c>
+      <c r="N51" s="16">
+        <v>550</v>
+      </c>
+      <c r="O51" s="7">
+        <v>3105346</v>
+      </c>
+      <c r="P51" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>10334</v>
+      </c>
+      <c r="R51" s="16">
+        <v>395</v>
+      </c>
+      <c r="S51" s="18">
+        <v>2876175</v>
+      </c>
+      <c r="T51" s="6">
+        <v>184</v>
+      </c>
+      <c r="U51" s="18">
+        <v>1056005</v>
+      </c>
+      <c r="V51" s="6">
+        <v>211</v>
+      </c>
+      <c r="W51" s="18">
+        <v>1820170</v>
+      </c>
+      <c r="X51" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y51" s="18">
+        <v>218837</v>
+      </c>
+      <c r="Z51" s="16">
+        <v>498</v>
+      </c>
+      <c r="AA51" s="7">
+        <v>1420855</v>
+      </c>
+      <c r="AB51" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC51" s="17">
+        <v>90720</v>
+      </c>
+      <c r="AD51" s="16">
+        <v>270</v>
+      </c>
+      <c r="AE51" s="18">
+        <v>1126637</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG51" s="18">
+        <v>170645</v>
+      </c>
+      <c r="AH51" s="6">
+        <v>222</v>
+      </c>
+      <c r="AI51" s="18">
+        <v>955992</v>
+      </c>
+      <c r="AJ51" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK51" s="18">
+        <v>203498</v>
+      </c>
     </row>
     <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M52" s="20"/>
@@ -7537,6 +9124,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -7553,15 +9149,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CE4FF-3AEC-ED4C-92FE-9E30FEB69552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AE85B-6258-784F-872D-59DCD7FDF618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42740" yWindow="500" windowWidth="45960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'5ace8123-0b60-4288-a639-430bc26a4bd6'"</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$43</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$3:$D$43</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$3:$F$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Public Report'!$4:$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Public Report'!$A:$A</definedName>
   </definedNames>
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>DATE</t>
   </si>
@@ -235,6 +230,9 @@
   </si>
   <si>
     <t>RETAIL % change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/08/2022 </t>
   </si>
 </sst>
 </file>
@@ -446,16 +444,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,10 +577,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$43</c:f>
+              <c:f>Sheet1!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44433</c:v>
                 </c:pt>
@@ -705,16 +703,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$43</c:f>
+              <c:f>Sheet1!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2.1050421186105299E-3</c:v>
                 </c:pt>
@@ -837,6 +838,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-8.0023604871947752E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.2558742246435666E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,10 +880,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$43</c:f>
+              <c:f>Sheet1!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44433</c:v>
                 </c:pt>
@@ -1002,16 +1006,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$43</c:f>
+              <c:f>Sheet1!$F$3:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>-1.4434046701599721E-3</c:v>
                 </c:pt>
@@ -1134,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7.0380653765892836E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7187855199862056E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="164" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3279,6 +3289,32 @@
         <v>7.0380653765892836E-6</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <f t="shared" ref="A44" si="22">VALUE(B44)</f>
+        <v>44720</v>
+      </c>
+      <c r="B44" s="24" t="str">
+        <f>'Public Report'!A52</f>
+        <v xml:space="preserve">06/08/2022 </v>
+      </c>
+      <c r="C44" s="25">
+        <f>'Public Report'!O52</f>
+        <v>3127878</v>
+      </c>
+      <c r="D44" s="22">
+        <f t="shared" ref="D44" si="23">(C44-C43)/C43</f>
+        <v>7.2558742246435666E-3</v>
+      </c>
+      <c r="E44" s="26">
+        <f>'Public Report'!AA52</f>
+        <v>1424718</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" ref="F44" si="24">(E44-E43)/E43</f>
+        <v>2.7187855199862056E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,7 +3327,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B61"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3360,48 +3396,48 @@
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -3410,42 +3446,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -3453,15 +3489,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3470,7 +3506,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="27"/>
@@ -3478,10 +3514,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3526,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="27"/>
@@ -3498,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="27"/>
-      <c r="AB7" s="30" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="30"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3546,7 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="27"/>
@@ -3521,11 +3557,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
@@ -3538,12 +3574,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="L8" s="31"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="27" t="s">
         <v>3</v>
       </c>
@@ -3556,12 +3592,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="27"/>
-      <c r="X8" s="31"/>
+      <c r="X8" s="28"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="27" t="s">
         <v>3</v>
       </c>
@@ -3574,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="27"/>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="28"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -3583,7 +3619,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -8439,26 +8475,118 @@
         <v>203498</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
+    <row r="52" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="16">
+        <v>1049</v>
+      </c>
+      <c r="C52" s="7">
+        <v>4552596</v>
+      </c>
+      <c r="D52" s="6">
+        <v>166</v>
+      </c>
+      <c r="E52" s="17">
+        <v>102595</v>
+      </c>
+      <c r="F52" s="16">
+        <v>666</v>
+      </c>
+      <c r="G52" s="18">
+        <v>4022704</v>
+      </c>
+      <c r="H52" s="6">
+        <v>232</v>
+      </c>
+      <c r="I52" s="18">
+        <v>1242649</v>
+      </c>
+      <c r="J52" s="6">
+        <v>434</v>
+      </c>
+      <c r="K52" s="18">
+        <v>2780056</v>
+      </c>
+      <c r="L52" s="6">
+        <v>217</v>
+      </c>
+      <c r="M52" s="18">
+        <v>427297</v>
+      </c>
+      <c r="N52" s="16">
+        <v>551</v>
+      </c>
+      <c r="O52" s="7">
+        <v>3127878</v>
+      </c>
+      <c r="P52" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="17">
+        <v>10010</v>
+      </c>
+      <c r="R52" s="16">
+        <v>396</v>
+      </c>
+      <c r="S52" s="18">
+        <v>2896507</v>
+      </c>
+      <c r="T52" s="6">
+        <v>184</v>
+      </c>
+      <c r="U52" s="18">
+        <v>1072137</v>
+      </c>
+      <c r="V52" s="6">
+        <v>212</v>
+      </c>
+      <c r="W52" s="18">
+        <v>1824371</v>
+      </c>
+      <c r="X52" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y52" s="18">
+        <v>221361</v>
+      </c>
+      <c r="Z52" s="16">
+        <v>498</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>1424718</v>
+      </c>
+      <c r="AB52" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC52" s="17">
+        <v>92585</v>
+      </c>
+      <c r="AD52" s="16">
+        <v>270</v>
+      </c>
+      <c r="AE52" s="18">
+        <v>1126197</v>
+      </c>
+      <c r="AF52" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG52" s="18">
+        <v>170512</v>
+      </c>
+      <c r="AH52" s="6">
+        <v>222</v>
+      </c>
+      <c r="AI52" s="18">
+        <v>955685</v>
+      </c>
+      <c r="AJ52" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK52" s="18">
+        <v>205936</v>
+      </c>
     </row>
     <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M53" s="20"/>
@@ -9124,15 +9252,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -9149,6 +9268,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AE85B-6258-784F-872D-59DCD7FDF618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4143D6-067B-084B-9D2F-55B49E424DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42740" yWindow="500" windowWidth="45960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>DATE</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">06/08/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/15/2022 </t>
   </si>
 </sst>
 </file>
@@ -444,16 +447,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,145 +580,145 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>Sheet1!$A$4:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>44433</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44440</c:v>
+                  <c:v>44447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44447</c:v>
+                  <c:v>44454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44454</c:v>
+                  <c:v>44461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44461</c:v>
+                  <c:v>44468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44468</c:v>
+                  <c:v>44475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44475</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44482</c:v>
+                  <c:v>44489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44489</c:v>
+                  <c:v>44496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44496</c:v>
+                  <c:v>44503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44503</c:v>
+                  <c:v>44510</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44510</c:v>
+                  <c:v>44517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44517</c:v>
+                  <c:v>44523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44523</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44531</c:v>
+                  <c:v>44538</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44538</c:v>
+                  <c:v>44545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44545</c:v>
+                  <c:v>44552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44552</c:v>
+                  <c:v>44559</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44559</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44566</c:v>
+                  <c:v>44573</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44573</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44580</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44587</c:v>
+                  <c:v>44594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44594</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44601</c:v>
+                  <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44608</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44615</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44622</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44629</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44636</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44643</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44650</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44657</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44664</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44671</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44678</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44685</c:v>
+                  <c:v>44692</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44692</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44699</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44706</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44713</c:v>
+                  <c:v>44720</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44720</c:v>
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$44</c:f>
+              <c:f>Sheet1!$D$3:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2.1050421186105299E-3</c:v>
                 </c:pt>
@@ -841,6 +844,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>7.2558742246435666E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.6863221647391622E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,145 +886,145 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$44</c:f>
+              <c:f>Sheet1!$A$4:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>44433</c:v>
+                  <c:v>44440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44440</c:v>
+                  <c:v>44447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44447</c:v>
+                  <c:v>44454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44454</c:v>
+                  <c:v>44461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44461</c:v>
+                  <c:v>44468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44468</c:v>
+                  <c:v>44475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44475</c:v>
+                  <c:v>44482</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44482</c:v>
+                  <c:v>44489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44489</c:v>
+                  <c:v>44496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44496</c:v>
+                  <c:v>44503</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44503</c:v>
+                  <c:v>44510</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44510</c:v>
+                  <c:v>44517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44517</c:v>
+                  <c:v>44523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44523</c:v>
+                  <c:v>44531</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44531</c:v>
+                  <c:v>44538</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44538</c:v>
+                  <c:v>44545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44545</c:v>
+                  <c:v>44552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44552</c:v>
+                  <c:v>44559</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44559</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44566</c:v>
+                  <c:v>44573</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44573</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44580</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44587</c:v>
+                  <c:v>44594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44594</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44601</c:v>
+                  <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44608</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44615</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44622</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44629</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44636</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44643</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44650</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44657</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44664</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44671</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44678</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44685</c:v>
+                  <c:v>44692</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44692</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>44699</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44706</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44713</c:v>
+                  <c:v>44720</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44720</c:v>
+                  <c:v>44727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$44</c:f>
+              <c:f>Sheet1!$F$3:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>-1.4434046701599721E-3</c:v>
                 </c:pt>
@@ -1144,6 +1150,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2.7187855199862056E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5037431968993165E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,8 +1924,8 @@
       <xdr:rowOff>116159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>526585</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371708</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>4802</xdr:rowOff>
     </xdr:to>
@@ -2204,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="164" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="A44" sqref="A44:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3315,6 +3324,32 @@
         <v>2.7187855199862056E-3</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <f t="shared" ref="A45" si="25">VALUE(B45)</f>
+        <v>44727</v>
+      </c>
+      <c r="B45" s="24" t="str">
+        <f>'Public Report'!A53</f>
+        <v xml:space="preserve">06/15/2022 </v>
+      </c>
+      <c r="C45" s="25">
+        <f>'Public Report'!O53</f>
+        <v>3106964</v>
+      </c>
+      <c r="D45" s="22">
+        <f t="shared" ref="D45" si="26">(C45-C44)/C44</f>
+        <v>-6.6863221647391622E-3</v>
+      </c>
+      <c r="E45" s="26">
+        <f>'Public Report'!AA53</f>
+        <v>1433984</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" ref="F45" si="27">(E45-E44)/E44</f>
+        <v>6.5037431968993165E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3327,7 +3362,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3396,48 +3431,48 @@
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31" t="s">
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -3446,42 +3481,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -3489,15 +3524,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3506,7 +3541,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="27"/>
@@ -3514,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3561,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="X7" s="28" t="s">
+      <c r="X7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="27"/>
@@ -3534,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="27"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="30"/>
       <c r="AD7" s="27" t="s">
         <v>5</v>
       </c>
@@ -3546,7 +3581,7 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
-      <c r="AJ7" s="28" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="27"/>
@@ -3557,11 +3592,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
@@ -3574,12 +3609,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="27" t="s">
         <v>3</v>
       </c>
@@ -3592,12 +3627,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
+      <c r="X8" s="31"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="27" t="s">
         <v>3</v>
       </c>
@@ -3610,7 +3645,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
+      <c r="AJ8" s="31"/>
       <c r="AK8" s="27"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -3619,7 +3654,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -8588,26 +8623,118 @@
         <v>205936</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
+    <row r="53" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1049</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4540948</v>
+      </c>
+      <c r="D53" s="6">
+        <v>166</v>
+      </c>
+      <c r="E53" s="17">
+        <v>102646</v>
+      </c>
+      <c r="F53" s="16">
+        <v>666</v>
+      </c>
+      <c r="G53" s="18">
+        <v>4017845</v>
+      </c>
+      <c r="H53" s="6">
+        <v>232</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1248380</v>
+      </c>
+      <c r="J53" s="6">
+        <v>434</v>
+      </c>
+      <c r="K53" s="18">
+        <v>2769465</v>
+      </c>
+      <c r="L53" s="6">
+        <v>217</v>
+      </c>
+      <c r="M53" s="18">
+        <v>420457</v>
+      </c>
+      <c r="N53" s="16">
+        <v>551</v>
+      </c>
+      <c r="O53" s="7">
+        <v>3106964</v>
+      </c>
+      <c r="P53" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>10047</v>
+      </c>
+      <c r="R53" s="16">
+        <v>396</v>
+      </c>
+      <c r="S53" s="18">
+        <v>2885546</v>
+      </c>
+      <c r="T53" s="6">
+        <v>184</v>
+      </c>
+      <c r="U53" s="18">
+        <v>1077692</v>
+      </c>
+      <c r="V53" s="6">
+        <v>212</v>
+      </c>
+      <c r="W53" s="18">
+        <v>1807854</v>
+      </c>
+      <c r="X53" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y53" s="18">
+        <v>211371</v>
+      </c>
+      <c r="Z53" s="16">
+        <v>498</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>1433984</v>
+      </c>
+      <c r="AB53" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC53" s="17">
+        <v>92599</v>
+      </c>
+      <c r="AD53" s="16">
+        <v>270</v>
+      </c>
+      <c r="AE53" s="18">
+        <v>1132299</v>
+      </c>
+      <c r="AF53" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG53" s="18">
+        <v>170687</v>
+      </c>
+      <c r="AH53" s="6">
+        <v>222</v>
+      </c>
+      <c r="AI53" s="18">
+        <v>961612</v>
+      </c>
+      <c r="AJ53" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK53" s="18">
+        <v>209086</v>
+      </c>
     </row>
     <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M54" s="20"/>
@@ -9252,6 +9379,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -9268,15 +9404,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4143D6-067B-084B-9D2F-55B49E424DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D7A80-1B99-DD4C-B62C-2E3B77A7F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42740" yWindow="500" windowWidth="45960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>DATE</t>
   </si>
@@ -237,6 +237,9 @@
   <si>
     <t xml:space="preserve">06/15/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">06/22/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -380,11 +383,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -432,8 +436,6 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -447,22 +449,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,10 +584,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$45</c:f>
+              <c:f>Sheet1!$A$4:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -709,16 +713,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$45</c:f>
+              <c:f>Sheet1!$D$3:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2.1050421186105299E-3</c:v>
                 </c:pt>
@@ -847,6 +854,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-6.6863221647391622E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.808851341695623E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,10 +896,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$45</c:f>
+              <c:f>Sheet1!$A$4:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -1015,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$45</c:f>
+              <c:f>Sheet1!$F$3:$F$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>-1.4434046701599721E-3</c:v>
                 </c:pt>
@@ -1153,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>6.5037431968993165E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.4045456574131927E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,7 +1263,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1919,15 +1935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>602475</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>116159</xdr:rowOff>
+      <xdr:colOff>579243</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371708</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>4802</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23231</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100671</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2213,1141 +2229,1171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="164" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="22"/>
-    <col min="2" max="2" width="13.6640625" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="10.83203125" style="20"/>
+    <col min="2" max="2" width="13.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="20"/>
+    <col min="4" max="4" width="10.83203125" style="30"/>
+    <col min="5" max="5" width="10.83203125" style="20"/>
+    <col min="6" max="6" width="10.83203125" style="30"/>
+    <col min="7" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="22">
         <v>44426</v>
       </c>
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="22" t="str">
         <f>'Public Report'!A10</f>
         <v xml:space="preserve">08/18/2021 </v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="23">
         <f>'Public Report'!O10</f>
         <v>3095425</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <f>'Public Report'!AA10</f>
         <v>1427874</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>44433</v>
       </c>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="22" t="str">
         <f>'Public Report'!A11</f>
         <v xml:space="preserve">08/25/2021 </v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <f>'Public Report'!O11</f>
         <v>3101941</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="30">
         <f>(C3-C2)/C2</f>
         <v>2.1050421186105299E-3</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <f>'Public Report'!AA11</f>
         <v>1425813</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="30">
         <f>(E3-E2)/E2</f>
         <v>-1.4434046701599721E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>44440</v>
       </c>
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="22" t="str">
         <f>'Public Report'!A12</f>
         <v xml:space="preserve">09/01/2021 </v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <f>'Public Report'!O12</f>
         <v>3083206</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="30">
         <f t="shared" ref="D4:D25" si="0">(C4-C3)/C3</f>
         <v>-6.0397667138091925E-3</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <f>'Public Report'!AA12</f>
         <v>1427699</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="30">
         <f t="shared" ref="F4:F29" si="1">(E4-E3)/E3</f>
         <v>1.3227541059030884E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>44447</v>
       </c>
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="22" t="str">
         <f>'Public Report'!A13</f>
         <v xml:space="preserve">09/08/2021 </v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <f>'Public Report'!O13</f>
         <v>3077293</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>-1.9178089300552737E-3</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <f>'Public Report'!AA13</f>
         <v>1428381</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="30">
         <f t="shared" si="1"/>
         <v>4.7769172633727416E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <v>44454</v>
       </c>
-      <c r="B6" s="24" t="str">
+      <c r="B6" s="22" t="str">
         <f>'Public Report'!A14</f>
         <v xml:space="preserve">09/15/2021 </v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <f>'Public Report'!O14</f>
         <v>3035070</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>-1.3720825413764631E-2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <f>'Public Report'!AA14</f>
         <v>1430749</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="30">
         <f t="shared" si="1"/>
         <v>1.6578209875376389E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>44461</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="22" t="str">
         <f>'Public Report'!A15</f>
         <v xml:space="preserve">09/22/2021 </v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="23">
         <f>'Public Report'!O15</f>
         <v>3085193</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>1.6514610865647251E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <f>'Public Report'!AA15</f>
         <v>1430624</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="30">
         <f t="shared" si="1"/>
         <v>-8.7366826745991088E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <v>44468</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="22" t="str">
         <f>'Public Report'!A16</f>
         <v xml:space="preserve">09/29/2021 </v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <f>'Public Report'!O16</f>
         <v>3116842</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
         <v>1.0258353367196153E-2</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <f>'Public Report'!AA16</f>
         <v>1431108</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="30">
         <f t="shared" si="1"/>
         <v>3.3831391057328829E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>44475</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="22" t="str">
         <f>'Public Report'!A17</f>
         <v xml:space="preserve">10/06/2021 </v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <f>'Public Report'!O17</f>
         <v>3097972</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="30">
         <f t="shared" si="0"/>
         <v>-6.0542048650525111E-3</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <f>'Public Report'!AA17</f>
         <v>1435796</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="30">
         <f t="shared" si="1"/>
         <v>3.275783518784047E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="22">
         <v>44482</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="22" t="str">
         <f>'Public Report'!A18</f>
         <v xml:space="preserve">10/13/2021 </v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <f>'Public Report'!O18</f>
         <v>3092568</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
         <v>-1.7443669600629057E-3</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <f>'Public Report'!AA18</f>
         <v>1435476</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="30">
         <f t="shared" si="1"/>
         <v>-2.228728872346768E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>44489</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="22" t="str">
         <f>'Public Report'!A19</f>
         <v xml:space="preserve">10/20/2021 </v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <f>'Public Report'!O19</f>
         <v>3085312</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
         <v>-2.3462701547710511E-3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <f>'Public Report'!AA19</f>
         <v>1435866</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="30">
         <f t="shared" si="1"/>
         <v>2.7168688295729082E-4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <v>44496</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="22" t="str">
         <f>'Public Report'!A20</f>
         <v xml:space="preserve">10/27/2021 </v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <f>'Public Report'!O20</f>
         <v>3128447</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="30">
         <f t="shared" si="0"/>
         <v>1.3980757861765681E-2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <f>'Public Report'!AA20</f>
         <v>1434475</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="30">
         <f t="shared" si="1"/>
         <v>-9.6875335163587692E-4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>44503</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="22" t="str">
         <f>'Public Report'!A21</f>
         <v xml:space="preserve">11/03/2021 </v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="23">
         <f>'Public Report'!O21</f>
         <v>3122368</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="30">
         <f t="shared" si="0"/>
         <v>-1.943136642557793E-3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <f>'Public Report'!AA21</f>
         <v>1434731</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="30">
         <f t="shared" si="1"/>
         <v>1.7846250370344552E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>44510</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="22" t="str">
         <f>'Public Report'!A22</f>
         <v xml:space="preserve">11/10/2021 </v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="23">
         <f>'Public Report'!O22</f>
         <v>3135214</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>4.1141851312849736E-3</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <f>'Public Report'!AA22</f>
         <v>1433601</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="30">
         <f t="shared" si="1"/>
         <v>-7.876040874561155E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>44517</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="22" t="str">
         <f>'Public Report'!A23</f>
         <v xml:space="preserve">11/17/2021 </v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <f>'Public Report'!O23</f>
         <v>3144250</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="30">
         <f t="shared" si="0"/>
         <v>2.8820999140728512E-3</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <f>'Public Report'!AA23</f>
         <v>1433280</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="30">
         <f t="shared" si="1"/>
         <v>-2.2391167416875406E-4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <v>44523</v>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="22" t="str">
         <f>'Public Report'!A24</f>
         <v xml:space="preserve">11/23/2021 </v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="23">
         <f>'Public Report'!O24</f>
         <v>3163875</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="30">
         <f t="shared" si="0"/>
         <v>6.2415520394370674E-3</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <f>'Public Report'!AA24</f>
         <v>1435768</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="30">
         <f t="shared" si="1"/>
         <v>1.7358785443179281E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>44531</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="22" t="str">
         <f>'Public Report'!A25</f>
         <v xml:space="preserve">12/01/2021 </v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <f>'Public Report'!O25</f>
         <v>3189203</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="30">
         <f t="shared" si="0"/>
         <v>8.005373157915531E-3</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <f>'Public Report'!AA25</f>
         <v>1432047</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="30">
         <f t="shared" si="1"/>
         <v>-2.5916443325105449E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>44538</v>
       </c>
-      <c r="B18" s="24" t="str">
+      <c r="B18" s="22" t="str">
         <f>'Public Report'!A26</f>
         <v xml:space="preserve">12/08/2021 </v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="23">
         <f>'Public Report'!O26</f>
         <v>3195869</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="30">
         <f t="shared" si="0"/>
         <v>2.0901773891470691E-3</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <f>'Public Report'!AA26</f>
         <v>1440082</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="30">
         <f t="shared" si="1"/>
         <v>5.6108493645809108E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>44545</v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="22" t="str">
         <f>'Public Report'!A27</f>
         <v xml:space="preserve">12/15/2021 </v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <f>'Public Report'!O27</f>
         <v>3191087</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="30">
         <f t="shared" si="0"/>
         <v>-1.4963066383509461E-3</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <f>'Public Report'!AA27</f>
         <v>1444924</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="30">
         <f t="shared" si="1"/>
         <v>3.3623085352084119E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>44552</v>
       </c>
-      <c r="B20" s="24" t="str">
+      <c r="B20" s="22" t="str">
         <f>'Public Report'!A28</f>
         <v xml:space="preserve">12/22/2021 </v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="23">
         <f>'Public Report'!O28</f>
         <v>3203899</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="30">
         <f t="shared" si="0"/>
         <v>4.0149328426332467E-3</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <f>'Public Report'!AA28</f>
         <v>1462277</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="30">
         <f t="shared" si="1"/>
         <v>1.200962818805695E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>44559</v>
       </c>
-      <c r="B21" s="24" t="str">
+      <c r="B21" s="22" t="str">
         <f>'Public Report'!A29</f>
         <v xml:space="preserve">12/29/2021 </v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <f>'Public Report'!O29</f>
         <v>3236446</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="30">
         <f t="shared" si="0"/>
         <v>1.0158559929635734E-2</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <f>'Public Report'!AA29</f>
         <v>1468708</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="30">
         <f t="shared" si="1"/>
         <v>4.3979355484631165E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="22">
         <v>44566</v>
       </c>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="22" t="str">
         <f>'Public Report'!A30</f>
         <v xml:space="preserve">01/05/2022 </v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="23">
         <f>'Public Report'!O30</f>
         <v>3216456</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="30">
         <f t="shared" si="0"/>
         <v>-6.1765282040855927E-3</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <f>'Public Report'!AA30</f>
         <v>1486116</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="30">
         <f t="shared" si="1"/>
         <v>1.1852594252907998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>44573</v>
       </c>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="22" t="str">
         <f>'Public Report'!A31</f>
         <v xml:space="preserve">01/12/2022 </v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <f>'Public Report'!O31</f>
         <v>3191821</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="30">
         <f t="shared" si="0"/>
         <v>-7.6590508311010627E-3</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <f>'Public Report'!AA31</f>
         <v>1482637</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="30">
         <f t="shared" si="1"/>
         <v>-2.3410016445553376E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+      <c r="A24" s="22">
         <v>44580</v>
       </c>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="22" t="str">
         <f>'Public Report'!A32</f>
         <v xml:space="preserve">01/19/2022 </v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <f>'Public Report'!O32</f>
         <v>3140830</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="30">
         <f t="shared" si="0"/>
         <v>-1.597551993047229E-2</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <f>'Public Report'!AA32</f>
         <v>1475701</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="30">
         <f t="shared" si="1"/>
         <v>-4.6781511590497206E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>44587</v>
       </c>
-      <c r="B25" s="24" t="str">
+      <c r="B25" s="22" t="str">
         <f>'Public Report'!A33</f>
         <v xml:space="preserve">01/26/2022 </v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="23">
         <f>'Public Report'!O33</f>
         <v>3159944</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="30">
         <f t="shared" si="0"/>
         <v>6.0856525186017705E-3</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <f>'Public Report'!AA33</f>
         <v>1485182</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="30">
         <f t="shared" si="1"/>
         <v>6.4247432237289261E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <v>44594</v>
       </c>
-      <c r="B26" s="24" t="str">
+      <c r="B26" s="22" t="str">
         <f>'Public Report'!A34</f>
         <v xml:space="preserve">02/02/2022 </v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="23">
         <f>'Public Report'!O34</f>
         <v>3145081</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="30">
         <f t="shared" ref="D26:D33" si="2">(C26-C25)/C25</f>
         <v>-4.7035643669634652E-3</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <f>'Public Report'!AA34</f>
         <v>1482510</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="30">
         <f t="shared" si="1"/>
         <v>-1.7991061028210685E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <v>44601</v>
       </c>
-      <c r="B27" s="24" t="str">
+      <c r="B27" s="22" t="str">
         <f>'Public Report'!A35</f>
         <v xml:space="preserve">02/09/2022 </v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="23">
         <f>'Public Report'!O35</f>
         <v>3115863</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="30">
         <f t="shared" si="2"/>
         <v>-9.2900627996544451E-3</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <f>'Public Report'!AA35</f>
         <v>1477381</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="30">
         <f t="shared" si="1"/>
         <v>-3.4596731219350965E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
+      <c r="A28" s="22">
         <v>44608</v>
       </c>
-      <c r="B28" s="24" t="str">
+      <c r="B28" s="22" t="str">
         <f>'Public Report'!A36</f>
         <v xml:space="preserve">02/16/2022 </v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="23">
         <f>'Public Report'!O36</f>
         <v>3075231</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="30">
         <f t="shared" si="2"/>
         <v>-1.3040367949425247E-2</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="24">
         <f>'Public Report'!AA36</f>
         <v>1474493</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="30">
         <f t="shared" si="1"/>
         <v>-1.9548105735758075E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
+      <c r="A29" s="22">
         <v>44615</v>
       </c>
-      <c r="B29" s="24" t="str">
+      <c r="B29" s="22" t="str">
         <f>'Public Report'!A37</f>
         <v xml:space="preserve">02/23/2022 </v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <f>'Public Report'!O37</f>
         <v>3077286</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="30">
         <f t="shared" si="2"/>
         <v>6.6824248324759991E-4</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="24">
         <f>'Public Report'!AA37</f>
         <v>1477450</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="30">
         <f t="shared" si="1"/>
         <v>2.0054350885355169E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+      <c r="A30" s="22">
         <v>44622</v>
       </c>
-      <c r="B30" s="24" t="str">
+      <c r="B30" s="22" t="str">
         <f>'Public Report'!A38</f>
         <v xml:space="preserve">03/02/2022 </v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="23">
         <f>'Public Report'!O38</f>
         <v>3176276</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="30">
         <f t="shared" si="2"/>
         <v>3.2167955789614615E-2</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="24">
         <f>'Public Report'!AA38</f>
         <v>1429754</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="30">
         <f t="shared" ref="F30:F36" si="3">(E30-E29)/E29</f>
         <v>-3.2282649159023992E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
+      <c r="A31" s="22">
         <v>44629</v>
       </c>
-      <c r="B31" s="24" t="str">
+      <c r="B31" s="22" t="str">
         <f>'Public Report'!A39</f>
         <v xml:space="preserve">03/09/2022 </v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="23">
         <f>'Public Report'!O39</f>
         <v>3144169</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="30">
         <f t="shared" si="2"/>
         <v>-1.0108378491037932E-2</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="24">
         <f>'Public Report'!AA39</f>
         <v>1431379</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="30">
         <f t="shared" si="3"/>
         <v>1.1365591563303897E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+      <c r="A32" s="22">
         <v>44636</v>
       </c>
-      <c r="B32" s="24" t="str">
+      <c r="B32" s="22" t="str">
         <f>'Public Report'!A40</f>
         <v xml:space="preserve">03/16/2022 </v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <f>'Public Report'!O40</f>
         <v>3120648</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="30">
         <f t="shared" si="2"/>
         <v>-7.4808319781792896E-3</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="24">
         <f>'Public Report'!AA40</f>
         <v>1438014</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="30">
         <f t="shared" si="3"/>
         <v>4.6353900678995572E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
+      <c r="A33" s="22">
         <v>44643</v>
       </c>
-      <c r="B33" s="24" t="str">
+      <c r="B33" s="22" t="str">
         <f>'Public Report'!A41</f>
         <v xml:space="preserve">03/23/2022 </v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="23">
         <f>'Public Report'!O41</f>
         <v>3124767</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="30">
         <f t="shared" si="2"/>
         <v>1.3199181708414406E-3</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="24">
         <f>'Public Report'!AA41</f>
         <v>1435849</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="30">
         <f t="shared" si="3"/>
         <v>-1.505548624700455E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
+      <c r="A34" s="22">
         <f>VALUE(B34)</f>
         <v>44650</v>
       </c>
-      <c r="B34" s="24" t="str">
+      <c r="B34" s="22" t="str">
         <f>'Public Report'!A42</f>
         <v xml:space="preserve">03/30/2022 </v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="23">
         <f>'Public Report'!O42</f>
         <v>3153268</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="30">
         <f>(C34-C33)/C33</f>
         <v>9.1210000617646045E-3</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="24">
         <f>'Public Report'!AA42</f>
         <v>1437078</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="30">
         <f t="shared" si="3"/>
         <v>8.5593958696213873E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+      <c r="A35" s="22">
         <f t="shared" ref="A35:A38" si="4">VALUE(B35)</f>
         <v>44657</v>
       </c>
-      <c r="B35" s="24" t="str">
+      <c r="B35" s="22" t="str">
         <f>'Public Report'!A43</f>
         <v xml:space="preserve">04/06/2022 </v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="23">
         <f>'Public Report'!O43</f>
         <v>3126112</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="30">
         <f>(C35-C34)/C34</f>
         <v>-8.612017754279052E-3</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="24">
         <f>'Public Report'!AA43</f>
         <v>1433440</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="30">
         <f t="shared" si="3"/>
         <v>-2.5315257766105946E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="A36" s="22">
         <f t="shared" si="4"/>
         <v>44664</v>
       </c>
-      <c r="B36" s="24" t="str">
+      <c r="B36" s="22" t="str">
         <f>'Public Report'!A44</f>
         <v xml:space="preserve">04/13/2022 </v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="23">
         <f>'Public Report'!O44</f>
         <v>3100953</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="30">
         <f>(C36-C35)/C35</f>
         <v>-8.0480161939175572E-3</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="24">
         <f>'Public Report'!AA44</f>
         <v>1428733</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="30">
         <f t="shared" si="3"/>
         <v>-3.2837091193213528E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+      <c r="A37" s="22">
         <f t="shared" si="4"/>
         <v>44671</v>
       </c>
-      <c r="B37" s="24" t="str">
+      <c r="B37" s="22" t="str">
         <f>'Public Report'!A45</f>
         <v xml:space="preserve">04/20/2022 </v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="23">
         <f>'Public Report'!O45</f>
         <v>3059150</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="30">
         <f t="shared" ref="D37:D38" si="5">(C37-C36)/C36</f>
         <v>-1.3480694483276592E-2</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="24">
         <f>'Public Report'!AA45</f>
         <v>1409256</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="30">
         <f t="shared" ref="F37:F38" si="6">(E37-E36)/E36</f>
         <v>-1.363235818028981E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
+      <c r="A38" s="22">
         <f t="shared" si="4"/>
         <v>44678</v>
       </c>
-      <c r="B38" s="24" t="str">
+      <c r="B38" s="22" t="str">
         <f>'Public Report'!A46</f>
         <v xml:space="preserve">04/27/2022 </v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="23">
         <f>'Public Report'!O46</f>
         <v>3109117</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="30">
         <f t="shared" si="5"/>
         <v>1.6333622084565975E-2</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="24">
         <f>'Public Report'!AA46</f>
         <v>1400620</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="30">
         <f t="shared" si="6"/>
         <v>-6.1280562225741811E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
+      <c r="A39" s="22">
         <f t="shared" ref="A39" si="7">VALUE(B39)</f>
         <v>44685</v>
       </c>
-      <c r="B39" s="24" t="str">
+      <c r="B39" s="22" t="str">
         <f>'Public Report'!A47</f>
         <v xml:space="preserve">05/04/2022 </v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="23">
         <f>'Public Report'!O47</f>
         <v>3109874</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="30">
         <f t="shared" ref="D39" si="8">(C39-C38)/C38</f>
         <v>2.434774889462185E-4</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="24">
         <f>'Public Report'!AA47</f>
         <v>1402069</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="30">
         <f t="shared" ref="F39" si="9">(E39-E38)/E38</f>
         <v>1.0345418457540232E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
+      <c r="A40" s="22">
         <f t="shared" ref="A40" si="10">VALUE(B40)</f>
         <v>44692</v>
       </c>
-      <c r="B40" s="24" t="str">
+      <c r="B40" s="22" t="str">
         <f>'Public Report'!A48</f>
         <v xml:space="preserve">05/11/2022 </v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="23">
         <f>'Public Report'!O48</f>
         <v>3093138</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="30">
         <f t="shared" ref="D40" si="11">(C40-C39)/C39</f>
         <v>-5.3815685137082727E-3</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="24">
         <f>'Public Report'!AA48</f>
         <v>1407734</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="30">
         <f t="shared" ref="F40" si="12">(E40-E39)/E39</f>
         <v>4.0404573526695194E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
+      <c r="A41" s="22">
         <f t="shared" ref="A41" si="13">VALUE(B41)</f>
         <v>44699</v>
       </c>
-      <c r="B41" s="24" t="str">
+      <c r="B41" s="22" t="str">
         <f>'Public Report'!A49</f>
         <v xml:space="preserve">05/18/2022 </v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="23">
         <f>'Public Report'!O49</f>
         <v>3066737</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="30">
         <f t="shared" ref="D41" si="14">(C41-C40)/C40</f>
         <v>-8.5353450120880473E-3</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="24">
         <f>'Public Report'!AA49</f>
         <v>1417902</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="30">
         <f t="shared" ref="F41" si="15">(E41-E40)/E40</f>
         <v>7.2229554731220525E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
+      <c r="A42" s="22">
         <f t="shared" ref="A42" si="16">VALUE(B42)</f>
         <v>44706</v>
       </c>
-      <c r="B42" s="24" t="str">
+      <c r="B42" s="22" t="str">
         <f>'Public Report'!A50</f>
         <v xml:space="preserve">05/25/2022 </v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="23">
         <f>'Public Report'!O50</f>
         <v>3107833</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="30">
         <f t="shared" ref="D42" si="17">(C42-C41)/C41</f>
         <v>1.3400562226235898E-2</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="24">
         <f>'Public Report'!AA50</f>
         <v>1420845</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="30">
         <f t="shared" ref="F42" si="18">(E42-E41)/E41</f>
         <v>2.0756018399014885E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+      <c r="A43" s="22">
         <f t="shared" ref="A43" si="19">VALUE(B43)</f>
         <v>44713</v>
       </c>
-      <c r="B43" s="24" t="str">
+      <c r="B43" s="22" t="str">
         <f>'Public Report'!A51</f>
         <v xml:space="preserve">06/01/2022 </v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="23">
         <f>'Public Report'!O51</f>
         <v>3105346</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="30">
         <f t="shared" ref="D43" si="20">(C43-C42)/C42</f>
         <v>-8.0023604871947752E-4</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="24">
         <f>'Public Report'!AA51</f>
         <v>1420855</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="30">
         <f t="shared" ref="F43" si="21">(E43-E42)/E42</f>
         <v>7.0380653765892836E-6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
+      <c r="A44" s="22">
         <f t="shared" ref="A44" si="22">VALUE(B44)</f>
         <v>44720</v>
       </c>
-      <c r="B44" s="24" t="str">
+      <c r="B44" s="22" t="str">
         <f>'Public Report'!A52</f>
         <v xml:space="preserve">06/08/2022 </v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="23">
         <f>'Public Report'!O52</f>
         <v>3127878</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="30">
         <f t="shared" ref="D44" si="23">(C44-C43)/C43</f>
         <v>7.2558742246435666E-3</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="24">
         <f>'Public Report'!AA52</f>
         <v>1424718</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="30">
         <f t="shared" ref="F44" si="24">(E44-E43)/E43</f>
         <v>2.7187855199862056E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
-        <f t="shared" ref="A45" si="25">VALUE(B45)</f>
+      <c r="A45" s="22">
+        <f t="shared" ref="A45:A46" si="25">VALUE(B45)</f>
         <v>44727</v>
       </c>
-      <c r="B45" s="24" t="str">
+      <c r="B45" s="22" t="str">
         <f>'Public Report'!A53</f>
         <v xml:space="preserve">06/15/2022 </v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="23">
         <f>'Public Report'!O53</f>
         <v>3106964</v>
       </c>
-      <c r="D45" s="22">
-        <f t="shared" ref="D45" si="26">(C45-C44)/C44</f>
+      <c r="D45" s="30">
+        <f t="shared" ref="D45:D46" si="26">(C45-C44)/C44</f>
         <v>-6.6863221647391622E-3</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="24">
         <f>'Public Report'!AA53</f>
         <v>1433984</v>
       </c>
-      <c r="F45" s="22">
-        <f t="shared" ref="F45" si="27">(E45-E44)/E44</f>
+      <c r="F45" s="30">
+        <f t="shared" ref="F45:F46" si="27">(E45-E44)/E44</f>
         <v>6.5037431968993165E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
+        <f t="shared" si="25"/>
+        <v>44734</v>
+      </c>
+      <c r="B46" s="22" t="str">
+        <f>'Public Report'!A54</f>
+        <v xml:space="preserve">06/22/2022 </v>
+      </c>
+      <c r="C46" s="23">
+        <f>'Public Report'!O54</f>
+        <v>3098237</v>
+      </c>
+      <c r="D46" s="30">
+        <f t="shared" si="26"/>
+        <v>-2.808851341695623E-3</v>
+      </c>
+      <c r="E46" s="24">
+        <f>'Public Report'!AA54</f>
+        <v>1444602</v>
+      </c>
+      <c r="F46" s="30">
+        <f t="shared" si="27"/>
+        <v>7.4045456574131927E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3408,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3428,7 +3474,7 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -3480,7 +3526,7 @@
       <c r="AP5" s="12"/>
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -3525,66 +3571,66 @@
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="31" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="30" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="27" t="s">
+      <c r="Q7" s="27"/>
+      <c r="R7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="31" t="s">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27" t="s">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="30" t="s">
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="27" t="s">
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AK7" s="27"/>
+      <c r="AK7" s="25"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
@@ -3593,60 +3639,60 @@
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="27" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="27" t="s">
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27" t="s">
+      <c r="S8" s="25"/>
+      <c r="T8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27" t="s">
+      <c r="U8" s="25"/>
+      <c r="V8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="27" t="s">
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27" t="s">
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27" t="s">
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="27"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="25"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -3765,7 +3811,7 @@
       </c>
     </row>
     <row r="10" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="16">
@@ -3878,7 +3924,7 @@
       </c>
     </row>
     <row r="11" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="16">
@@ -3991,7 +4037,7 @@
       </c>
     </row>
     <row r="12" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="16">
@@ -4104,7 +4150,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="16">
@@ -6477,7 +6523,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="16">
@@ -6590,7 +6636,7 @@
       </c>
     </row>
     <row r="35" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="16">
@@ -6703,7 +6749,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="16">
@@ -6816,7 +6862,7 @@
       </c>
     </row>
     <row r="37" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="16">
@@ -6929,7 +6975,7 @@
       </c>
     </row>
     <row r="38" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="16">
@@ -7042,7 +7088,7 @@
       </c>
     </row>
     <row r="39" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="16">
@@ -7155,7 +7201,7 @@
       </c>
     </row>
     <row r="40" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="16">
@@ -7268,7 +7314,7 @@
       </c>
     </row>
     <row r="41" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="16">
@@ -7381,7 +7427,7 @@
       </c>
     </row>
     <row r="42" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="16">
@@ -7494,7 +7540,7 @@
       </c>
     </row>
     <row r="43" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="16">
@@ -7607,7 +7653,7 @@
       </c>
     </row>
     <row r="44" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="16">
@@ -7720,7 +7766,7 @@
       </c>
     </row>
     <row r="45" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="16">
@@ -7833,7 +7879,7 @@
       </c>
     </row>
     <row r="46" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="16">
@@ -7946,7 +7992,7 @@
       </c>
     </row>
     <row r="47" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="16">
@@ -8059,7 +8105,7 @@
       </c>
     </row>
     <row r="48" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="16">
@@ -8172,7 +8218,7 @@
       </c>
     </row>
     <row r="49" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="16">
@@ -8285,7 +8331,7 @@
       </c>
     </row>
     <row r="50" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="16">
@@ -8398,7 +8444,7 @@
       </c>
     </row>
     <row r="51" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="16">
@@ -8511,7 +8557,7 @@
       </c>
     </row>
     <row r="52" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B52" s="16">
@@ -8624,7 +8670,7 @@
       </c>
     </row>
     <row r="53" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="16">
@@ -8736,26 +8782,118 @@
         <v>209086</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
+    <row r="54" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C54" s="7">
+        <v>4542838</v>
+      </c>
+      <c r="D54" s="6">
+        <v>166</v>
+      </c>
+      <c r="E54" s="17">
+        <v>102637</v>
+      </c>
+      <c r="F54" s="16">
+        <v>665</v>
+      </c>
+      <c r="G54" s="18">
+        <v>4014108</v>
+      </c>
+      <c r="H54" s="6">
+        <v>232</v>
+      </c>
+      <c r="I54" s="18">
+        <v>1246905</v>
+      </c>
+      <c r="J54" s="6">
+        <v>433</v>
+      </c>
+      <c r="K54" s="18">
+        <v>2767203</v>
+      </c>
+      <c r="L54" s="6">
+        <v>217</v>
+      </c>
+      <c r="M54" s="18">
+        <v>426094</v>
+      </c>
+      <c r="N54" s="16">
+        <v>551</v>
+      </c>
+      <c r="O54" s="7">
+        <v>3098237</v>
+      </c>
+      <c r="P54" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q54" s="17">
+        <v>9830</v>
+      </c>
+      <c r="R54" s="16">
+        <v>396</v>
+      </c>
+      <c r="S54" s="18">
+        <v>2875586</v>
+      </c>
+      <c r="T54" s="6">
+        <v>184</v>
+      </c>
+      <c r="U54" s="18">
+        <v>1076505</v>
+      </c>
+      <c r="V54" s="6">
+        <v>212</v>
+      </c>
+      <c r="W54" s="18">
+        <v>1799081</v>
+      </c>
+      <c r="X54" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y54" s="18">
+        <v>212820</v>
+      </c>
+      <c r="Z54" s="16">
+        <v>497</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>1444602</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC54" s="17">
+        <v>92807</v>
+      </c>
+      <c r="AD54" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE54" s="18">
+        <v>1138522</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG54" s="18">
+        <v>170400</v>
+      </c>
+      <c r="AH54" s="6">
+        <v>221</v>
+      </c>
+      <c r="AI54" s="18">
+        <v>968122</v>
+      </c>
+      <c r="AJ54" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK54" s="18">
+        <v>213274</v>
+      </c>
     </row>
     <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M55" s="10"/>
@@ -9379,15 +9517,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -9404,6 +9533,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D7A80-1B99-DD4C-B62C-2E3B77A7F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CB8A1-1C50-E644-AE5F-84890B9F8836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42740" yWindow="500" windowWidth="45960" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42720" yWindow="500" windowWidth="49840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>DATE</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">06/22/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/06/2022 </t>
   </si>
 </sst>
 </file>
@@ -446,13 +449,8 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +459,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -584,10 +587,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$46</c:f>
+              <c:f>Sheet1!$A$4:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -716,16 +719,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$46</c:f>
+              <c:f>Sheet1!$D$3:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2.1050421186105299E-3</c:v>
                 </c:pt>
@@ -857,6 +863,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-2.808851341695623E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.0045522663372746E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,10 +905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$46</c:f>
+              <c:f>Sheet1!$A$4:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -1028,16 +1037,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$46</c:f>
+              <c:f>Sheet1!$F$3:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>-1.4434046701599721E-3</c:v>
                 </c:pt>
@@ -1169,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>7.4045456574131927E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1841323769453455E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,20 +2244,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="164" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="20"/>
-    <col min="2" max="2" width="13.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="21" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="20"/>
-    <col min="4" max="4" width="10.83203125" style="30"/>
+    <col min="4" max="4" width="10.83203125" style="25"/>
     <col min="5" max="5" width="10.83203125" style="20"/>
-    <col min="6" max="6" width="10.83203125" style="30"/>
+    <col min="6" max="6" width="10.83203125" style="25"/>
     <col min="7" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
@@ -2256,13 +2271,13 @@
       <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="25" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2270,7 +2285,7 @@
       <c r="A2" s="22">
         <v>44426</v>
       </c>
-      <c r="B2" s="22" t="str">
+      <c r="B2" s="21" t="str">
         <f>'Public Report'!A10</f>
         <v xml:space="preserve">08/18/2021 </v>
       </c>
@@ -2287,7 +2302,7 @@
       <c r="A3" s="22">
         <v>44433</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="21" t="str">
         <f>'Public Report'!A11</f>
         <v xml:space="preserve">08/25/2021 </v>
       </c>
@@ -2295,7 +2310,7 @@
         <f>'Public Report'!O11</f>
         <v>3101941</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="25">
         <f>(C3-C2)/C2</f>
         <v>2.1050421186105299E-3</v>
       </c>
@@ -2303,7 +2318,7 @@
         <f>'Public Report'!AA11</f>
         <v>1425813</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="25">
         <f>(E3-E2)/E2</f>
         <v>-1.4434046701599721E-3</v>
       </c>
@@ -2312,7 +2327,7 @@
       <c r="A4" s="22">
         <v>44440</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="21" t="str">
         <f>'Public Report'!A12</f>
         <v xml:space="preserve">09/01/2021 </v>
       </c>
@@ -2320,7 +2335,7 @@
         <f>'Public Report'!O12</f>
         <v>3083206</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="25">
         <f t="shared" ref="D4:D25" si="0">(C4-C3)/C3</f>
         <v>-6.0397667138091925E-3</v>
       </c>
@@ -2328,7 +2343,7 @@
         <f>'Public Report'!AA12</f>
         <v>1427699</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="25">
         <f t="shared" ref="F4:F29" si="1">(E4-E3)/E3</f>
         <v>1.3227541059030884E-3</v>
       </c>
@@ -2337,7 +2352,7 @@
       <c r="A5" s="22">
         <v>44447</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="21" t="str">
         <f>'Public Report'!A13</f>
         <v xml:space="preserve">09/08/2021 </v>
       </c>
@@ -2345,7 +2360,7 @@
         <f>'Public Report'!O13</f>
         <v>3077293</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>-1.9178089300552737E-3</v>
       </c>
@@ -2353,7 +2368,7 @@
         <f>'Public Report'!AA13</f>
         <v>1428381</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <f t="shared" si="1"/>
         <v>4.7769172633727416E-4</v>
       </c>
@@ -2362,7 +2377,7 @@
       <c r="A6" s="22">
         <v>44454</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="21" t="str">
         <f>'Public Report'!A14</f>
         <v xml:space="preserve">09/15/2021 </v>
       </c>
@@ -2370,7 +2385,7 @@
         <f>'Public Report'!O14</f>
         <v>3035070</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
         <v>-1.3720825413764631E-2</v>
       </c>
@@ -2378,7 +2393,7 @@
         <f>'Public Report'!AA14</f>
         <v>1430749</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <f t="shared" si="1"/>
         <v>1.6578209875376389E-3</v>
       </c>
@@ -2387,7 +2402,7 @@
       <c r="A7" s="22">
         <v>44461</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="21" t="str">
         <f>'Public Report'!A15</f>
         <v xml:space="preserve">09/22/2021 </v>
       </c>
@@ -2395,7 +2410,7 @@
         <f>'Public Report'!O15</f>
         <v>3085193</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <f t="shared" si="0"/>
         <v>1.6514610865647251E-2</v>
       </c>
@@ -2403,7 +2418,7 @@
         <f>'Public Report'!AA15</f>
         <v>1430624</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <f t="shared" si="1"/>
         <v>-8.7366826745991088E-5</v>
       </c>
@@ -2412,7 +2427,7 @@
       <c r="A8" s="22">
         <v>44468</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="21" t="str">
         <f>'Public Report'!A16</f>
         <v xml:space="preserve">09/29/2021 </v>
       </c>
@@ -2420,7 +2435,7 @@
         <f>'Public Report'!O16</f>
         <v>3116842</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <f t="shared" si="0"/>
         <v>1.0258353367196153E-2</v>
       </c>
@@ -2428,7 +2443,7 @@
         <f>'Public Report'!AA16</f>
         <v>1431108</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <f t="shared" si="1"/>
         <v>3.3831391057328829E-4</v>
       </c>
@@ -2437,7 +2452,7 @@
       <c r="A9" s="22">
         <v>44475</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="21" t="str">
         <f>'Public Report'!A17</f>
         <v xml:space="preserve">10/06/2021 </v>
       </c>
@@ -2445,7 +2460,7 @@
         <f>'Public Report'!O17</f>
         <v>3097972</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <f t="shared" si="0"/>
         <v>-6.0542048650525111E-3</v>
       </c>
@@ -2453,7 +2468,7 @@
         <f>'Public Report'!AA17</f>
         <v>1435796</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
         <v>3.275783518784047E-3</v>
       </c>
@@ -2462,7 +2477,7 @@
       <c r="A10" s="22">
         <v>44482</v>
       </c>
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="21" t="str">
         <f>'Public Report'!A18</f>
         <v xml:space="preserve">10/13/2021 </v>
       </c>
@@ -2470,7 +2485,7 @@
         <f>'Public Report'!O18</f>
         <v>3092568</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>-1.7443669600629057E-3</v>
       </c>
@@ -2478,7 +2493,7 @@
         <f>'Public Report'!AA18</f>
         <v>1435476</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="25">
         <f t="shared" si="1"/>
         <v>-2.228728872346768E-4</v>
       </c>
@@ -2487,7 +2502,7 @@
       <c r="A11" s="22">
         <v>44489</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="21" t="str">
         <f>'Public Report'!A19</f>
         <v xml:space="preserve">10/20/2021 </v>
       </c>
@@ -2495,7 +2510,7 @@
         <f>'Public Report'!O19</f>
         <v>3085312</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <f t="shared" si="0"/>
         <v>-2.3462701547710511E-3</v>
       </c>
@@ -2503,7 +2518,7 @@
         <f>'Public Report'!AA19</f>
         <v>1435866</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="25">
         <f t="shared" si="1"/>
         <v>2.7168688295729082E-4</v>
       </c>
@@ -2512,7 +2527,7 @@
       <c r="A12" s="22">
         <v>44496</v>
       </c>
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="21" t="str">
         <f>'Public Report'!A20</f>
         <v xml:space="preserve">10/27/2021 </v>
       </c>
@@ -2520,7 +2535,7 @@
         <f>'Public Report'!O20</f>
         <v>3128447</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="25">
         <f t="shared" si="0"/>
         <v>1.3980757861765681E-2</v>
       </c>
@@ -2528,7 +2543,7 @@
         <f>'Public Report'!AA20</f>
         <v>1434475</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="25">
         <f t="shared" si="1"/>
         <v>-9.6875335163587692E-4</v>
       </c>
@@ -2537,7 +2552,7 @@
       <c r="A13" s="22">
         <v>44503</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="21" t="str">
         <f>'Public Report'!A21</f>
         <v xml:space="preserve">11/03/2021 </v>
       </c>
@@ -2545,7 +2560,7 @@
         <f>'Public Report'!O21</f>
         <v>3122368</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="25">
         <f t="shared" si="0"/>
         <v>-1.943136642557793E-3</v>
       </c>
@@ -2553,7 +2568,7 @@
         <f>'Public Report'!AA21</f>
         <v>1434731</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="25">
         <f t="shared" si="1"/>
         <v>1.7846250370344552E-4</v>
       </c>
@@ -2562,7 +2577,7 @@
       <c r="A14" s="22">
         <v>44510</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="21" t="str">
         <f>'Public Report'!A22</f>
         <v xml:space="preserve">11/10/2021 </v>
       </c>
@@ -2570,7 +2585,7 @@
         <f>'Public Report'!O22</f>
         <v>3135214</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="25">
         <f t="shared" si="0"/>
         <v>4.1141851312849736E-3</v>
       </c>
@@ -2578,7 +2593,7 @@
         <f>'Public Report'!AA22</f>
         <v>1433601</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="25">
         <f t="shared" si="1"/>
         <v>-7.876040874561155E-4</v>
       </c>
@@ -2587,7 +2602,7 @@
       <c r="A15" s="22">
         <v>44517</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="21" t="str">
         <f>'Public Report'!A23</f>
         <v xml:space="preserve">11/17/2021 </v>
       </c>
@@ -2595,7 +2610,7 @@
         <f>'Public Report'!O23</f>
         <v>3144250</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="25">
         <f t="shared" si="0"/>
         <v>2.8820999140728512E-3</v>
       </c>
@@ -2603,7 +2618,7 @@
         <f>'Public Report'!AA23</f>
         <v>1433280</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="25">
         <f t="shared" si="1"/>
         <v>-2.2391167416875406E-4</v>
       </c>
@@ -2612,7 +2627,7 @@
       <c r="A16" s="22">
         <v>44523</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="21" t="str">
         <f>'Public Report'!A24</f>
         <v xml:space="preserve">11/23/2021 </v>
       </c>
@@ -2620,7 +2635,7 @@
         <f>'Public Report'!O24</f>
         <v>3163875</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="25">
         <f t="shared" si="0"/>
         <v>6.2415520394370674E-3</v>
       </c>
@@ -2628,7 +2643,7 @@
         <f>'Public Report'!AA24</f>
         <v>1435768</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="25">
         <f t="shared" si="1"/>
         <v>1.7358785443179281E-3</v>
       </c>
@@ -2637,7 +2652,7 @@
       <c r="A17" s="22">
         <v>44531</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="21" t="str">
         <f>'Public Report'!A25</f>
         <v xml:space="preserve">12/01/2021 </v>
       </c>
@@ -2645,7 +2660,7 @@
         <f>'Public Report'!O25</f>
         <v>3189203</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="25">
         <f t="shared" si="0"/>
         <v>8.005373157915531E-3</v>
       </c>
@@ -2653,7 +2668,7 @@
         <f>'Public Report'!AA25</f>
         <v>1432047</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="25">
         <f t="shared" si="1"/>
         <v>-2.5916443325105449E-3</v>
       </c>
@@ -2662,7 +2677,7 @@
       <c r="A18" s="22">
         <v>44538</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="21" t="str">
         <f>'Public Report'!A26</f>
         <v xml:space="preserve">12/08/2021 </v>
       </c>
@@ -2670,7 +2685,7 @@
         <f>'Public Report'!O26</f>
         <v>3195869</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="25">
         <f t="shared" si="0"/>
         <v>2.0901773891470691E-3</v>
       </c>
@@ -2678,7 +2693,7 @@
         <f>'Public Report'!AA26</f>
         <v>1440082</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="25">
         <f t="shared" si="1"/>
         <v>5.6108493645809108E-3</v>
       </c>
@@ -2687,7 +2702,7 @@
       <c r="A19" s="22">
         <v>44545</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="21" t="str">
         <f>'Public Report'!A27</f>
         <v xml:space="preserve">12/15/2021 </v>
       </c>
@@ -2695,7 +2710,7 @@
         <f>'Public Report'!O27</f>
         <v>3191087</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="25">
         <f t="shared" si="0"/>
         <v>-1.4963066383509461E-3</v>
       </c>
@@ -2703,7 +2718,7 @@
         <f>'Public Report'!AA27</f>
         <v>1444924</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="25">
         <f t="shared" si="1"/>
         <v>3.3623085352084119E-3</v>
       </c>
@@ -2712,7 +2727,7 @@
       <c r="A20" s="22">
         <v>44552</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="21" t="str">
         <f>'Public Report'!A28</f>
         <v xml:space="preserve">12/22/2021 </v>
       </c>
@@ -2720,7 +2735,7 @@
         <f>'Public Report'!O28</f>
         <v>3203899</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="25">
         <f t="shared" si="0"/>
         <v>4.0149328426332467E-3</v>
       </c>
@@ -2728,7 +2743,7 @@
         <f>'Public Report'!AA28</f>
         <v>1462277</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="25">
         <f t="shared" si="1"/>
         <v>1.200962818805695E-2</v>
       </c>
@@ -2737,7 +2752,7 @@
       <c r="A21" s="22">
         <v>44559</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="21" t="str">
         <f>'Public Report'!A29</f>
         <v xml:space="preserve">12/29/2021 </v>
       </c>
@@ -2745,7 +2760,7 @@
         <f>'Public Report'!O29</f>
         <v>3236446</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="25">
         <f t="shared" si="0"/>
         <v>1.0158559929635734E-2</v>
       </c>
@@ -2753,7 +2768,7 @@
         <f>'Public Report'!AA29</f>
         <v>1468708</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="25">
         <f t="shared" si="1"/>
         <v>4.3979355484631165E-3</v>
       </c>
@@ -2762,7 +2777,7 @@
       <c r="A22" s="22">
         <v>44566</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="21" t="str">
         <f>'Public Report'!A30</f>
         <v xml:space="preserve">01/05/2022 </v>
       </c>
@@ -2770,7 +2785,7 @@
         <f>'Public Report'!O30</f>
         <v>3216456</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="25">
         <f t="shared" si="0"/>
         <v>-6.1765282040855927E-3</v>
       </c>
@@ -2778,7 +2793,7 @@
         <f>'Public Report'!AA30</f>
         <v>1486116</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="25">
         <f t="shared" si="1"/>
         <v>1.1852594252907998E-2</v>
       </c>
@@ -2787,7 +2802,7 @@
       <c r="A23" s="22">
         <v>44573</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="21" t="str">
         <f>'Public Report'!A31</f>
         <v xml:space="preserve">01/12/2022 </v>
       </c>
@@ -2795,7 +2810,7 @@
         <f>'Public Report'!O31</f>
         <v>3191821</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="25">
         <f t="shared" si="0"/>
         <v>-7.6590508311010627E-3</v>
       </c>
@@ -2803,7 +2818,7 @@
         <f>'Public Report'!AA31</f>
         <v>1482637</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="25">
         <f t="shared" si="1"/>
         <v>-2.3410016445553376E-3</v>
       </c>
@@ -2812,7 +2827,7 @@
       <c r="A24" s="22">
         <v>44580</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="21" t="str">
         <f>'Public Report'!A32</f>
         <v xml:space="preserve">01/19/2022 </v>
       </c>
@@ -2820,7 +2835,7 @@
         <f>'Public Report'!O32</f>
         <v>3140830</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="25">
         <f t="shared" si="0"/>
         <v>-1.597551993047229E-2</v>
       </c>
@@ -2828,7 +2843,7 @@
         <f>'Public Report'!AA32</f>
         <v>1475701</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="25">
         <f t="shared" si="1"/>
         <v>-4.6781511590497206E-3</v>
       </c>
@@ -2837,7 +2852,7 @@
       <c r="A25" s="22">
         <v>44587</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="21" t="str">
         <f>'Public Report'!A33</f>
         <v xml:space="preserve">01/26/2022 </v>
       </c>
@@ -2845,7 +2860,7 @@
         <f>'Public Report'!O33</f>
         <v>3159944</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="25">
         <f t="shared" si="0"/>
         <v>6.0856525186017705E-3</v>
       </c>
@@ -2853,7 +2868,7 @@
         <f>'Public Report'!AA33</f>
         <v>1485182</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="25">
         <f t="shared" si="1"/>
         <v>6.4247432237289261E-3</v>
       </c>
@@ -2862,7 +2877,7 @@
       <c r="A26" s="22">
         <v>44594</v>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="21" t="str">
         <f>'Public Report'!A34</f>
         <v xml:space="preserve">02/02/2022 </v>
       </c>
@@ -2870,7 +2885,7 @@
         <f>'Public Report'!O34</f>
         <v>3145081</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="25">
         <f t="shared" ref="D26:D33" si="2">(C26-C25)/C25</f>
         <v>-4.7035643669634652E-3</v>
       </c>
@@ -2878,7 +2893,7 @@
         <f>'Public Report'!AA34</f>
         <v>1482510</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="25">
         <f t="shared" si="1"/>
         <v>-1.7991061028210685E-3</v>
       </c>
@@ -2887,7 +2902,7 @@
       <c r="A27" s="22">
         <v>44601</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="21" t="str">
         <f>'Public Report'!A35</f>
         <v xml:space="preserve">02/09/2022 </v>
       </c>
@@ -2895,7 +2910,7 @@
         <f>'Public Report'!O35</f>
         <v>3115863</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="25">
         <f t="shared" si="2"/>
         <v>-9.2900627996544451E-3</v>
       </c>
@@ -2903,7 +2918,7 @@
         <f>'Public Report'!AA35</f>
         <v>1477381</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="25">
         <f t="shared" si="1"/>
         <v>-3.4596731219350965E-3</v>
       </c>
@@ -2912,7 +2927,7 @@
       <c r="A28" s="22">
         <v>44608</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="21" t="str">
         <f>'Public Report'!A36</f>
         <v xml:space="preserve">02/16/2022 </v>
       </c>
@@ -2920,7 +2935,7 @@
         <f>'Public Report'!O36</f>
         <v>3075231</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="25">
         <f t="shared" si="2"/>
         <v>-1.3040367949425247E-2</v>
       </c>
@@ -2928,7 +2943,7 @@
         <f>'Public Report'!AA36</f>
         <v>1474493</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="25">
         <f t="shared" si="1"/>
         <v>-1.9548105735758075E-3</v>
       </c>
@@ -2937,7 +2952,7 @@
       <c r="A29" s="22">
         <v>44615</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="21" t="str">
         <f>'Public Report'!A37</f>
         <v xml:space="preserve">02/23/2022 </v>
       </c>
@@ -2945,7 +2960,7 @@
         <f>'Public Report'!O37</f>
         <v>3077286</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="25">
         <f t="shared" si="2"/>
         <v>6.6824248324759991E-4</v>
       </c>
@@ -2953,7 +2968,7 @@
         <f>'Public Report'!AA37</f>
         <v>1477450</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="25">
         <f t="shared" si="1"/>
         <v>2.0054350885355169E-3</v>
       </c>
@@ -2962,7 +2977,7 @@
       <c r="A30" s="22">
         <v>44622</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="21" t="str">
         <f>'Public Report'!A38</f>
         <v xml:space="preserve">03/02/2022 </v>
       </c>
@@ -2970,7 +2985,7 @@
         <f>'Public Report'!O38</f>
         <v>3176276</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="25">
         <f t="shared" si="2"/>
         <v>3.2167955789614615E-2</v>
       </c>
@@ -2978,7 +2993,7 @@
         <f>'Public Report'!AA38</f>
         <v>1429754</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="25">
         <f t="shared" ref="F30:F36" si="3">(E30-E29)/E29</f>
         <v>-3.2282649159023992E-2</v>
       </c>
@@ -2987,7 +3002,7 @@
       <c r="A31" s="22">
         <v>44629</v>
       </c>
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="21" t="str">
         <f>'Public Report'!A39</f>
         <v xml:space="preserve">03/09/2022 </v>
       </c>
@@ -2995,7 +3010,7 @@
         <f>'Public Report'!O39</f>
         <v>3144169</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="25">
         <f t="shared" si="2"/>
         <v>-1.0108378491037932E-2</v>
       </c>
@@ -3003,7 +3018,7 @@
         <f>'Public Report'!AA39</f>
         <v>1431379</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="25">
         <f t="shared" si="3"/>
         <v>1.1365591563303897E-3</v>
       </c>
@@ -3012,7 +3027,7 @@
       <c r="A32" s="22">
         <v>44636</v>
       </c>
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="21" t="str">
         <f>'Public Report'!A40</f>
         <v xml:space="preserve">03/16/2022 </v>
       </c>
@@ -3020,7 +3035,7 @@
         <f>'Public Report'!O40</f>
         <v>3120648</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="25">
         <f t="shared" si="2"/>
         <v>-7.4808319781792896E-3</v>
       </c>
@@ -3028,7 +3043,7 @@
         <f>'Public Report'!AA40</f>
         <v>1438014</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="25">
         <f t="shared" si="3"/>
         <v>4.6353900678995572E-3</v>
       </c>
@@ -3037,7 +3052,7 @@
       <c r="A33" s="22">
         <v>44643</v>
       </c>
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="21" t="str">
         <f>'Public Report'!A41</f>
         <v xml:space="preserve">03/23/2022 </v>
       </c>
@@ -3045,7 +3060,7 @@
         <f>'Public Report'!O41</f>
         <v>3124767</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="25">
         <f t="shared" si="2"/>
         <v>1.3199181708414406E-3</v>
       </c>
@@ -3053,7 +3068,7 @@
         <f>'Public Report'!AA41</f>
         <v>1435849</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="25">
         <f t="shared" si="3"/>
         <v>-1.505548624700455E-3</v>
       </c>
@@ -3063,7 +3078,7 @@
         <f>VALUE(B34)</f>
         <v>44650</v>
       </c>
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="21" t="str">
         <f>'Public Report'!A42</f>
         <v xml:space="preserve">03/30/2022 </v>
       </c>
@@ -3071,7 +3086,7 @@
         <f>'Public Report'!O42</f>
         <v>3153268</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <f>(C34-C33)/C33</f>
         <v>9.1210000617646045E-3</v>
       </c>
@@ -3079,7 +3094,7 @@
         <f>'Public Report'!AA42</f>
         <v>1437078</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="25">
         <f t="shared" si="3"/>
         <v>8.5593958696213873E-4</v>
       </c>
@@ -3089,7 +3104,7 @@
         <f t="shared" ref="A35:A38" si="4">VALUE(B35)</f>
         <v>44657</v>
       </c>
-      <c r="B35" s="22" t="str">
+      <c r="B35" s="21" t="str">
         <f>'Public Report'!A43</f>
         <v xml:space="preserve">04/06/2022 </v>
       </c>
@@ -3097,7 +3112,7 @@
         <f>'Public Report'!O43</f>
         <v>3126112</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="25">
         <f>(C35-C34)/C34</f>
         <v>-8.612017754279052E-3</v>
       </c>
@@ -3105,7 +3120,7 @@
         <f>'Public Report'!AA43</f>
         <v>1433440</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="25">
         <f t="shared" si="3"/>
         <v>-2.5315257766105946E-3</v>
       </c>
@@ -3115,7 +3130,7 @@
         <f t="shared" si="4"/>
         <v>44664</v>
       </c>
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="21" t="str">
         <f>'Public Report'!A44</f>
         <v xml:space="preserve">04/13/2022 </v>
       </c>
@@ -3123,7 +3138,7 @@
         <f>'Public Report'!O44</f>
         <v>3100953</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="25">
         <f>(C36-C35)/C35</f>
         <v>-8.0480161939175572E-3</v>
       </c>
@@ -3131,7 +3146,7 @@
         <f>'Public Report'!AA44</f>
         <v>1428733</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="25">
         <f t="shared" si="3"/>
         <v>-3.2837091193213528E-3</v>
       </c>
@@ -3141,7 +3156,7 @@
         <f t="shared" si="4"/>
         <v>44671</v>
       </c>
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="21" t="str">
         <f>'Public Report'!A45</f>
         <v xml:space="preserve">04/20/2022 </v>
       </c>
@@ -3149,7 +3164,7 @@
         <f>'Public Report'!O45</f>
         <v>3059150</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="25">
         <f t="shared" ref="D37:D38" si="5">(C37-C36)/C36</f>
         <v>-1.3480694483276592E-2</v>
       </c>
@@ -3157,7 +3172,7 @@
         <f>'Public Report'!AA45</f>
         <v>1409256</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="25">
         <f t="shared" ref="F37:F38" si="6">(E37-E36)/E36</f>
         <v>-1.363235818028981E-2</v>
       </c>
@@ -3167,7 +3182,7 @@
         <f t="shared" si="4"/>
         <v>44678</v>
       </c>
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="21" t="str">
         <f>'Public Report'!A46</f>
         <v xml:space="preserve">04/27/2022 </v>
       </c>
@@ -3175,7 +3190,7 @@
         <f>'Public Report'!O46</f>
         <v>3109117</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="25">
         <f t="shared" si="5"/>
         <v>1.6333622084565975E-2</v>
       </c>
@@ -3183,7 +3198,7 @@
         <f>'Public Report'!AA46</f>
         <v>1400620</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="25">
         <f t="shared" si="6"/>
         <v>-6.1280562225741811E-3</v>
       </c>
@@ -3193,7 +3208,7 @@
         <f t="shared" ref="A39" si="7">VALUE(B39)</f>
         <v>44685</v>
       </c>
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="21" t="str">
         <f>'Public Report'!A47</f>
         <v xml:space="preserve">05/04/2022 </v>
       </c>
@@ -3201,7 +3216,7 @@
         <f>'Public Report'!O47</f>
         <v>3109874</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="25">
         <f t="shared" ref="D39" si="8">(C39-C38)/C38</f>
         <v>2.434774889462185E-4</v>
       </c>
@@ -3209,7 +3224,7 @@
         <f>'Public Report'!AA47</f>
         <v>1402069</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="25">
         <f t="shared" ref="F39" si="9">(E39-E38)/E38</f>
         <v>1.0345418457540232E-3</v>
       </c>
@@ -3219,7 +3234,7 @@
         <f t="shared" ref="A40" si="10">VALUE(B40)</f>
         <v>44692</v>
       </c>
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="21" t="str">
         <f>'Public Report'!A48</f>
         <v xml:space="preserve">05/11/2022 </v>
       </c>
@@ -3227,7 +3242,7 @@
         <f>'Public Report'!O48</f>
         <v>3093138</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="25">
         <f t="shared" ref="D40" si="11">(C40-C39)/C39</f>
         <v>-5.3815685137082727E-3</v>
       </c>
@@ -3235,7 +3250,7 @@
         <f>'Public Report'!AA48</f>
         <v>1407734</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="25">
         <f t="shared" ref="F40" si="12">(E40-E39)/E39</f>
         <v>4.0404573526695194E-3</v>
       </c>
@@ -3245,7 +3260,7 @@
         <f t="shared" ref="A41" si="13">VALUE(B41)</f>
         <v>44699</v>
       </c>
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="21" t="str">
         <f>'Public Report'!A49</f>
         <v xml:space="preserve">05/18/2022 </v>
       </c>
@@ -3253,7 +3268,7 @@
         <f>'Public Report'!O49</f>
         <v>3066737</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="25">
         <f t="shared" ref="D41" si="14">(C41-C40)/C40</f>
         <v>-8.5353450120880473E-3</v>
       </c>
@@ -3261,7 +3276,7 @@
         <f>'Public Report'!AA49</f>
         <v>1417902</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="25">
         <f t="shared" ref="F41" si="15">(E41-E40)/E40</f>
         <v>7.2229554731220525E-3</v>
       </c>
@@ -3271,7 +3286,7 @@
         <f t="shared" ref="A42" si="16">VALUE(B42)</f>
         <v>44706</v>
       </c>
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="21" t="str">
         <f>'Public Report'!A50</f>
         <v xml:space="preserve">05/25/2022 </v>
       </c>
@@ -3279,7 +3294,7 @@
         <f>'Public Report'!O50</f>
         <v>3107833</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="25">
         <f t="shared" ref="D42" si="17">(C42-C41)/C41</f>
         <v>1.3400562226235898E-2</v>
       </c>
@@ -3287,7 +3302,7 @@
         <f>'Public Report'!AA50</f>
         <v>1420845</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="25">
         <f t="shared" ref="F42" si="18">(E42-E41)/E41</f>
         <v>2.0756018399014885E-3</v>
       </c>
@@ -3297,7 +3312,7 @@
         <f t="shared" ref="A43" si="19">VALUE(B43)</f>
         <v>44713</v>
       </c>
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="21" t="str">
         <f>'Public Report'!A51</f>
         <v xml:space="preserve">06/01/2022 </v>
       </c>
@@ -3305,7 +3320,7 @@
         <f>'Public Report'!O51</f>
         <v>3105346</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="25">
         <f t="shared" ref="D43" si="20">(C43-C42)/C42</f>
         <v>-8.0023604871947752E-4</v>
       </c>
@@ -3313,7 +3328,7 @@
         <f>'Public Report'!AA51</f>
         <v>1420855</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="25">
         <f t="shared" ref="F43" si="21">(E43-E42)/E42</f>
         <v>7.0380653765892836E-6</v>
       </c>
@@ -3323,7 +3338,7 @@
         <f t="shared" ref="A44" si="22">VALUE(B44)</f>
         <v>44720</v>
       </c>
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="21" t="str">
         <f>'Public Report'!A52</f>
         <v xml:space="preserve">06/08/2022 </v>
       </c>
@@ -3331,7 +3346,7 @@
         <f>'Public Report'!O52</f>
         <v>3127878</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="25">
         <f t="shared" ref="D44" si="23">(C44-C43)/C43</f>
         <v>7.2558742246435666E-3</v>
       </c>
@@ -3339,7 +3354,7 @@
         <f>'Public Report'!AA52</f>
         <v>1424718</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="25">
         <f t="shared" ref="F44" si="24">(E44-E43)/E43</f>
         <v>2.7187855199862056E-3</v>
       </c>
@@ -3349,7 +3364,7 @@
         <f t="shared" ref="A45:A46" si="25">VALUE(B45)</f>
         <v>44727</v>
       </c>
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="21" t="str">
         <f>'Public Report'!A53</f>
         <v xml:space="preserve">06/15/2022 </v>
       </c>
@@ -3357,7 +3372,7 @@
         <f>'Public Report'!O53</f>
         <v>3106964</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="25">
         <f t="shared" ref="D45:D46" si="26">(C45-C44)/C44</f>
         <v>-6.6863221647391622E-3</v>
       </c>
@@ -3365,7 +3380,7 @@
         <f>'Public Report'!AA53</f>
         <v>1433984</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="25">
         <f t="shared" ref="F45:F46" si="27">(E45-E44)/E44</f>
         <v>6.5037431968993165E-3</v>
       </c>
@@ -3375,7 +3390,7 @@
         <f t="shared" si="25"/>
         <v>44734</v>
       </c>
-      <c r="B46" s="22" t="str">
+      <c r="B46" s="21" t="str">
         <f>'Public Report'!A54</f>
         <v xml:space="preserve">06/22/2022 </v>
       </c>
@@ -3383,7 +3398,7 @@
         <f>'Public Report'!O54</f>
         <v>3098237</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="25">
         <f t="shared" si="26"/>
         <v>-2.808851341695623E-3</v>
       </c>
@@ -3391,9 +3406,35 @@
         <f>'Public Report'!AA54</f>
         <v>1444602</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="25">
         <f t="shared" si="27"/>
         <v>7.4045456574131927E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="22">
+        <f t="shared" ref="A47" si="28">VALUE(B47)</f>
+        <v>44748</v>
+      </c>
+      <c r="B47" s="21" t="str">
+        <f>'Public Report'!A55</f>
+        <v xml:space="preserve">07/06/2022 </v>
+      </c>
+      <c r="C47" s="23">
+        <f>'Public Report'!O55</f>
+        <v>3095757</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" ref="D47" si="29">(C47-C46)/C46</f>
+        <v>-8.0045522663372746E-4</v>
+      </c>
+      <c r="E47" s="24">
+        <f>'Public Report'!AA55</f>
+        <v>1461708</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" ref="F47" si="30">(E47-E46)/E46</f>
+        <v>1.1841323769453455E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3449,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="D60" sqref="D59:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3474,51 +3515,51 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -3526,43 +3567,43 @@
       <c r="AP5" s="12"/>
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -3570,67 +3611,67 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="27" t="s">
+      <c r="O7" s="26"/>
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="25" t="s">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25" t="s">
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="27" t="s">
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="25" t="s">
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="26" t="s">
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AK7" s="25"/>
+      <c r="AK7" s="26"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
@@ -3638,61 +3679,61 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="25" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25" t="s">
+      <c r="U8" s="26"/>
+      <c r="V8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="25" t="s">
+      <c r="W8" s="26"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25" t="s">
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25" t="s">
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="25"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -3700,7 +3741,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -8895,25 +8936,118 @@
         <v>213274</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
+    <row r="55" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C55" s="7">
+        <v>4557465</v>
+      </c>
+      <c r="D55" s="6">
+        <v>166</v>
+      </c>
+      <c r="E55" s="17">
+        <v>104603</v>
+      </c>
+      <c r="F55" s="16">
+        <v>665</v>
+      </c>
+      <c r="G55" s="18">
+        <v>4015235</v>
+      </c>
+      <c r="H55" s="6">
+        <v>232</v>
+      </c>
+      <c r="I55" s="18">
+        <v>1258324</v>
+      </c>
+      <c r="J55" s="6">
+        <v>433</v>
+      </c>
+      <c r="K55" s="18">
+        <v>2756911</v>
+      </c>
+      <c r="L55" s="6">
+        <v>217</v>
+      </c>
+      <c r="M55" s="18">
+        <v>437627</v>
+      </c>
+      <c r="N55" s="16">
+        <v>551</v>
+      </c>
+      <c r="O55" s="7">
+        <v>3095757</v>
+      </c>
+      <c r="P55" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q55" s="17">
+        <v>10971</v>
+      </c>
+      <c r="R55" s="16">
+        <v>396</v>
+      </c>
+      <c r="S55" s="18">
+        <v>2871792</v>
+      </c>
+      <c r="T55" s="6">
+        <v>184</v>
+      </c>
+      <c r="U55" s="18">
+        <v>1085056</v>
+      </c>
+      <c r="V55" s="6">
+        <v>212</v>
+      </c>
+      <c r="W55" s="18">
+        <v>1786735</v>
+      </c>
+      <c r="X55" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y55" s="18">
+        <v>212994</v>
+      </c>
+      <c r="Z55" s="16">
+        <v>497</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>1461708</v>
+      </c>
+      <c r="AB55" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>93632</v>
+      </c>
+      <c r="AD55" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE55" s="18">
+        <v>1143443</v>
+      </c>
+      <c r="AF55" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG55" s="18">
+        <v>173267</v>
+      </c>
+      <c r="AH55" s="6">
+        <v>221</v>
+      </c>
+      <c r="AI55" s="18">
+        <v>970176</v>
+      </c>
+      <c r="AJ55" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK55" s="18">
+        <v>224633</v>
+      </c>
     </row>
     <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M56" s="10"/>
@@ -9517,6 +9651,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -9533,15 +9676,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CB8A1-1C50-E644-AE5F-84890B9F8836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35578730-F20B-7144-BBB0-19E4A425843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42720" yWindow="500" windowWidth="49840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42720" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>DATE</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">07/06/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/29/2022 </t>
   </si>
 </sst>
 </file>
@@ -453,16 +456,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,10 +590,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$47</c:f>
+              <c:f>Sheet1!$A$4:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -721,6 +724,9 @@
                   <c:v>44734</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
@@ -728,10 +734,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$47</c:f>
+              <c:f>Sheet1!$D$3:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2.1050421186105299E-3</c:v>
                 </c:pt>
@@ -865,7 +871,10 @@
                   <c:v>-2.808851341695623E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-8.0045522663372746E-4</c:v>
+                  <c:v>-6.1250963047694545E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3574560121587653E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,10 +914,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$47</c:f>
+              <c:f>Sheet1!$A$4:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -1039,6 +1048,9 @@
                   <c:v>44734</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>44748</c:v>
                 </c:pt>
               </c:numCache>
@@ -1046,10 +1058,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$47</c:f>
+              <c:f>Sheet1!$F$3:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>-1.4434046701599721E-3</c:v>
                 </c:pt>
@@ -1183,7 +1195,10 @@
                   <c:v>7.4045456574131927E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1841323769453455E-2</c:v>
+                  <c:v>4.9494601281183329E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.8579206365825566E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="164" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3414,27 +3429,53 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <f t="shared" ref="A47" si="28">VALUE(B47)</f>
-        <v>44748</v>
+        <v>44741</v>
       </c>
       <c r="B47" s="21" t="str">
         <f>'Public Report'!A55</f>
-        <v xml:space="preserve">07/06/2022 </v>
+        <v xml:space="preserve">06/29/2022 </v>
       </c>
       <c r="C47" s="23">
         <f>'Public Report'!O55</f>
-        <v>3095757</v>
+        <v>3079260</v>
       </c>
       <c r="D47" s="25">
         <f t="shared" ref="D47" si="29">(C47-C46)/C46</f>
-        <v>-8.0045522663372746E-4</v>
+        <v>-6.1250963047694545E-3</v>
       </c>
       <c r="E47" s="24">
         <f>'Public Report'!AA55</f>
-        <v>1461708</v>
+        <v>1451752</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" ref="F47" si="30">(E47-E46)/E46</f>
-        <v>1.1841323769453455E-2</v>
+        <v>4.9494601281183329E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="22">
+        <f t="shared" ref="A48" si="31">VALUE(B48)</f>
+        <v>44748</v>
+      </c>
+      <c r="B48" s="21" t="str">
+        <f>'Public Report'!A56</f>
+        <v xml:space="preserve">07/06/2022 </v>
+      </c>
+      <c r="C48" s="23">
+        <f>'Public Report'!O56</f>
+        <v>3095757</v>
+      </c>
+      <c r="D48" s="25">
+        <f t="shared" ref="D48" si="32">(C48-C47)/C47</f>
+        <v>5.3574560121587653E-3</v>
+      </c>
+      <c r="E48" s="24">
+        <f>'Public Report'!AA56</f>
+        <v>1461708</v>
+      </c>
+      <c r="F48" s="25">
+        <f t="shared" ref="F48" si="33">(E48-E47)/E47</f>
+        <v>6.8579206365825566E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3490,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D59:D60"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3518,48 +3559,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -3568,42 +3609,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -3611,15 +3652,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3669,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -3636,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3689,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -3656,10 +3697,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -3668,7 +3709,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -3679,11 +3720,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -3696,12 +3737,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -3714,12 +3755,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="30"/>
+      <c r="X8" s="27"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -3732,7 +3773,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="30"/>
+      <c r="AJ8" s="27"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -3741,7 +3782,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -8938,136 +8979,229 @@
     </row>
     <row r="55" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="16">
         <v>1048</v>
       </c>
       <c r="C55" s="7">
-        <v>4557465</v>
+        <v>4531013</v>
       </c>
       <c r="D55" s="6">
         <v>166</v>
       </c>
       <c r="E55" s="17">
-        <v>104603</v>
+        <v>103247</v>
       </c>
       <c r="F55" s="16">
         <v>665</v>
       </c>
       <c r="G55" s="18">
-        <v>4015235</v>
+        <v>3999819</v>
       </c>
       <c r="H55" s="6">
         <v>232</v>
       </c>
       <c r="I55" s="18">
-        <v>1258324</v>
+        <v>1243731</v>
       </c>
       <c r="J55" s="6">
         <v>433</v>
       </c>
       <c r="K55" s="18">
-        <v>2756911</v>
+        <v>2756088</v>
       </c>
       <c r="L55" s="6">
         <v>217</v>
       </c>
       <c r="M55" s="18">
-        <v>437627</v>
+        <v>427947</v>
       </c>
       <c r="N55" s="16">
         <v>551</v>
       </c>
       <c r="O55" s="7">
-        <v>3095757</v>
+        <v>3079260</v>
       </c>
       <c r="P55" s="6">
         <v>28</v>
       </c>
       <c r="Q55" s="17">
-        <v>10971</v>
+        <v>9885</v>
       </c>
       <c r="R55" s="16">
         <v>396</v>
       </c>
       <c r="S55" s="18">
-        <v>2871792</v>
+        <v>2860387</v>
       </c>
       <c r="T55" s="6">
         <v>184</v>
       </c>
       <c r="U55" s="18">
-        <v>1085056</v>
+        <v>1072084</v>
       </c>
       <c r="V55" s="6">
         <v>212</v>
       </c>
       <c r="W55" s="18">
-        <v>1786735</v>
+        <v>1788303</v>
       </c>
       <c r="X55" s="6">
         <v>127</v>
       </c>
       <c r="Y55" s="18">
-        <v>212994</v>
+        <v>208988</v>
       </c>
       <c r="Z55" s="16">
         <v>497</v>
       </c>
       <c r="AA55" s="7">
-        <v>1461708</v>
+        <v>1451752</v>
       </c>
       <c r="AB55" s="6">
         <v>138</v>
       </c>
       <c r="AC55" s="17">
-        <v>93632</v>
+        <v>93361</v>
       </c>
       <c r="AD55" s="16">
         <v>269</v>
       </c>
       <c r="AE55" s="18">
-        <v>1143443</v>
+        <v>1139432</v>
       </c>
       <c r="AF55" s="6">
         <v>48</v>
       </c>
       <c r="AG55" s="18">
-        <v>173267</v>
+        <v>171647</v>
       </c>
       <c r="AH55" s="6">
         <v>221</v>
       </c>
       <c r="AI55" s="18">
-        <v>970176</v>
+        <v>967786</v>
       </c>
       <c r="AJ55" s="6">
         <v>90</v>
       </c>
       <c r="AK55" s="18">
+        <v>218958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C56" s="7">
+        <v>4557465</v>
+      </c>
+      <c r="D56" s="6">
+        <v>166</v>
+      </c>
+      <c r="E56" s="17">
+        <v>104603</v>
+      </c>
+      <c r="F56" s="16">
+        <v>665</v>
+      </c>
+      <c r="G56" s="18">
+        <v>4015235</v>
+      </c>
+      <c r="H56" s="6">
+        <v>232</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1258324</v>
+      </c>
+      <c r="J56" s="6">
+        <v>433</v>
+      </c>
+      <c r="K56" s="18">
+        <v>2756911</v>
+      </c>
+      <c r="L56" s="6">
+        <v>217</v>
+      </c>
+      <c r="M56" s="18">
+        <v>437627</v>
+      </c>
+      <c r="N56" s="16">
+        <v>551</v>
+      </c>
+      <c r="O56" s="7">
+        <v>3095757</v>
+      </c>
+      <c r="P56" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>10971</v>
+      </c>
+      <c r="R56" s="16">
+        <v>396</v>
+      </c>
+      <c r="S56" s="18">
+        <v>2871792</v>
+      </c>
+      <c r="T56" s="6">
+        <v>184</v>
+      </c>
+      <c r="U56" s="18">
+        <v>1085056</v>
+      </c>
+      <c r="V56" s="6">
+        <v>212</v>
+      </c>
+      <c r="W56" s="18">
+        <v>1786735</v>
+      </c>
+      <c r="X56" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y56" s="18">
+        <v>212994</v>
+      </c>
+      <c r="Z56" s="16">
+        <v>497</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>1461708</v>
+      </c>
+      <c r="AB56" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC56" s="17">
+        <v>93632</v>
+      </c>
+      <c r="AD56" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE56" s="18">
+        <v>1143443</v>
+      </c>
+      <c r="AF56" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG56" s="18">
+        <v>173267</v>
+      </c>
+      <c r="AH56" s="6">
+        <v>221</v>
+      </c>
+      <c r="AI56" s="18">
+        <v>970176</v>
+      </c>
+      <c r="AJ56" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK56" s="18">
         <v>224633</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
     </row>
     <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M57" s="10"/>
@@ -9651,15 +9785,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -9676,6 +9801,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35578730-F20B-7144-BBB0-19E4A425843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0138504-6C05-B642-AA06-0AB71D038D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42720" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54700" yWindow="0" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'5ace8123-0b60-4288-a639-430bc26a4bd6'"</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$48</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$48</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Public Report'!$4:$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Public Report'!$A:$A</definedName>
   </definedNames>
@@ -456,16 +461,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,10 +595,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$48</c:f>
+              <c:f>Sheet1!$A$4:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -734,10 +739,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$48</c:f>
+              <c:f>Sheet1!$D$3:$D$77</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2.1050421186105299E-3</c:v>
                 </c:pt>
@@ -914,10 +919,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$48</c:f>
+              <c:f>Sheet1!$A$4:$A$76</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>44440</c:v>
                 </c:pt>
@@ -1058,10 +1063,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$48</c:f>
+              <c:f>Sheet1!$F$3:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>-1.4434046701599721E-3</c:v>
                 </c:pt>
@@ -1404,7 +1409,957 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSTITUTIONAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>3095425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3101941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3083206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3077293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3035070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3085193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3116842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3097972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3092568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3085312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3128447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3122368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3135214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3163875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3189203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3195869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3191087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3203899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3236446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3216456</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3191821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3140830</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3159944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3145081</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3115863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3075231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3077286</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3176276</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3144169</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3120648</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3124767</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3153268</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3126112</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3100953</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3059150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3109117</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3109874</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3093138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3066737</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3107833</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3105346</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3127878</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3106964</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3098237</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3079260</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3095757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2586-0E45-862F-A718B0069230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RETAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44685</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>1427874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1425813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1427699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1428381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1430749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1430624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1431108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1435796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1435476</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1435866</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1434475</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1434731</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1433601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1433280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1435768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1432047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1440082</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1444924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1462277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1468708</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1486116</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1482637</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1475701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1485182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1482510</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1477381</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1474493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1477450</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1429754</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1431379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1438014</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1435849</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1437078</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1433440</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1428733</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1409256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1400620</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1402069</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1407734</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1417902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1420845</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1420855</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1424718</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1433984</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1444602</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1451752</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1461708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2586-0E45-862F-A718B0069230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1866893056"/>
+        <c:axId val="946791439"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1866893056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="946791439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="946791439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866893056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1960,19 +2915,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579243</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>300463</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>23232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>23231</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>573049</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>100671</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1993,6 +3464,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300463</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>573048</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9228C1F7-4850-E523-5DC6-4133D813B6E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2261,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="164" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3559,48 +5066,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -3609,42 +5116,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -3652,15 +5159,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -3669,7 +5176,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -3677,10 +5184,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -3689,7 +5196,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -3697,10 +5204,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -3709,7 +5216,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -3720,11 +5227,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -3737,12 +5244,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -3755,12 +5262,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -3773,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="27"/>
+      <c r="AJ8" s="30"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -3782,7 +5289,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -9785,6 +11292,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -9801,15 +11317,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0138504-6C05-B642-AA06-0AB71D038D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67229C9B-38DE-324E-996A-69900AD7E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54700" yWindow="0" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'5ace8123-0b60-4288-a639-430bc26a4bd6'"</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$48</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$48</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Public Report'!$4:$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Public Report'!$A:$A</definedName>
   </definedNames>
@@ -461,16 +456,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,6 +1419,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>amount</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3769,7 +3790,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4997,7 +5018,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5066,48 +5087,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5116,42 +5137,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5159,15 +5180,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5176,7 +5197,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -5184,10 +5205,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5196,7 +5217,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -5204,10 +5225,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +5237,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -5227,11 +5248,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5244,12 +5265,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5262,12 +5283,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="30"/>
+      <c r="X8" s="27"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5280,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="30"/>
+      <c r="AJ8" s="27"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5289,7 +5310,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -11292,15 +11313,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -11317,6 +11329,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67229C9B-38DE-324E-996A-69900AD7E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883AA2DE-3A6C-2847-B37B-20B55A3EEB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54700" yWindow="0" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>DATE</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">06/29/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/13/2022 </t>
   </si>
 </sst>
 </file>
@@ -456,16 +459,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,6 +732,9 @@
                 <c:pt idx="44">
                   <c:v>44748</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>44755</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -875,6 +881,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5.3574560121587653E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3410245054763667E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,6 +1062,9 @@
                 <c:pt idx="44">
                   <c:v>44748</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>44755</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1199,6 +1211,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>6.8579206365825566E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8892856849658073E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,10 +1523,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>44426</c:v>
                 </c:pt>
@@ -1652,16 +1667,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$48</c:f>
+              <c:f>Sheet1!$C$2:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>3095425</c:v>
                 </c:pt>
@@ -1802,6 +1820,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3095757</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3106100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,10 +1862,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>44426</c:v>
                 </c:pt>
@@ -1985,16 +2006,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$48</c:f>
+              <c:f>Sheet1!$E$2:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>1427874</c:v>
                 </c:pt>
@@ -2135,6 +2159,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1461708</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1467393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5006,6 +5033,32 @@
         <v>6.8579206365825566E-3</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
+        <f t="shared" ref="A49" si="34">VALUE(B49)</f>
+        <v>44755</v>
+      </c>
+      <c r="B49" s="21" t="str">
+        <f>'Public Report'!A57</f>
+        <v xml:space="preserve">07/13/2022 </v>
+      </c>
+      <c r="C49" s="23">
+        <f>'Public Report'!O57</f>
+        <v>3106100</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" ref="D49" si="35">(C49-C48)/C48</f>
+        <v>3.3410245054763667E-3</v>
+      </c>
+      <c r="E49" s="24">
+        <f>'Public Report'!AA57</f>
+        <v>1467393</v>
+      </c>
+      <c r="F49" s="25">
+        <f t="shared" ref="F49" si="36">(E49-E48)/E48</f>
+        <v>3.8892856849658073E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5018,7 +5071,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5087,48 +5140,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5137,42 +5190,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5180,15 +5233,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5197,7 +5250,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -5205,10 +5258,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5217,7 +5270,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -5225,10 +5278,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +5290,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -5248,11 +5301,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5265,12 +5318,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5283,12 +5336,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5301,7 +5354,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="27"/>
+      <c r="AJ8" s="30"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5310,7 +5363,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -10731,25 +10784,118 @@
         <v>224633</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
+    <row r="57" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C57" s="7">
+        <v>4573493</v>
+      </c>
+      <c r="D57" s="6">
+        <v>166</v>
+      </c>
+      <c r="E57" s="17">
+        <v>103472</v>
+      </c>
+      <c r="F57" s="16">
+        <v>665</v>
+      </c>
+      <c r="G57" s="18">
+        <v>4021348</v>
+      </c>
+      <c r="H57" s="6">
+        <v>232</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1261273</v>
+      </c>
+      <c r="J57" s="6">
+        <v>433</v>
+      </c>
+      <c r="K57" s="18">
+        <v>2760075</v>
+      </c>
+      <c r="L57" s="6">
+        <v>217</v>
+      </c>
+      <c r="M57" s="18">
+        <v>448673</v>
+      </c>
+      <c r="N57" s="16">
+        <v>551</v>
+      </c>
+      <c r="O57" s="7">
+        <v>3106100</v>
+      </c>
+      <c r="P57" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>10682</v>
+      </c>
+      <c r="R57" s="16">
+        <v>396</v>
+      </c>
+      <c r="S57" s="18">
+        <v>2877591</v>
+      </c>
+      <c r="T57" s="6">
+        <v>184</v>
+      </c>
+      <c r="U57" s="18">
+        <v>1086632</v>
+      </c>
+      <c r="V57" s="6">
+        <v>212</v>
+      </c>
+      <c r="W57" s="18">
+        <v>1790960</v>
+      </c>
+      <c r="X57" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y57" s="18">
+        <v>217826</v>
+      </c>
+      <c r="Z57" s="16">
+        <v>497</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>1467393</v>
+      </c>
+      <c r="AB57" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC57" s="17">
+        <v>92790</v>
+      </c>
+      <c r="AD57" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE57" s="18">
+        <v>1143756</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG57" s="18">
+        <v>174641</v>
+      </c>
+      <c r="AH57" s="6">
+        <v>221</v>
+      </c>
+      <c r="AI57" s="18">
+        <v>969115</v>
+      </c>
+      <c r="AJ57" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK57" s="18">
+        <v>230846</v>
+      </c>
     </row>
     <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M58" s="10"/>
@@ -11313,6 +11459,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -11329,15 +11484,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883AA2DE-3A6C-2847-B37B-20B55A3EEB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E2A11-191B-BA46-B32C-D58F0A2CA846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>DATE</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">07/13/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/20/2022 </t>
   </si>
 </sst>
 </file>
@@ -459,16 +462,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,6 +738,9 @@
                 <c:pt idx="45">
                   <c:v>44755</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44762</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -884,6 +890,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.3410245054763667E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.3403947071890802E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,6 +1074,9 @@
                 <c:pt idx="45">
                   <c:v>44755</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>44762</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1214,6 +1226,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.8892856849658073E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.3084667842902347E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,6 +1686,9 @@
                 <c:pt idx="47">
                   <c:v>44755</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>44762</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1823,6 +1841,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3106100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3105872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,6 +2031,9 @@
                 <c:pt idx="47">
                   <c:v>44755</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>44762</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2162,6 +2186,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1467393</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1476650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5059,6 +5086,32 @@
         <v>3.8892856849658073E-3</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <f t="shared" ref="A50" si="37">VALUE(B50)</f>
+        <v>44762</v>
+      </c>
+      <c r="B50" s="21" t="str">
+        <f>'Public Report'!A58</f>
+        <v xml:space="preserve">07/20/2022 </v>
+      </c>
+      <c r="C50" s="23">
+        <f>'Public Report'!O58</f>
+        <v>3105872</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" ref="D50" si="38">(C50-C49)/C49</f>
+        <v>-7.3403947071890802E-5</v>
+      </c>
+      <c r="E50" s="24">
+        <f>'Public Report'!AA58</f>
+        <v>1476650</v>
+      </c>
+      <c r="F50" s="25">
+        <f t="shared" ref="F50" si="39">(E50-E49)/E49</f>
+        <v>6.3084667842902347E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5071,7 +5124,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5140,48 +5193,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5190,42 +5243,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5233,15 +5286,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5250,7 +5303,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -5258,10 +5311,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5270,7 +5323,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -5278,10 +5331,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5290,7 +5343,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -5301,11 +5354,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5318,12 +5371,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5336,12 +5389,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="30"/>
+      <c r="X8" s="27"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5354,7 +5407,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="30"/>
+      <c r="AJ8" s="27"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5363,7 +5416,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -10897,25 +10950,118 @@
         <v>230846</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
+    <row r="58" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C58" s="7">
+        <v>4582522</v>
+      </c>
+      <c r="D58" s="6">
+        <v>166</v>
+      </c>
+      <c r="E58" s="17">
+        <v>100533</v>
+      </c>
+      <c r="F58" s="16">
+        <v>665</v>
+      </c>
+      <c r="G58" s="18">
+        <v>4020394</v>
+      </c>
+      <c r="H58" s="6">
+        <v>232</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1260209</v>
+      </c>
+      <c r="J58" s="6">
+        <v>433</v>
+      </c>
+      <c r="K58" s="18">
+        <v>2760185</v>
+      </c>
+      <c r="L58" s="6">
+        <v>217</v>
+      </c>
+      <c r="M58" s="18">
+        <v>461595</v>
+      </c>
+      <c r="N58" s="16">
+        <v>551</v>
+      </c>
+      <c r="O58" s="7">
+        <v>3105872</v>
+      </c>
+      <c r="P58" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q58" s="17">
+        <v>10105</v>
+      </c>
+      <c r="R58" s="16">
+        <v>396</v>
+      </c>
+      <c r="S58" s="18">
+        <v>2872665</v>
+      </c>
+      <c r="T58" s="6">
+        <v>184</v>
+      </c>
+      <c r="U58" s="18">
+        <v>1084512</v>
+      </c>
+      <c r="V58" s="6">
+        <v>212</v>
+      </c>
+      <c r="W58" s="18">
+        <v>1788153</v>
+      </c>
+      <c r="X58" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y58" s="18">
+        <v>223103</v>
+      </c>
+      <c r="Z58" s="16">
+        <v>497</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>1476650</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC58" s="17">
+        <v>90429</v>
+      </c>
+      <c r="AD58" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE58" s="18">
+        <v>1147729</v>
+      </c>
+      <c r="AF58" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG58" s="18">
+        <v>175697</v>
+      </c>
+      <c r="AH58" s="6">
+        <v>221</v>
+      </c>
+      <c r="AI58" s="18">
+        <v>972032</v>
+      </c>
+      <c r="AJ58" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK58" s="18">
+        <v>238492</v>
+      </c>
     </row>
     <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M59" s="10"/>
@@ -11459,15 +11605,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -11484,6 +11621,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E2A11-191B-BA46-B32C-D58F0A2CA846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD576B-F954-2E45-9D27-068A79DE4AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>DATE</t>
   </si>
@@ -252,6 +252,9 @@
   <si>
     <t xml:space="preserve">07/20/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">07/27/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -462,16 +465,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,6 +744,9 @@
                 <c:pt idx="46">
                   <c:v>44762</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>44769</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -893,6 +899,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-7.3403947071890802E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3487767686498351E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,6 +1086,9 @@
                 <c:pt idx="46">
                   <c:v>44762</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>44769</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1229,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>6.3084667842902347E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0090407340940642E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,6 +1704,9 @@
                 <c:pt idx="48">
                   <c:v>44762</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>44769</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1844,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3105872</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3113167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,6 +2055,9 @@
                 <c:pt idx="48">
                   <c:v>44762</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>44769</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2189,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1476650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1476799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5112,6 +5139,32 @@
         <v>6.3084667842902347E-3</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="22">
+        <f t="shared" ref="A51" si="40">VALUE(B51)</f>
+        <v>44769</v>
+      </c>
+      <c r="B51" s="21" t="str">
+        <f>'Public Report'!A59</f>
+        <v xml:space="preserve">07/27/2022 </v>
+      </c>
+      <c r="C51" s="23">
+        <f>'Public Report'!O59</f>
+        <v>3113167</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" ref="D51" si="41">(C51-C50)/C50</f>
+        <v>2.3487767686498351E-3</v>
+      </c>
+      <c r="E51" s="24">
+        <f>'Public Report'!AA59</f>
+        <v>1476799</v>
+      </c>
+      <c r="F51" s="25">
+        <f t="shared" ref="F51" si="42">(E51-E50)/E50</f>
+        <v>1.0090407340940642E-4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5124,7 +5177,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5193,48 +5246,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5243,42 +5296,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5286,15 +5339,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5303,7 +5356,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -5311,10 +5364,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5323,7 +5376,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -5331,10 +5384,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5396,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -5354,11 +5407,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5371,12 +5424,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5389,12 +5442,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5407,7 +5460,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="27"/>
+      <c r="AJ8" s="30"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5416,7 +5469,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -11063,25 +11116,118 @@
         <v>238492</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
+    <row r="59" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C59" s="7">
+        <v>4589966</v>
+      </c>
+      <c r="D59" s="6">
+        <v>166</v>
+      </c>
+      <c r="E59" s="17">
+        <v>97494</v>
+      </c>
+      <c r="F59" s="16">
+        <v>665</v>
+      </c>
+      <c r="G59" s="18">
+        <v>4025801</v>
+      </c>
+      <c r="H59" s="6">
+        <v>232</v>
+      </c>
+      <c r="I59" s="18">
+        <v>1262845</v>
+      </c>
+      <c r="J59" s="6">
+        <v>433</v>
+      </c>
+      <c r="K59" s="18">
+        <v>2762956</v>
+      </c>
+      <c r="L59" s="6">
+        <v>217</v>
+      </c>
+      <c r="M59" s="18">
+        <v>466671</v>
+      </c>
+      <c r="N59" s="16">
+        <v>551</v>
+      </c>
+      <c r="O59" s="7">
+        <v>3113167</v>
+      </c>
+      <c r="P59" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>9518</v>
+      </c>
+      <c r="R59" s="16">
+        <v>396</v>
+      </c>
+      <c r="S59" s="18">
+        <v>2879729</v>
+      </c>
+      <c r="T59" s="6">
+        <v>184</v>
+      </c>
+      <c r="U59" s="18">
+        <v>1086135</v>
+      </c>
+      <c r="V59" s="6">
+        <v>212</v>
+      </c>
+      <c r="W59" s="18">
+        <v>1793594</v>
+      </c>
+      <c r="X59" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y59" s="18">
+        <v>223919</v>
+      </c>
+      <c r="Z59" s="16">
+        <v>497</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>1476799</v>
+      </c>
+      <c r="AB59" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC59" s="17">
+        <v>87976</v>
+      </c>
+      <c r="AD59" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE59" s="18">
+        <v>1146072</v>
+      </c>
+      <c r="AF59" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG59" s="18">
+        <v>176710</v>
+      </c>
+      <c r="AH59" s="6">
+        <v>221</v>
+      </c>
+      <c r="AI59" s="18">
+        <v>969362</v>
+      </c>
+      <c r="AJ59" s="6">
+        <v>90</v>
+      </c>
+      <c r="AK59" s="18">
+        <v>242751</v>
+      </c>
     </row>
     <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M60" s="10"/>
@@ -11605,6 +11751,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -11621,15 +11776,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD576B-F954-2E45-9D27-068A79DE4AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3913225C-AA31-3743-B4FE-751E32A5BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>DATE</t>
   </si>
@@ -255,6 +255,9 @@
   <si>
     <t xml:space="preserve">07/27/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">08/03/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -465,16 +468,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,6 +750,9 @@
                 <c:pt idx="47">
                   <c:v>44769</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>44776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -902,6 +908,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.3487767686498351E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.8497774131615813E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,6 +1098,9 @@
                 <c:pt idx="47">
                   <c:v>44769</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>44776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1244,6 +1256,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.0090407340940642E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.4978341670058011E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,6 +1722,9 @@
                 <c:pt idx="49">
                   <c:v>44769</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>44776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1865,6 +1883,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3113167</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3101182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,6 +2079,9 @@
                 <c:pt idx="49">
                   <c:v>44769</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>44776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2216,6 +2240,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1476799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1474587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5165,6 +5192,32 @@
         <v>1.0090407340940642E-4</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="22">
+        <f t="shared" ref="A52" si="43">VALUE(B52)</f>
+        <v>44776</v>
+      </c>
+      <c r="B52" s="21" t="str">
+        <f>'Public Report'!A60</f>
+        <v xml:space="preserve">08/03/2022 </v>
+      </c>
+      <c r="C52" s="23">
+        <f>'Public Report'!O60</f>
+        <v>3101182</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" ref="D52" si="44">(C52-C51)/C51</f>
+        <v>-3.8497774131615813E-3</v>
+      </c>
+      <c r="E52" s="24">
+        <f>'Public Report'!AA60</f>
+        <v>1474587</v>
+      </c>
+      <c r="F52" s="25">
+        <f t="shared" ref="F52" si="45">(E52-E51)/E51</f>
+        <v>-1.4978341670058011E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5177,7 +5230,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5246,48 +5299,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5296,42 +5349,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5339,15 +5392,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5409,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -5364,10 +5417,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5376,7 +5429,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -5384,10 +5437,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="28"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5396,7 +5449,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -5407,11 +5460,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5424,12 +5477,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5442,12 +5495,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="30"/>
+      <c r="X8" s="27"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5460,7 +5513,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="30"/>
+      <c r="AJ8" s="27"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5469,7 +5522,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -11229,25 +11282,118 @@
         <v>242751</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
+    <row r="60" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="16">
+        <v>1044</v>
+      </c>
+      <c r="C60" s="7">
+        <v>4575769</v>
+      </c>
+      <c r="D60" s="6">
+        <v>166</v>
+      </c>
+      <c r="E60" s="17">
+        <v>96707</v>
+      </c>
+      <c r="F60" s="16">
+        <v>663</v>
+      </c>
+      <c r="G60" s="18">
+        <v>4008113</v>
+      </c>
+      <c r="H60" s="6">
+        <v>232</v>
+      </c>
+      <c r="I60" s="18">
+        <v>1260407</v>
+      </c>
+      <c r="J60" s="6">
+        <v>431</v>
+      </c>
+      <c r="K60" s="18">
+        <v>2747707</v>
+      </c>
+      <c r="L60" s="6">
+        <v>215</v>
+      </c>
+      <c r="M60" s="18">
+        <v>470949</v>
+      </c>
+      <c r="N60" s="16">
+        <v>552</v>
+      </c>
+      <c r="O60" s="7">
+        <v>3101182</v>
+      </c>
+      <c r="P60" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>9621</v>
+      </c>
+      <c r="R60" s="16">
+        <v>397</v>
+      </c>
+      <c r="S60" s="18">
+        <v>2867964</v>
+      </c>
+      <c r="T60" s="6">
+        <v>184</v>
+      </c>
+      <c r="U60" s="18">
+        <v>1083443</v>
+      </c>
+      <c r="V60" s="6">
+        <v>213</v>
+      </c>
+      <c r="W60" s="18">
+        <v>1784521</v>
+      </c>
+      <c r="X60" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y60" s="18">
+        <v>223597</v>
+      </c>
+      <c r="Z60" s="16">
+        <v>492</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>1474587</v>
+      </c>
+      <c r="AB60" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC60" s="17">
+        <v>87085</v>
+      </c>
+      <c r="AD60" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE60" s="18">
+        <v>1140150</v>
+      </c>
+      <c r="AF60" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG60" s="18">
+        <v>176964</v>
+      </c>
+      <c r="AH60" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI60" s="18">
+        <v>963186</v>
+      </c>
+      <c r="AJ60" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK60" s="18">
+        <v>247352</v>
+      </c>
     </row>
     <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M61" s="10"/>
@@ -11751,15 +11897,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -11776,6 +11913,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3913225C-AA31-3743-B4FE-751E32A5BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646D879-76C0-BC43-BA15-6794111A003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>DATE</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">08/03/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/10/2022 </t>
   </si>
 </sst>
 </file>
@@ -753,6 +756,9 @@
                 <c:pt idx="48">
                   <c:v>44776</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>44783</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -911,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-3.8497774131615813E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5473571044846771E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,6 +1110,9 @@
                 <c:pt idx="48">
                   <c:v>44776</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>44783</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1259,6 +1271,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-1.4978341670058011E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8303430045158407E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,6 +1740,9 @@
                 <c:pt idx="50">
                   <c:v>44776</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>44783</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1886,6 +1904,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3101182</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3090181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,6 +2103,9 @@
                 <c:pt idx="50">
                   <c:v>44776</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>44783</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2243,6 +2267,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1474587</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1477286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+      <selection activeCell="A52" sqref="A52:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5218,6 +5245,32 @@
         <v>-1.4978341670058011E-3</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="22">
+        <f t="shared" ref="A53" si="46">VALUE(B53)</f>
+        <v>44783</v>
+      </c>
+      <c r="B53" s="21" t="str">
+        <f>'Public Report'!A61</f>
+        <v xml:space="preserve">08/10/2022 </v>
+      </c>
+      <c r="C53" s="23">
+        <f>'Public Report'!O61</f>
+        <v>3090181</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" ref="D53" si="47">(C53-C52)/C52</f>
+        <v>-3.5473571044846771E-3</v>
+      </c>
+      <c r="E53" s="24">
+        <f>'Public Report'!AA61</f>
+        <v>1477286</v>
+      </c>
+      <c r="F53" s="25">
+        <f t="shared" ref="F53" si="48">(E53-E52)/E52</f>
+        <v>1.8303430045158407E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5230,7 +5283,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11395,25 +11448,118 @@
         <v>247352</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
+    <row r="61" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="16">
+        <v>1044</v>
+      </c>
+      <c r="C61" s="7">
+        <v>4567467</v>
+      </c>
+      <c r="D61" s="6">
+        <v>166</v>
+      </c>
+      <c r="E61" s="17">
+        <v>96675</v>
+      </c>
+      <c r="F61" s="16">
+        <v>663</v>
+      </c>
+      <c r="G61" s="18">
+        <v>3990013</v>
+      </c>
+      <c r="H61" s="6">
+        <v>232</v>
+      </c>
+      <c r="I61" s="18">
+        <v>1252863</v>
+      </c>
+      <c r="J61" s="6">
+        <v>431</v>
+      </c>
+      <c r="K61" s="18">
+        <v>2737151</v>
+      </c>
+      <c r="L61" s="6">
+        <v>215</v>
+      </c>
+      <c r="M61" s="18">
+        <v>480778</v>
+      </c>
+      <c r="N61" s="16">
+        <v>552</v>
+      </c>
+      <c r="O61" s="7">
+        <v>3090181</v>
+      </c>
+      <c r="P61" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q61" s="17">
+        <v>9329</v>
+      </c>
+      <c r="R61" s="16">
+        <v>397</v>
+      </c>
+      <c r="S61" s="18">
+        <v>2854072</v>
+      </c>
+      <c r="T61" s="6">
+        <v>184</v>
+      </c>
+      <c r="U61" s="18">
+        <v>1075372</v>
+      </c>
+      <c r="V61" s="6">
+        <v>213</v>
+      </c>
+      <c r="W61" s="18">
+        <v>1778699</v>
+      </c>
+      <c r="X61" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>226780</v>
+      </c>
+      <c r="Z61" s="16">
+        <v>492</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>1477286</v>
+      </c>
+      <c r="AB61" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC61" s="17">
+        <v>87346</v>
+      </c>
+      <c r="AD61" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE61" s="18">
+        <v>1135942</v>
+      </c>
+      <c r="AF61" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG61" s="18">
+        <v>177490</v>
+      </c>
+      <c r="AH61" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI61" s="18">
+        <v>958451</v>
+      </c>
+      <c r="AJ61" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK61" s="18">
+        <v>253998</v>
+      </c>
     </row>
     <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M62" s="10"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646D879-76C0-BC43-BA15-6794111A003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349FC3CB-91BB-A245-AB0A-DC5ED566827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>DATE</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">08/10/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/17/2022 </t>
   </si>
 </sst>
 </file>
@@ -759,6 +762,9 @@
                 <c:pt idx="49">
                   <c:v>44783</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>44790</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -920,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-3.5473571044846771E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.7415284088537209E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,6 +1122,9 @@
                 <c:pt idx="49">
                   <c:v>44783</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>44790</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1274,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.8303430045158407E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1576241838073335E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,330 +1598,216 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$71</c:f>
+              <c:f>Sheet1!$A$22:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>44426</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44433</c:v>
+                  <c:v>44573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44440</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44447</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44454</c:v>
+                  <c:v>44594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44461</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44468</c:v>
+                  <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44475</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44482</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44489</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44496</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44503</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44510</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44517</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44523</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44531</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44538</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44545</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44552</c:v>
+                  <c:v>44692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44559</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44566</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44573</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44580</c:v>
+                  <c:v>44720</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44587</c:v>
+                  <c:v>44727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44594</c:v>
+                  <c:v>44734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44601</c:v>
+                  <c:v>44741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44608</c:v>
+                  <c:v>44748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44615</c:v>
+                  <c:v>44755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44622</c:v>
+                  <c:v>44762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44629</c:v>
+                  <c:v>44769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44636</c:v>
+                  <c:v>44776</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44643</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44734</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44783</c:v>
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$75</c:f>
+              <c:f>Sheet1!$C$22:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>3095425</c:v>
+                  <c:v>3216456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3101941</c:v>
+                  <c:v>3191821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3083206</c:v>
+                  <c:v>3140830</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3077293</c:v>
+                  <c:v>3159944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3035070</c:v>
+                  <c:v>3145081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3085193</c:v>
+                  <c:v>3115863</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3116842</c:v>
+                  <c:v>3075231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3097972</c:v>
+                  <c:v>3077286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3092568</c:v>
+                  <c:v>3176276</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3085312</c:v>
+                  <c:v>3144169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3128447</c:v>
+                  <c:v>3120648</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3122368</c:v>
+                  <c:v>3124767</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3135214</c:v>
+                  <c:v>3153268</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3144250</c:v>
+                  <c:v>3126112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3163875</c:v>
+                  <c:v>3100953</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3189203</c:v>
+                  <c:v>3059150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3195869</c:v>
+                  <c:v>3109117</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3191087</c:v>
+                  <c:v>3109874</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3203899</c:v>
+                  <c:v>3093138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3236446</c:v>
+                  <c:v>3066737</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3216456</c:v>
+                  <c:v>3107833</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3191821</c:v>
+                  <c:v>3105346</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3140830</c:v>
+                  <c:v>3127878</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3159944</c:v>
+                  <c:v>3106964</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3145081</c:v>
+                  <c:v>3098237</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3115863</c:v>
+                  <c:v>3079260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3075231</c:v>
+                  <c:v>3095757</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3077286</c:v>
+                  <c:v>3106100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3176276</c:v>
+                  <c:v>3105872</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3144169</c:v>
+                  <c:v>3113167</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3120648</c:v>
+                  <c:v>3101182</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3124767</c:v>
+                  <c:v>3090181</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3153268</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3126112</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3100953</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3059150</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3109117</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3109874</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3093138</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3066737</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3107833</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3105346</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3127878</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3106964</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3098237</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3079260</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3095757</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3106100</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3105872</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3113167</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3101182</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3090181</c:v>
+                  <c:v>3078619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,330 +1847,216 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$71</c:f>
+              <c:f>Sheet1!$A$22:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>44426</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44433</c:v>
+                  <c:v>44573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44440</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44447</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44454</c:v>
+                  <c:v>44594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44461</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44468</c:v>
+                  <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44475</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44482</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44489</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44496</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44503</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44510</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44517</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44523</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44531</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44538</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44545</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44552</c:v>
+                  <c:v>44692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44559</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44566</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44573</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44580</c:v>
+                  <c:v>44720</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44587</c:v>
+                  <c:v>44727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44594</c:v>
+                  <c:v>44734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44601</c:v>
+                  <c:v>44741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44608</c:v>
+                  <c:v>44748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44615</c:v>
+                  <c:v>44755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44622</c:v>
+                  <c:v>44762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44629</c:v>
+                  <c:v>44769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44636</c:v>
+                  <c:v>44776</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44643</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44650</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44657</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44664</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44671</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44734</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44783</c:v>
+                  <c:v>44790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$70</c:f>
+              <c:f>Sheet1!$E$22:$E$90</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>1427874</c:v>
+                  <c:v>1486116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1425813</c:v>
+                  <c:v>1482637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1427699</c:v>
+                  <c:v>1475701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1428381</c:v>
+                  <c:v>1485182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1430749</c:v>
+                  <c:v>1482510</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1430624</c:v>
+                  <c:v>1477381</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1431108</c:v>
+                  <c:v>1474493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1435796</c:v>
+                  <c:v>1477450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1435476</c:v>
+                  <c:v>1429754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1435866</c:v>
+                  <c:v>1431379</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1434475</c:v>
+                  <c:v>1438014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1434731</c:v>
+                  <c:v>1435849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1433601</c:v>
+                  <c:v>1437078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1433280</c:v>
+                  <c:v>1433440</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1435768</c:v>
+                  <c:v>1428733</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1432047</c:v>
+                  <c:v>1409256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1440082</c:v>
+                  <c:v>1400620</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1444924</c:v>
+                  <c:v>1402069</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1462277</c:v>
+                  <c:v>1407734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1468708</c:v>
+                  <c:v>1417902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1486116</c:v>
+                  <c:v>1420845</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1482637</c:v>
+                  <c:v>1420855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1475701</c:v>
+                  <c:v>1424718</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1485182</c:v>
+                  <c:v>1433984</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1482510</c:v>
+                  <c:v>1444602</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1477381</c:v>
+                  <c:v>1451752</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1474493</c:v>
+                  <c:v>1461708</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1477450</c:v>
+                  <c:v>1467393</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1429754</c:v>
+                  <c:v>1476650</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1431379</c:v>
+                  <c:v>1476799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1438014</c:v>
+                  <c:v>1474587</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1435849</c:v>
+                  <c:v>1477286</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1437078</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1433440</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1428733</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1409256</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1400620</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1402069</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1407734</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1417902</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1420845</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1420855</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1424718</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1433984</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1444602</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1451752</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1461708</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1467393</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1476650</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1476799</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1474587</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1477286</c:v>
+                  <c:v>1483428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:F53"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5233,7 +5020,7 @@
         <v>3101182</v>
       </c>
       <c r="D52" s="25">
-        <f t="shared" ref="D52" si="44">(C52-C51)/C51</f>
+        <f>(C52-C51)/C51</f>
         <v>-3.8497774131615813E-3</v>
       </c>
       <c r="E52" s="24">
@@ -5241,13 +5028,13 @@
         <v>1474587</v>
       </c>
       <c r="F52" s="25">
-        <f t="shared" ref="F52" si="45">(E52-E51)/E51</f>
+        <f>(E52-E51)/E51</f>
         <v>-1.4978341670058011E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
-        <f t="shared" ref="A53" si="46">VALUE(B53)</f>
+        <f t="shared" ref="A53" si="44">VALUE(B53)</f>
         <v>44783</v>
       </c>
       <c r="B53" s="21" t="str">
@@ -5259,7 +5046,7 @@
         <v>3090181</v>
       </c>
       <c r="D53" s="25">
-        <f t="shared" ref="D53" si="47">(C53-C52)/C52</f>
+        <f t="shared" ref="D53" si="45">(C53-C52)/C52</f>
         <v>-3.5473571044846771E-3</v>
       </c>
       <c r="E53" s="24">
@@ -5267,8 +5054,34 @@
         <v>1477286</v>
       </c>
       <c r="F53" s="25">
-        <f t="shared" ref="F53" si="48">(E53-E52)/E52</f>
+        <f t="shared" ref="F53" si="46">(E53-E52)/E52</f>
         <v>1.8303430045158407E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
+        <f t="shared" ref="A54" si="47">VALUE(B54)</f>
+        <v>44790</v>
+      </c>
+      <c r="B54" s="21" t="str">
+        <f>'Public Report'!A62</f>
+        <v xml:space="preserve">08/17/2022 </v>
+      </c>
+      <c r="C54" s="23">
+        <f>'Public Report'!O62</f>
+        <v>3078619</v>
+      </c>
+      <c r="D54" s="25">
+        <f t="shared" ref="D54" si="48">(C54-C53)/C53</f>
+        <v>-3.7415284088537209E-3</v>
+      </c>
+      <c r="E54" s="24">
+        <f>'Public Report'!AA62</f>
+        <v>1483428</v>
+      </c>
+      <c r="F54" s="25">
+        <f t="shared" ref="F54" si="49">(E54-E53)/E53</f>
+        <v>4.1576241838073335E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +5096,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11561,25 +11374,118 @@
         <v>253998</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
+    <row r="62" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="16">
+        <v>1045</v>
+      </c>
+      <c r="C62" s="7">
+        <v>4562047</v>
+      </c>
+      <c r="D62" s="6">
+        <v>166</v>
+      </c>
+      <c r="E62" s="17">
+        <v>99131</v>
+      </c>
+      <c r="F62" s="16">
+        <v>664</v>
+      </c>
+      <c r="G62" s="18">
+        <v>3972203</v>
+      </c>
+      <c r="H62" s="6">
+        <v>232</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1241974</v>
+      </c>
+      <c r="J62" s="6">
+        <v>432</v>
+      </c>
+      <c r="K62" s="18">
+        <v>2730229</v>
+      </c>
+      <c r="L62" s="6">
+        <v>215</v>
+      </c>
+      <c r="M62" s="18">
+        <v>490713</v>
+      </c>
+      <c r="N62" s="16">
+        <v>553</v>
+      </c>
+      <c r="O62" s="7">
+        <v>3078619</v>
+      </c>
+      <c r="P62" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>10343</v>
+      </c>
+      <c r="R62" s="16">
+        <v>398</v>
+      </c>
+      <c r="S62" s="18">
+        <v>2838737</v>
+      </c>
+      <c r="T62" s="6">
+        <v>184</v>
+      </c>
+      <c r="U62" s="18">
+        <v>1063541</v>
+      </c>
+      <c r="V62" s="6">
+        <v>214</v>
+      </c>
+      <c r="W62" s="18">
+        <v>1775196</v>
+      </c>
+      <c r="X62" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y62" s="18">
+        <v>229539</v>
+      </c>
+      <c r="Z62" s="16">
+        <v>492</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>1483428</v>
+      </c>
+      <c r="AB62" s="6">
+        <v>138</v>
+      </c>
+      <c r="AC62" s="17">
+        <v>88788</v>
+      </c>
+      <c r="AD62" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE62" s="18">
+        <v>1133466</v>
+      </c>
+      <c r="AF62" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG62" s="18">
+        <v>178433</v>
+      </c>
+      <c r="AH62" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI62" s="18">
+        <v>955033</v>
+      </c>
+      <c r="AJ62" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK62" s="18">
+        <v>261175</v>
+      </c>
     </row>
     <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M63" s="10"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349FC3CB-91BB-A245-AB0A-DC5ED566827C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6288CD-0317-CB4B-BA8E-2607A9CFD28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35080" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47460" yWindow="500" windowWidth="38280" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>DATE</t>
   </si>
@@ -264,6 +264,12 @@
   <si>
     <t xml:space="preserve">08/17/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">08/24/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/31/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -474,16 +480,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,7 +603,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -608,327 +616,228 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$76</c:f>
+              <c:f>Sheet1!$A$22:$A$94</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>44440</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44447</c:v>
+                  <c:v>44573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44454</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44461</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44468</c:v>
+                  <c:v>44594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44475</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44482</c:v>
+                  <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44489</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44496</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44503</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44510</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44517</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44523</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44531</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44538</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44545</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44552</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44559</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44566</c:v>
+                  <c:v>44692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44573</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44580</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44587</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44594</c:v>
+                  <c:v>44720</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44601</c:v>
+                  <c:v>44727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44608</c:v>
+                  <c:v>44734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44615</c:v>
+                  <c:v>44741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44622</c:v>
+                  <c:v>44748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44629</c:v>
+                  <c:v>44755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44636</c:v>
+                  <c:v>44762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44643</c:v>
+                  <c:v>44769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44650</c:v>
+                  <c:v>44776</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44657</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44664</c:v>
+                  <c:v>44790</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44671</c:v>
+                  <c:v>44797</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44734</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44783</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44790</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$77</c:f>
+              <c:f>Sheet1!$D$22:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>2.1050421186105299E-3</c:v>
+                  <c:v>-6.1765282040855927E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.0397667138091925E-3</c:v>
+                  <c:v>-7.6590508311010627E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9178089300552737E-3</c:v>
+                  <c:v>-1.597551993047229E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3720825413764631E-2</c:v>
+                  <c:v>6.0856525186017705E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6514610865647251E-2</c:v>
+                  <c:v>-4.7035643669634652E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0258353367196153E-2</c:v>
+                  <c:v>-9.2900627996544451E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.0542048650525111E-3</c:v>
+                  <c:v>-1.3040367949425247E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7443669600629057E-3</c:v>
+                  <c:v>6.6824248324759991E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.3462701547710511E-3</c:v>
+                  <c:v>3.2167955789614615E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3980757861765681E-2</c:v>
+                  <c:v>-1.0108378491037932E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.943136642557793E-3</c:v>
+                  <c:v>-7.4808319781792896E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1141851312849736E-3</c:v>
+                  <c:v>1.3199181708414406E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8820999140728512E-3</c:v>
+                  <c:v>9.1210000617646045E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2415520394370674E-3</c:v>
+                  <c:v>-8.612017754279052E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.005373157915531E-3</c:v>
+                  <c:v>-8.0480161939175572E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0901773891470691E-3</c:v>
+                  <c:v>-1.3480694483276592E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.4963066383509461E-3</c:v>
+                  <c:v>1.6333622084565975E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0149328426332467E-3</c:v>
+                  <c:v>2.434774889462185E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0158559929635734E-2</c:v>
+                  <c:v>-5.3815685137082727E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.1765282040855927E-3</c:v>
+                  <c:v>-8.5353450120880473E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.6590508311010627E-3</c:v>
+                  <c:v>1.3400562226235898E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.597551993047229E-2</c:v>
+                  <c:v>-8.0023604871947752E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0856525186017705E-3</c:v>
+                  <c:v>7.2558742246435666E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.7035643669634652E-3</c:v>
+                  <c:v>-6.6863221647391622E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.2900627996544451E-3</c:v>
+                  <c:v>-2.808851341695623E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.3040367949425247E-2</c:v>
+                  <c:v>-6.1250963047694545E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6824248324759991E-4</c:v>
+                  <c:v>5.3574560121587653E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2167955789614615E-2</c:v>
+                  <c:v>3.3410245054763667E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.0108378491037932E-2</c:v>
+                  <c:v>-7.3403947071890802E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.4808319781792896E-3</c:v>
+                  <c:v>2.3487767686498351E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3199181708414406E-3</c:v>
+                  <c:v>-3.8497774131615813E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.1210000617646045E-3</c:v>
+                  <c:v>-3.5473571044846771E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8.612017754279052E-3</c:v>
+                  <c:v>-3.7415284088537209E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.0480161939175572E-3</c:v>
+                  <c:v>8.6954572813329617E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.3480694483276592E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.6333622084565975E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.434774889462185E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5.3815685137082727E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-8.5353450120880473E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.3400562226235898E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-8.0023604871947752E-4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.2558742246435666E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-6.6863221647391622E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-2.808851341695623E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-6.1250963047694545E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.3574560121587653E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.3410245054763667E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-7.3403947071890802E-5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3487767686498351E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-3.8497774131615813E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-3.5473571044846771E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-3.7415284088537209E-3</c:v>
+                  <c:v>-1.9942907140372101E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +866,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -968,327 +880,228 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$76</c:f>
+              <c:f>Sheet1!$A$22:$A$94</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>44440</c:v>
+                  <c:v>44566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44447</c:v>
+                  <c:v>44573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44454</c:v>
+                  <c:v>44580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44461</c:v>
+                  <c:v>44587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44468</c:v>
+                  <c:v>44594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44475</c:v>
+                  <c:v>44601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44482</c:v>
+                  <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44489</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44496</c:v>
+                  <c:v>44622</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44503</c:v>
+                  <c:v>44629</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44510</c:v>
+                  <c:v>44636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44517</c:v>
+                  <c:v>44643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44523</c:v>
+                  <c:v>44650</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44531</c:v>
+                  <c:v>44657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44538</c:v>
+                  <c:v>44664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44545</c:v>
+                  <c:v>44671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44552</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44559</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44566</c:v>
+                  <c:v>44692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44573</c:v>
+                  <c:v>44699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44580</c:v>
+                  <c:v>44706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44587</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44594</c:v>
+                  <c:v>44720</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44601</c:v>
+                  <c:v>44727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44608</c:v>
+                  <c:v>44734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44615</c:v>
+                  <c:v>44741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44622</c:v>
+                  <c:v>44748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44629</c:v>
+                  <c:v>44755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44636</c:v>
+                  <c:v>44762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44643</c:v>
+                  <c:v>44769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44650</c:v>
+                  <c:v>44776</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44657</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44664</c:v>
+                  <c:v>44790</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44671</c:v>
+                  <c:v>44797</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44678</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44685</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44692</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44699</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44706</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44720</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44727</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44734</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44741</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44748</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44755</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44762</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44769</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44776</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44783</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44790</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$76</c:f>
+              <c:f>Sheet1!$F$22:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>-1.4434046701599721E-3</c:v>
+                  <c:v>1.1852594252907998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3227541059030884E-3</c:v>
+                  <c:v>-2.3410016445553376E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7769172633727416E-4</c:v>
+                  <c:v>-4.6781511590497206E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6578209875376389E-3</c:v>
+                  <c:v>6.4247432237289261E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.7366826745991088E-5</c:v>
+                  <c:v>-1.7991061028210685E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3831391057328829E-4</c:v>
+                  <c:v>-3.4596731219350965E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.275783518784047E-3</c:v>
+                  <c:v>-1.9548105735758075E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.228728872346768E-4</c:v>
+                  <c:v>2.0054350885355169E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7168688295729082E-4</c:v>
+                  <c:v>-3.2282649159023992E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.6875335163587692E-4</c:v>
+                  <c:v>1.1365591563303897E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7846250370344552E-4</c:v>
+                  <c:v>4.6353900678995572E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.876040874561155E-4</c:v>
+                  <c:v>-1.505548624700455E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.2391167416875406E-4</c:v>
+                  <c:v>8.5593958696213873E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7358785443179281E-3</c:v>
+                  <c:v>-2.5315257766105946E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.5916443325105449E-3</c:v>
+                  <c:v>-3.2837091193213528E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6108493645809108E-3</c:v>
+                  <c:v>-1.363235818028981E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3623085352084119E-3</c:v>
+                  <c:v>-6.1280562225741811E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.200962818805695E-2</c:v>
+                  <c:v>1.0345418457540232E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3979355484631165E-3</c:v>
+                  <c:v>4.0404573526695194E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1852594252907998E-2</c:v>
+                  <c:v>7.2229554731220525E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.3410016445553376E-3</c:v>
+                  <c:v>2.0756018399014885E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.6781511590497206E-3</c:v>
+                  <c:v>7.0380653765892836E-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4247432237289261E-3</c:v>
+                  <c:v>2.7187855199862056E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.7991061028210685E-3</c:v>
+                  <c:v>6.5037431968993165E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.4596731219350965E-3</c:v>
+                  <c:v>7.4045456574131927E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.9548105735758075E-3</c:v>
+                  <c:v>4.9494601281183329E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0054350885355169E-3</c:v>
+                  <c:v>6.8579206365825566E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.2282649159023992E-2</c:v>
+                  <c:v>3.8892856849658073E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1365591563303897E-3</c:v>
+                  <c:v>6.3084667842902347E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.6353900678995572E-3</c:v>
+                  <c:v>1.0090407340940642E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.505548624700455E-3</c:v>
+                  <c:v>-1.4978341670058011E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.5593958696213873E-4</c:v>
+                  <c:v>1.8303430045158407E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.5315257766105946E-3</c:v>
+                  <c:v>4.1576241838073335E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.2837091193213528E-3</c:v>
+                  <c:v>3.6435876901339329E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.363235818028981E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-6.1280562225741811E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0345418457540232E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.0404573526695194E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.2229554731220525E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.0756018399014885E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.0380653765892836E-6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.7187855199862056E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.5037431968993165E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.4045456574131927E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.9494601281183329E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.8579206365825566E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8892856849658073E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.3084667842902347E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0090407340940642E-4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.4978341670058011E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.8303430045158407E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.1576241838073335E-3</c:v>
+                  <c:v>2.4703912393129386E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,216 +1411,348 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$22:$A$91</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="21">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="24">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="27">
                   <c:v>44615</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="28">
                   <c:v>44622</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>44629</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="30">
                   <c:v>44636</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
                   <c:v>44643</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="32">
                   <c:v>44650</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="33">
                   <c:v>44657</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="34">
                   <c:v>44664</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="35">
                   <c:v>44671</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
                   <c:v>44678</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="37">
                   <c:v>44685</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="38">
                   <c:v>44692</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="39">
                   <c:v>44699</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="40">
                   <c:v>44706</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>44713</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>44720</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
                   <c:v>44727</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>44734</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
                   <c:v>44741</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>44748</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="47">
                   <c:v>44755</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="48">
                   <c:v>44762</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="49">
                   <c:v>44769</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="50">
                   <c:v>44776</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="51">
                   <c:v>44783</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="52">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$95</c:f>
+              <c:f>Sheet1!$C$2:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
+                  <c:v>3095425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3101941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3083206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3077293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3035070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3085193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3116842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3097972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3092568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3085312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3128447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3122368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3135214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3163875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3189203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3195869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3191087</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3203899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3236446</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3216456</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="21">
                   <c:v>3191821</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
                   <c:v>3140830</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
                   <c:v>3159944</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="24">
                   <c:v>3145081</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
                   <c:v>3115863</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26">
                   <c:v>3075231</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="27">
                   <c:v>3077286</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="28">
                   <c:v>3176276</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>3144169</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="30">
                   <c:v>3120648</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
                   <c:v>3124767</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="32">
                   <c:v>3153268</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="33">
                   <c:v>3126112</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="34">
                   <c:v>3100953</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="35">
                   <c:v>3059150</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
                   <c:v>3109117</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="37">
                   <c:v>3109874</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="38">
                   <c:v>3093138</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="39">
                   <c:v>3066737</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="40">
                   <c:v>3107833</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>3105346</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>3127878</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
                   <c:v>3106964</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>3098237</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
                   <c:v>3079260</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>3095757</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="47">
                   <c:v>3106100</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="48">
                   <c:v>3105872</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="49">
                   <c:v>3113167</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="50">
                   <c:v>3101182</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="51">
                   <c:v>3090181</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="52">
                   <c:v>3078619</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3081296</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3075151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,216 +1792,348 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$22:$A$91</c:f>
+              <c:f>Sheet1!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy;@</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>44566</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="21">
                   <c:v>44573</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
                   <c:v>44580</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
                   <c:v>44587</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="24">
                   <c:v>44594</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
                   <c:v>44601</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26">
                   <c:v>44608</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="27">
                   <c:v>44615</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="28">
                   <c:v>44622</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>44629</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="30">
                   <c:v>44636</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
                   <c:v>44643</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="32">
                   <c:v>44650</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="33">
                   <c:v>44657</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="34">
                   <c:v>44664</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="35">
                   <c:v>44671</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
                   <c:v>44678</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="37">
                   <c:v>44685</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="38">
                   <c:v>44692</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="39">
                   <c:v>44699</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="40">
                   <c:v>44706</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>44713</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>44720</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
                   <c:v>44727</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>44734</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
                   <c:v>44741</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>44748</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="47">
                   <c:v>44755</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="48">
                   <c:v>44762</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="49">
                   <c:v>44769</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="50">
                   <c:v>44776</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="51">
                   <c:v>44783</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="52">
                   <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$90</c:f>
+              <c:f>Sheet1!$E$2:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
+                  <c:v>1427874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1425813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1427699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1428381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1430749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1430624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1431108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1435796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1435476</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1435866</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1434475</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1434731</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1433601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1433280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1435768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1432047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1440082</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1444924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1462277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1468708</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1486116</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="21">
                   <c:v>1482637</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="22">
                   <c:v>1475701</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="23">
                   <c:v>1485182</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="24">
                   <c:v>1482510</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="25">
                   <c:v>1477381</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26">
                   <c:v>1474493</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="27">
                   <c:v>1477450</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="28">
                   <c:v>1429754</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="29">
                   <c:v>1431379</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="30">
                   <c:v>1438014</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="31">
                   <c:v>1435849</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="32">
                   <c:v>1437078</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="33">
                   <c:v>1433440</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="34">
                   <c:v>1428733</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="35">
                   <c:v>1409256</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="36">
                   <c:v>1400620</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="37">
                   <c:v>1402069</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="38">
                   <c:v>1407734</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="39">
                   <c:v>1417902</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="40">
                   <c:v>1420845</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>1420855</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>1424718</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
                   <c:v>1433984</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>1444602</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
                   <c:v>1451752</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>1461708</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="47">
                   <c:v>1467393</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="48">
                   <c:v>1476650</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="49">
                   <c:v>1476799</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="50">
                   <c:v>1474587</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="51">
                   <c:v>1477286</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="52">
                   <c:v>1483428</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1488833</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1492511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,6 +2211,7 @@
         <c:axId val="946791439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3379,15 +3457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>300463</xdr:colOff>
+      <xdr:colOff>300462</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>23232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>573049</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100671</xdr:rowOff>
+      <xdr:colOff>777875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3415,15 +3493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>300463</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91996</xdr:rowOff>
+      <xdr:colOff>292527</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>573048</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>69695</xdr:rowOff>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3709,10 +3787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5084,6 +5162,58 @@
         <v>4.1576241838073335E-3</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="22">
+        <f t="shared" ref="A55" si="50">VALUE(B55)</f>
+        <v>44797</v>
+      </c>
+      <c r="B55" s="21" t="str">
+        <f>'Public Report'!A63</f>
+        <v xml:space="preserve">08/24/2022 </v>
+      </c>
+      <c r="C55" s="23">
+        <f>'Public Report'!O63</f>
+        <v>3081296</v>
+      </c>
+      <c r="D55" s="25">
+        <f t="shared" ref="D55" si="51">(C55-C54)/C54</f>
+        <v>8.6954572813329617E-4</v>
+      </c>
+      <c r="E55" s="24">
+        <f>'Public Report'!AA63</f>
+        <v>1488833</v>
+      </c>
+      <c r="F55" s="25">
+        <f t="shared" ref="F55" si="52">(E55-E54)/E54</f>
+        <v>3.6435876901339329E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
+        <f t="shared" ref="A56" si="53">VALUE(B56)</f>
+        <v>44804</v>
+      </c>
+      <c r="B56" s="21" t="str">
+        <f>'Public Report'!A64</f>
+        <v xml:space="preserve">08/31/2022 </v>
+      </c>
+      <c r="C56" s="23">
+        <f>'Public Report'!O64</f>
+        <v>3075151</v>
+      </c>
+      <c r="D56" s="25">
+        <f t="shared" ref="D56" si="54">(C56-C55)/C55</f>
+        <v>-1.9942907140372101E-3</v>
+      </c>
+      <c r="E56" s="24">
+        <f>'Public Report'!AA64</f>
+        <v>1492511</v>
+      </c>
+      <c r="F56" s="25">
+        <f t="shared" ref="F56" si="55">(E56-E55)/E55</f>
+        <v>2.4703912393129386E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5096,7 +5226,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5165,48 +5295,48 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5215,42 +5345,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5258,15 +5388,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5275,7 +5405,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="26"/>
@@ -5283,10 +5413,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5295,7 +5425,7 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-      <c r="X7" s="27" t="s">
+      <c r="X7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="26"/>
@@ -5303,10 +5433,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="26"/>
-      <c r="AB7" s="28" t="s">
+      <c r="AB7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="26" t="s">
         <v>5</v>
       </c>
@@ -5315,7 +5445,7 @@
       <c r="AG7" s="26"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26"/>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="26"/>
@@ -5326,11 +5456,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5343,12 +5473,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5361,12 +5491,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="26" t="s">
         <v>3</v>
       </c>
@@ -5379,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="26"/>
-      <c r="AJ8" s="27"/>
+      <c r="AJ8" s="30"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5388,7 +5518,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -11487,45 +11617,231 @@
         <v>261175</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-    </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
+    <row r="63" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="16">
+        <v>1042</v>
+      </c>
+      <c r="C63" s="7">
+        <v>4570129</v>
+      </c>
+      <c r="D63" s="6">
+        <v>162</v>
+      </c>
+      <c r="E63" s="17">
+        <v>100506</v>
+      </c>
+      <c r="F63" s="16">
+        <v>665</v>
+      </c>
+      <c r="G63" s="18">
+        <v>3971278</v>
+      </c>
+      <c r="H63" s="6">
+        <v>232</v>
+      </c>
+      <c r="I63" s="18">
+        <v>1242501</v>
+      </c>
+      <c r="J63" s="6">
+        <v>433</v>
+      </c>
+      <c r="K63" s="18">
+        <v>2728777</v>
+      </c>
+      <c r="L63" s="6">
+        <v>215</v>
+      </c>
+      <c r="M63" s="18">
+        <v>498345</v>
+      </c>
+      <c r="N63" s="16">
+        <v>554</v>
+      </c>
+      <c r="O63" s="7">
+        <v>3081296</v>
+      </c>
+      <c r="P63" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>10582</v>
+      </c>
+      <c r="R63" s="16">
+        <v>399</v>
+      </c>
+      <c r="S63" s="18">
+        <v>2841383</v>
+      </c>
+      <c r="T63" s="6">
+        <v>184</v>
+      </c>
+      <c r="U63" s="18">
+        <v>1063128</v>
+      </c>
+      <c r="V63" s="6">
+        <v>215</v>
+      </c>
+      <c r="W63" s="18">
+        <v>1778255</v>
+      </c>
+      <c r="X63" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y63" s="18">
+        <v>229331</v>
+      </c>
+      <c r="Z63" s="16">
+        <v>488</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>1488833</v>
+      </c>
+      <c r="AB63" s="6">
+        <v>134</v>
+      </c>
+      <c r="AC63" s="17">
+        <v>89924</v>
+      </c>
+      <c r="AD63" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE63" s="18">
+        <v>1129894</v>
+      </c>
+      <c r="AF63" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG63" s="18">
+        <v>179373</v>
+      </c>
+      <c r="AH63" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI63" s="18">
+        <v>950521</v>
+      </c>
+      <c r="AJ63" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK63" s="18">
+        <v>269015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="16">
+        <v>1042</v>
+      </c>
+      <c r="C64" s="7">
+        <v>4567663</v>
+      </c>
+      <c r="D64" s="6">
+        <v>162</v>
+      </c>
+      <c r="E64" s="17">
+        <v>102205</v>
+      </c>
+      <c r="F64" s="16">
+        <v>665</v>
+      </c>
+      <c r="G64" s="18">
+        <v>3958588</v>
+      </c>
+      <c r="H64" s="6">
+        <v>232</v>
+      </c>
+      <c r="I64" s="18">
+        <v>1237621</v>
+      </c>
+      <c r="J64" s="6">
+        <v>433</v>
+      </c>
+      <c r="K64" s="18">
+        <v>2720967</v>
+      </c>
+      <c r="L64" s="6">
+        <v>215</v>
+      </c>
+      <c r="M64" s="18">
+        <v>506870</v>
+      </c>
+      <c r="N64" s="16">
+        <v>554</v>
+      </c>
+      <c r="O64" s="7">
+        <v>3075151</v>
+      </c>
+      <c r="P64" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>11324</v>
+      </c>
+      <c r="R64" s="16">
+        <v>399</v>
+      </c>
+      <c r="S64" s="18">
+        <v>2832830</v>
+      </c>
+      <c r="T64" s="6">
+        <v>184</v>
+      </c>
+      <c r="U64" s="18">
+        <v>1057084</v>
+      </c>
+      <c r="V64" s="6">
+        <v>215</v>
+      </c>
+      <c r="W64" s="18">
+        <v>1775746</v>
+      </c>
+      <c r="X64" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y64" s="18">
+        <v>230997</v>
+      </c>
+      <c r="Z64" s="16">
+        <v>488</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>1492511</v>
+      </c>
+      <c r="AB64" s="6">
+        <v>134</v>
+      </c>
+      <c r="AC64" s="17">
+        <v>90881</v>
+      </c>
+      <c r="AD64" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE64" s="18">
+        <v>1125758</v>
+      </c>
+      <c r="AF64" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG64" s="18">
+        <v>180537</v>
+      </c>
+      <c r="AH64" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI64" s="18">
+        <v>945221</v>
+      </c>
+      <c r="AJ64" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK64" s="18">
+        <v>275873</v>
+      </c>
     </row>
     <row r="65" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M65" s="10"/>
@@ -11949,6 +12265,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -11965,15 +12290,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6288CD-0317-CB4B-BA8E-2607A9CFD28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E527D76-F886-AD4F-BC4D-618D3287EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47460" yWindow="500" windowWidth="38280" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53240" yWindow="500" windowWidth="38280" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>DATE</t>
   </si>
@@ -270,6 +270,12 @@
   <si>
     <t xml:space="preserve">08/31/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">09/07/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/21/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +288,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +321,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,7 +431,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -477,6 +490,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,7 +527,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,6 +765,15 @@
                 <c:pt idx="34">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44825</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -838,6 +887,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1.9942907140372101E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.7821550876688659E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.9912179422183121E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4563378707541801E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,6 +1047,15 @@
                 <c:pt idx="34">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44825</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1102,6 +1169,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.4703912393129386E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7212013847804129E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9249910419237967E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0142219361145385E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,6 +1656,15 @@
                 <c:pt idx="54">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44825</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1753,6 +1838,15 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>3075151</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3057370</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3042110</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3064793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,6 +2055,15 @@
                 <c:pt idx="54">
                   <c:v>44804</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>44811</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44818</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44825</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2134,6 +2237,15 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1492511</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1507020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1509921</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1519002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,13 +3899,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="20"/>
     <col min="2" max="2" width="13.6640625" style="21" customWidth="1"/>
@@ -3887,7 +3999,7 @@
         <v>1427699</v>
       </c>
       <c r="F4" s="25">
-        <f t="shared" ref="F4:F29" si="1">(E4-E3)/E3</f>
+        <f t="shared" ref="F4:F59" si="1">(E4-E3)/E3</f>
         <v>1.3227541059030884E-3</v>
       </c>
     </row>
@@ -4537,7 +4649,7 @@
         <v>1429754</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" ref="F30:F36" si="3">(E30-E29)/E29</f>
+        <f t="shared" si="1"/>
         <v>-3.2282649159023992E-2</v>
       </c>
     </row>
@@ -4562,7 +4674,7 @@
         <v>1431379</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.1365591563303897E-3</v>
       </c>
     </row>
@@ -4587,7 +4699,7 @@
         <v>1438014</v>
       </c>
       <c r="F32" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.6353900678995572E-3</v>
       </c>
     </row>
@@ -4612,7 +4724,7 @@
         <v>1435849</v>
       </c>
       <c r="F33" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.505548624700455E-3</v>
       </c>
     </row>
@@ -4638,13 +4750,13 @@
         <v>1437078</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.5593958696213873E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
-        <f t="shared" ref="A35:A38" si="4">VALUE(B35)</f>
+        <f t="shared" ref="A35:A38" si="3">VALUE(B35)</f>
         <v>44657</v>
       </c>
       <c r="B35" s="21" t="str">
@@ -4664,13 +4776,13 @@
         <v>1433440</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-2.5315257766105946E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44664</v>
       </c>
       <c r="B36" s="21" t="str">
@@ -4690,13 +4802,13 @@
         <v>1428733</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-3.2837091193213528E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44671</v>
       </c>
       <c r="B37" s="21" t="str">
@@ -4708,7 +4820,7 @@
         <v>3059150</v>
       </c>
       <c r="D37" s="25">
-        <f t="shared" ref="D37:D38" si="5">(C37-C36)/C36</f>
+        <f t="shared" ref="D37:D38" si="4">(C37-C36)/C36</f>
         <v>-1.3480694483276592E-2</v>
       </c>
       <c r="E37" s="24">
@@ -4716,13 +4828,13 @@
         <v>1409256</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" ref="F37:F38" si="6">(E37-E36)/E36</f>
+        <f t="shared" si="1"/>
         <v>-1.363235818028981E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44678</v>
       </c>
       <c r="B38" s="21" t="str">
@@ -4734,7 +4846,7 @@
         <v>3109117</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6333622084565975E-2</v>
       </c>
       <c r="E38" s="24">
@@ -4742,13 +4854,13 @@
         <v>1400620</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-6.1280562225741811E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
-        <f t="shared" ref="A39" si="7">VALUE(B39)</f>
+        <f t="shared" ref="A39" si="5">VALUE(B39)</f>
         <v>44685</v>
       </c>
       <c r="B39" s="21" t="str">
@@ -4760,7 +4872,7 @@
         <v>3109874</v>
       </c>
       <c r="D39" s="25">
-        <f t="shared" ref="D39" si="8">(C39-C38)/C38</f>
+        <f t="shared" ref="D39" si="6">(C39-C38)/C38</f>
         <v>2.434774889462185E-4</v>
       </c>
       <c r="E39" s="24">
@@ -4768,13 +4880,13 @@
         <v>1402069</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" ref="F39" si="9">(E39-E38)/E38</f>
+        <f t="shared" si="1"/>
         <v>1.0345418457540232E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
-        <f t="shared" ref="A40" si="10">VALUE(B40)</f>
+        <f t="shared" ref="A40" si="7">VALUE(B40)</f>
         <v>44692</v>
       </c>
       <c r="B40" s="21" t="str">
@@ -4786,7 +4898,7 @@
         <v>3093138</v>
       </c>
       <c r="D40" s="25">
-        <f t="shared" ref="D40" si="11">(C40-C39)/C39</f>
+        <f t="shared" ref="D40" si="8">(C40-C39)/C39</f>
         <v>-5.3815685137082727E-3</v>
       </c>
       <c r="E40" s="24">
@@ -4794,13 +4906,13 @@
         <v>1407734</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" ref="F40" si="12">(E40-E39)/E39</f>
+        <f t="shared" si="1"/>
         <v>4.0404573526695194E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
-        <f t="shared" ref="A41" si="13">VALUE(B41)</f>
+        <f t="shared" ref="A41" si="9">VALUE(B41)</f>
         <v>44699</v>
       </c>
       <c r="B41" s="21" t="str">
@@ -4812,7 +4924,7 @@
         <v>3066737</v>
       </c>
       <c r="D41" s="25">
-        <f t="shared" ref="D41" si="14">(C41-C40)/C40</f>
+        <f t="shared" ref="D41" si="10">(C41-C40)/C40</f>
         <v>-8.5353450120880473E-3</v>
       </c>
       <c r="E41" s="24">
@@ -4820,13 +4932,13 @@
         <v>1417902</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" ref="F41" si="15">(E41-E40)/E40</f>
+        <f t="shared" si="1"/>
         <v>7.2229554731220525E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
-        <f t="shared" ref="A42" si="16">VALUE(B42)</f>
+        <f t="shared" ref="A42" si="11">VALUE(B42)</f>
         <v>44706</v>
       </c>
       <c r="B42" s="21" t="str">
@@ -4838,7 +4950,7 @@
         <v>3107833</v>
       </c>
       <c r="D42" s="25">
-        <f t="shared" ref="D42" si="17">(C42-C41)/C41</f>
+        <f t="shared" ref="D42" si="12">(C42-C41)/C41</f>
         <v>1.3400562226235898E-2</v>
       </c>
       <c r="E42" s="24">
@@ -4846,13 +4958,13 @@
         <v>1420845</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" ref="F42" si="18">(E42-E41)/E41</f>
+        <f t="shared" si="1"/>
         <v>2.0756018399014885E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
-        <f t="shared" ref="A43" si="19">VALUE(B43)</f>
+        <f t="shared" ref="A43" si="13">VALUE(B43)</f>
         <v>44713</v>
       </c>
       <c r="B43" s="21" t="str">
@@ -4864,7 +4976,7 @@
         <v>3105346</v>
       </c>
       <c r="D43" s="25">
-        <f t="shared" ref="D43" si="20">(C43-C42)/C42</f>
+        <f t="shared" ref="D43" si="14">(C43-C42)/C42</f>
         <v>-8.0023604871947752E-4</v>
       </c>
       <c r="E43" s="24">
@@ -4872,13 +4984,13 @@
         <v>1420855</v>
       </c>
       <c r="F43" s="25">
-        <f t="shared" ref="F43" si="21">(E43-E42)/E42</f>
+        <f t="shared" si="1"/>
         <v>7.0380653765892836E-6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
-        <f t="shared" ref="A44" si="22">VALUE(B44)</f>
+        <f t="shared" ref="A44" si="15">VALUE(B44)</f>
         <v>44720</v>
       </c>
       <c r="B44" s="21" t="str">
@@ -4890,7 +5002,7 @@
         <v>3127878</v>
       </c>
       <c r="D44" s="25">
-        <f t="shared" ref="D44" si="23">(C44-C43)/C43</f>
+        <f t="shared" ref="D44" si="16">(C44-C43)/C43</f>
         <v>7.2558742246435666E-3</v>
       </c>
       <c r="E44" s="24">
@@ -4898,13 +5010,13 @@
         <v>1424718</v>
       </c>
       <c r="F44" s="25">
-        <f t="shared" ref="F44" si="24">(E44-E43)/E43</f>
+        <f t="shared" si="1"/>
         <v>2.7187855199862056E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
-        <f t="shared" ref="A45:A46" si="25">VALUE(B45)</f>
+        <f t="shared" ref="A45:A46" si="17">VALUE(B45)</f>
         <v>44727</v>
       </c>
       <c r="B45" s="21" t="str">
@@ -4916,7 +5028,7 @@
         <v>3106964</v>
       </c>
       <c r="D45" s="25">
-        <f t="shared" ref="D45:D46" si="26">(C45-C44)/C44</f>
+        <f t="shared" ref="D45:D46" si="18">(C45-C44)/C44</f>
         <v>-6.6863221647391622E-3</v>
       </c>
       <c r="E45" s="24">
@@ -4924,13 +5036,13 @@
         <v>1433984</v>
       </c>
       <c r="F45" s="25">
-        <f t="shared" ref="F45:F46" si="27">(E45-E44)/E44</f>
+        <f t="shared" si="1"/>
         <v>6.5037431968993165E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>44734</v>
       </c>
       <c r="B46" s="21" t="str">
@@ -4942,7 +5054,7 @@
         <v>3098237</v>
       </c>
       <c r="D46" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-2.808851341695623E-3</v>
       </c>
       <c r="E46" s="24">
@@ -4950,13 +5062,13 @@
         <v>1444602</v>
       </c>
       <c r="F46" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="1"/>
         <v>7.4045456574131927E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
-        <f t="shared" ref="A47" si="28">VALUE(B47)</f>
+        <f t="shared" ref="A47" si="19">VALUE(B47)</f>
         <v>44741</v>
       </c>
       <c r="B47" s="21" t="str">
@@ -4968,7 +5080,7 @@
         <v>3079260</v>
       </c>
       <c r="D47" s="25">
-        <f t="shared" ref="D47" si="29">(C47-C46)/C46</f>
+        <f t="shared" ref="D47" si="20">(C47-C46)/C46</f>
         <v>-6.1250963047694545E-3</v>
       </c>
       <c r="E47" s="24">
@@ -4976,13 +5088,13 @@
         <v>1451752</v>
       </c>
       <c r="F47" s="25">
-        <f t="shared" ref="F47" si="30">(E47-E46)/E46</f>
+        <f t="shared" si="1"/>
         <v>4.9494601281183329E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
-        <f t="shared" ref="A48" si="31">VALUE(B48)</f>
+        <f t="shared" ref="A48" si="21">VALUE(B48)</f>
         <v>44748</v>
       </c>
       <c r="B48" s="21" t="str">
@@ -4994,7 +5106,7 @@
         <v>3095757</v>
       </c>
       <c r="D48" s="25">
-        <f t="shared" ref="D48" si="32">(C48-C47)/C47</f>
+        <f t="shared" ref="D48" si="22">(C48-C47)/C47</f>
         <v>5.3574560121587653E-3</v>
       </c>
       <c r="E48" s="24">
@@ -5002,13 +5114,13 @@
         <v>1461708</v>
       </c>
       <c r="F48" s="25">
-        <f t="shared" ref="F48" si="33">(E48-E47)/E47</f>
+        <f t="shared" si="1"/>
         <v>6.8579206365825566E-3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
-        <f t="shared" ref="A49" si="34">VALUE(B49)</f>
+        <f t="shared" ref="A49" si="23">VALUE(B49)</f>
         <v>44755</v>
       </c>
       <c r="B49" s="21" t="str">
@@ -5020,7 +5132,7 @@
         <v>3106100</v>
       </c>
       <c r="D49" s="25">
-        <f t="shared" ref="D49" si="35">(C49-C48)/C48</f>
+        <f t="shared" ref="D49" si="24">(C49-C48)/C48</f>
         <v>3.3410245054763667E-3</v>
       </c>
       <c r="E49" s="24">
@@ -5028,13 +5140,13 @@
         <v>1467393</v>
       </c>
       <c r="F49" s="25">
-        <f t="shared" ref="F49" si="36">(E49-E48)/E48</f>
+        <f t="shared" si="1"/>
         <v>3.8892856849658073E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
-        <f t="shared" ref="A50" si="37">VALUE(B50)</f>
+        <f t="shared" ref="A50" si="25">VALUE(B50)</f>
         <v>44762</v>
       </c>
       <c r="B50" s="21" t="str">
@@ -5046,7 +5158,7 @@
         <v>3105872</v>
       </c>
       <c r="D50" s="25">
-        <f t="shared" ref="D50" si="38">(C50-C49)/C49</f>
+        <f t="shared" ref="D50" si="26">(C50-C49)/C49</f>
         <v>-7.3403947071890802E-5</v>
       </c>
       <c r="E50" s="24">
@@ -5054,13 +5166,13 @@
         <v>1476650</v>
       </c>
       <c r="F50" s="25">
-        <f t="shared" ref="F50" si="39">(E50-E49)/E49</f>
+        <f t="shared" si="1"/>
         <v>6.3084667842902347E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
-        <f t="shared" ref="A51" si="40">VALUE(B51)</f>
+        <f t="shared" ref="A51" si="27">VALUE(B51)</f>
         <v>44769</v>
       </c>
       <c r="B51" s="21" t="str">
@@ -5072,7 +5184,7 @@
         <v>3113167</v>
       </c>
       <c r="D51" s="25">
-        <f t="shared" ref="D51" si="41">(C51-C50)/C50</f>
+        <f t="shared" ref="D51" si="28">(C51-C50)/C50</f>
         <v>2.3487767686498351E-3</v>
       </c>
       <c r="E51" s="24">
@@ -5080,13 +5192,13 @@
         <v>1476799</v>
       </c>
       <c r="F51" s="25">
-        <f t="shared" ref="F51" si="42">(E51-E50)/E50</f>
+        <f t="shared" si="1"/>
         <v>1.0090407340940642E-4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
-        <f t="shared" ref="A52" si="43">VALUE(B52)</f>
+        <f t="shared" ref="A52" si="29">VALUE(B52)</f>
         <v>44776</v>
       </c>
       <c r="B52" s="21" t="str">
@@ -5106,13 +5218,13 @@
         <v>1474587</v>
       </c>
       <c r="F52" s="25">
-        <f>(E52-E51)/E51</f>
+        <f t="shared" si="1"/>
         <v>-1.4978341670058011E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
-        <f t="shared" ref="A53" si="44">VALUE(B53)</f>
+        <f t="shared" ref="A53" si="30">VALUE(B53)</f>
         <v>44783</v>
       </c>
       <c r="B53" s="21" t="str">
@@ -5124,7 +5236,7 @@
         <v>3090181</v>
       </c>
       <c r="D53" s="25">
-        <f t="shared" ref="D53" si="45">(C53-C52)/C52</f>
+        <f t="shared" ref="D53" si="31">(C53-C52)/C52</f>
         <v>-3.5473571044846771E-3</v>
       </c>
       <c r="E53" s="24">
@@ -5132,13 +5244,13 @@
         <v>1477286</v>
       </c>
       <c r="F53" s="25">
-        <f t="shared" ref="F53" si="46">(E53-E52)/E52</f>
+        <f t="shared" si="1"/>
         <v>1.8303430045158407E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
-        <f t="shared" ref="A54" si="47">VALUE(B54)</f>
+        <f t="shared" ref="A54" si="32">VALUE(B54)</f>
         <v>44790</v>
       </c>
       <c r="B54" s="21" t="str">
@@ -5150,7 +5262,7 @@
         <v>3078619</v>
       </c>
       <c r="D54" s="25">
-        <f t="shared" ref="D54" si="48">(C54-C53)/C53</f>
+        <f t="shared" ref="D54" si="33">(C54-C53)/C53</f>
         <v>-3.7415284088537209E-3</v>
       </c>
       <c r="E54" s="24">
@@ -5158,13 +5270,13 @@
         <v>1483428</v>
       </c>
       <c r="F54" s="25">
-        <f t="shared" ref="F54" si="49">(E54-E53)/E53</f>
+        <f t="shared" si="1"/>
         <v>4.1576241838073335E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
-        <f t="shared" ref="A55" si="50">VALUE(B55)</f>
+        <f t="shared" ref="A55" si="34">VALUE(B55)</f>
         <v>44797</v>
       </c>
       <c r="B55" s="21" t="str">
@@ -5176,7 +5288,7 @@
         <v>3081296</v>
       </c>
       <c r="D55" s="25">
-        <f t="shared" ref="D55" si="51">(C55-C54)/C54</f>
+        <f t="shared" ref="D55" si="35">(C55-C54)/C54</f>
         <v>8.6954572813329617E-4</v>
       </c>
       <c r="E55" s="24">
@@ -5184,13 +5296,13 @@
         <v>1488833</v>
       </c>
       <c r="F55" s="25">
-        <f t="shared" ref="F55" si="52">(E55-E54)/E54</f>
+        <f t="shared" si="1"/>
         <v>3.6435876901339329E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
-        <f t="shared" ref="A56" si="53">VALUE(B56)</f>
+        <f t="shared" ref="A56:A58" si="36">VALUE(B56)</f>
         <v>44804</v>
       </c>
       <c r="B56" s="21" t="str">
@@ -5202,7 +5314,7 @@
         <v>3075151</v>
       </c>
       <c r="D56" s="25">
-        <f t="shared" ref="D56" si="54">(C56-C55)/C55</f>
+        <f t="shared" ref="D56:D58" si="37">(C56-C55)/C55</f>
         <v>-1.9942907140372101E-3</v>
       </c>
       <c r="E56" s="24">
@@ -5210,13 +5322,193 @@
         <v>1492511</v>
       </c>
       <c r="F56" s="25">
-        <f t="shared" ref="F56" si="55">(E56-E55)/E55</f>
+        <f t="shared" si="1"/>
         <v>2.4703912393129386E-3</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
+        <f t="shared" si="36"/>
+        <v>44811</v>
+      </c>
+      <c r="B57" s="21" t="str">
+        <f>'Public Report'!A65</f>
+        <v xml:space="preserve">09/07/2022 </v>
+      </c>
+      <c r="C57" s="23">
+        <f>'Public Report'!O65</f>
+        <v>3057370</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="37"/>
+        <v>-5.7821550876688659E-3</v>
+      </c>
+      <c r="E57" s="24">
+        <f>'Public Report'!AA65</f>
+        <v>1507020</v>
+      </c>
+      <c r="F57" s="25">
+        <f t="shared" si="1"/>
+        <v>9.7212013847804129E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
+        <f t="shared" si="36"/>
+        <v>44818</v>
+      </c>
+      <c r="B58" s="21">
+        <f>'Public Report'!A66</f>
+        <v>44818</v>
+      </c>
+      <c r="C58" s="23">
+        <f>'Public Report'!O66</f>
+        <v>3042110</v>
+      </c>
+      <c r="D58" s="25">
+        <f t="shared" si="37"/>
+        <v>-4.9912179422183121E-3</v>
+      </c>
+      <c r="E58" s="24">
+        <f>'Public Report'!AA66</f>
+        <v>1509921</v>
+      </c>
+      <c r="F58" s="25">
+        <f t="shared" si="1"/>
+        <v>1.9249910419237967E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
+        <f t="shared" ref="A59" si="38">VALUE(B59)</f>
+        <v>44825</v>
+      </c>
+      <c r="B59" s="21" t="str">
+        <f>'Public Report'!A67</f>
+        <v xml:space="preserve">09/21/2022 </v>
+      </c>
+      <c r="C59" s="23">
+        <f>'Public Report'!O67</f>
+        <v>3064793</v>
+      </c>
+      <c r="D59" s="25">
+        <f>(C59-C58)/C58</f>
+        <v>7.4563378707541801E-3</v>
+      </c>
+      <c r="E59" s="24">
+        <f>'Public Report'!AA67</f>
+        <v>1519002</v>
+      </c>
+      <c r="F59" s="25">
+        <f>(E59-E58)/E58</f>
+        <v>6.0142219361145385E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="65" x14ac:dyDescent="0.2"/>
+    <row r="66" x14ac:dyDescent="0.2"/>
+    <row r="67" x14ac:dyDescent="0.2"/>
+    <row r="68" x14ac:dyDescent="0.2"/>
+    <row r="69" x14ac:dyDescent="0.2"/>
+    <row r="70" x14ac:dyDescent="0.2"/>
+    <row r="71" x14ac:dyDescent="0.2"/>
+    <row r="72" x14ac:dyDescent="0.2"/>
+    <row r="73" x14ac:dyDescent="0.2"/>
+    <row r="74" x14ac:dyDescent="0.2"/>
+    <row r="75" x14ac:dyDescent="0.2"/>
+    <row r="76" x14ac:dyDescent="0.2"/>
+    <row r="77" x14ac:dyDescent="0.2"/>
+    <row r="78" x14ac:dyDescent="0.2"/>
+    <row r="79" x14ac:dyDescent="0.2"/>
+    <row r="80" x14ac:dyDescent="0.2"/>
+    <row r="81" x14ac:dyDescent="0.2"/>
+    <row r="82" x14ac:dyDescent="0.2"/>
+    <row r="83" x14ac:dyDescent="0.2"/>
+    <row r="84" x14ac:dyDescent="0.2"/>
+    <row r="85" x14ac:dyDescent="0.2"/>
+    <row r="86" x14ac:dyDescent="0.2"/>
+    <row r="87" x14ac:dyDescent="0.2"/>
+    <row r="88" x14ac:dyDescent="0.2"/>
+    <row r="89" x14ac:dyDescent="0.2"/>
+    <row r="90" x14ac:dyDescent="0.2"/>
+    <row r="91" x14ac:dyDescent="0.2"/>
+    <row r="92" x14ac:dyDescent="0.2"/>
+    <row r="93" x14ac:dyDescent="0.2"/>
+    <row r="94" x14ac:dyDescent="0.2"/>
+    <row r="95" x14ac:dyDescent="0.2"/>
+    <row r="96" x14ac:dyDescent="0.2"/>
+    <row r="97" x14ac:dyDescent="0.2"/>
+    <row r="98" x14ac:dyDescent="0.2"/>
+    <row r="99" x14ac:dyDescent="0.2"/>
+    <row r="100" x14ac:dyDescent="0.2"/>
+    <row r="101" x14ac:dyDescent="0.2"/>
+    <row r="102" x14ac:dyDescent="0.2"/>
+    <row r="103" x14ac:dyDescent="0.2"/>
+    <row r="104" x14ac:dyDescent="0.2"/>
+    <row r="105" x14ac:dyDescent="0.2"/>
+    <row r="106" x14ac:dyDescent="0.2"/>
+    <row r="107" x14ac:dyDescent="0.2"/>
+    <row r="108" x14ac:dyDescent="0.2"/>
+    <row r="109" x14ac:dyDescent="0.2"/>
+    <row r="110" x14ac:dyDescent="0.2"/>
+    <row r="111" x14ac:dyDescent="0.2"/>
+    <row r="112" x14ac:dyDescent="0.2"/>
+    <row r="113" x14ac:dyDescent="0.2"/>
+    <row r="114" x14ac:dyDescent="0.2"/>
+    <row r="115" x14ac:dyDescent="0.2"/>
+    <row r="116" x14ac:dyDescent="0.2"/>
+    <row r="117" x14ac:dyDescent="0.2"/>
+    <row r="118" x14ac:dyDescent="0.2"/>
+    <row r="119" x14ac:dyDescent="0.2"/>
+    <row r="120" x14ac:dyDescent="0.2"/>
+    <row r="121" x14ac:dyDescent="0.2"/>
+    <row r="122" x14ac:dyDescent="0.2"/>
+    <row r="123" x14ac:dyDescent="0.2"/>
+    <row r="124" x14ac:dyDescent="0.2"/>
+    <row r="125" x14ac:dyDescent="0.2"/>
+    <row r="126" x14ac:dyDescent="0.2"/>
+    <row r="127" x14ac:dyDescent="0.2"/>
+    <row r="128" x14ac:dyDescent="0.2"/>
+    <row r="129" x14ac:dyDescent="0.2"/>
+    <row r="130" x14ac:dyDescent="0.2"/>
+    <row r="131" x14ac:dyDescent="0.2"/>
+    <row r="132" x14ac:dyDescent="0.2"/>
+    <row r="133" x14ac:dyDescent="0.2"/>
+    <row r="134" x14ac:dyDescent="0.2"/>
+    <row r="135" x14ac:dyDescent="0.2"/>
+    <row r="136" x14ac:dyDescent="0.2"/>
+    <row r="137" x14ac:dyDescent="0.2"/>
+    <row r="138" x14ac:dyDescent="0.2"/>
+    <row r="139" x14ac:dyDescent="0.2"/>
+    <row r="140" x14ac:dyDescent="0.2"/>
+    <row r="141" x14ac:dyDescent="0.2"/>
+    <row r="142" x14ac:dyDescent="0.2"/>
+    <row r="143" x14ac:dyDescent="0.2"/>
+    <row r="144" x14ac:dyDescent="0.2"/>
+    <row r="145" x14ac:dyDescent="0.2"/>
+    <row r="146" x14ac:dyDescent="0.2"/>
+    <row r="147" x14ac:dyDescent="0.2"/>
+    <row r="148" x14ac:dyDescent="0.2"/>
+    <row r="149" x14ac:dyDescent="0.2"/>
+    <row r="150" x14ac:dyDescent="0.2"/>
+    <row r="151" x14ac:dyDescent="0.2"/>
+    <row r="152" x14ac:dyDescent="0.2"/>
+    <row r="153" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E3 E4:E59" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5225,8 +5517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView topLeftCell="A24" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5292,51 +5584,51 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5344,43 +5636,43 @@
       <c r="AP5" s="12"/>
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5388,67 +5680,67 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="30" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="29" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="26" t="s">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="30" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26" t="s">
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="26" t="s">
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AK7" s="26"/>
+      <c r="AK7" s="32"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
       <c r="AN7" s="13"/>
@@ -5456,61 +5748,61 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="26" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="32"/>
+      <c r="T8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26" t="s">
+      <c r="U8" s="32"/>
+      <c r="V8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="26" t="s">
+      <c r="W8" s="32"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26" t="s">
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26" t="s">
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="26"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="32"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
@@ -5518,7 +5810,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -11843,67 +12135,351 @@
         <v>275873</v>
       </c>
     </row>
-    <row r="65" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-    </row>
-    <row r="66" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-    </row>
-    <row r="67" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-    </row>
-    <row r="68" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="16">
+        <v>1041</v>
+      </c>
+      <c r="C65" s="7">
+        <v>4564389</v>
+      </c>
+      <c r="D65" s="6">
+        <v>162</v>
+      </c>
+      <c r="E65" s="17">
+        <v>102325</v>
+      </c>
+      <c r="F65" s="16">
+        <v>664</v>
+      </c>
+      <c r="G65" s="18">
+        <v>3946970</v>
+      </c>
+      <c r="H65" s="6">
+        <v>232</v>
+      </c>
+      <c r="I65" s="18">
+        <v>1242614</v>
+      </c>
+      <c r="J65" s="6">
+        <v>432</v>
+      </c>
+      <c r="K65" s="18">
+        <v>2704356</v>
+      </c>
+      <c r="L65" s="6">
+        <v>215</v>
+      </c>
+      <c r="M65" s="18">
+        <v>515095</v>
+      </c>
+      <c r="N65" s="16">
+        <v>553</v>
+      </c>
+      <c r="O65" s="7">
+        <v>3057370</v>
+      </c>
+      <c r="P65" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>10927</v>
+      </c>
+      <c r="R65" s="16">
+        <v>398</v>
+      </c>
+      <c r="S65" s="18">
+        <v>2815039</v>
+      </c>
+      <c r="T65" s="6">
+        <v>184</v>
+      </c>
+      <c r="U65" s="18">
+        <v>1060595</v>
+      </c>
+      <c r="V65" s="6">
+        <v>214</v>
+      </c>
+      <c r="W65" s="18">
+        <v>1754444</v>
+      </c>
+      <c r="X65" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>231404</v>
+      </c>
+      <c r="Z65" s="16">
+        <v>488</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>1507020</v>
+      </c>
+      <c r="AB65" s="6">
+        <v>134</v>
+      </c>
+      <c r="AC65" s="17">
+        <v>91398</v>
+      </c>
+      <c r="AD65" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE65" s="18">
+        <v>1131931</v>
+      </c>
+      <c r="AF65" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG65" s="18">
+        <v>182019</v>
+      </c>
+      <c r="AH65" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI65" s="18">
+        <v>949912</v>
+      </c>
+      <c r="AJ65" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK65" s="18">
+        <v>283691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19">
+        <v>44818</v>
+      </c>
+      <c r="B66" s="26">
+        <v>1041</v>
+      </c>
+      <c r="C66" s="27">
+        <v>4552031</v>
+      </c>
+      <c r="D66" s="28">
+        <v>162</v>
+      </c>
+      <c r="E66" s="29">
+        <v>101102</v>
+      </c>
+      <c r="F66" s="26">
+        <v>664</v>
+      </c>
+      <c r="G66" s="30">
+        <v>3933689</v>
+      </c>
+      <c r="H66" s="28">
+        <v>232</v>
+      </c>
+      <c r="I66" s="30">
+        <v>1227503</v>
+      </c>
+      <c r="J66" s="28">
+        <v>432</v>
+      </c>
+      <c r="K66" s="30">
+        <v>2706186</v>
+      </c>
+      <c r="L66" s="28">
+        <v>215</v>
+      </c>
+      <c r="M66" s="30">
+        <v>517240</v>
+      </c>
+      <c r="N66" s="26">
+        <v>553</v>
+      </c>
+      <c r="O66" s="27">
+        <v>3042110</v>
+      </c>
+      <c r="P66" s="28">
+        <v>28</v>
+      </c>
+      <c r="Q66" s="29">
+        <v>10276</v>
+      </c>
+      <c r="R66" s="26">
+        <v>398</v>
+      </c>
+      <c r="S66" s="30">
+        <v>2804758</v>
+      </c>
+      <c r="T66" s="28">
+        <v>184</v>
+      </c>
+      <c r="U66" s="30">
+        <v>1044840</v>
+      </c>
+      <c r="V66" s="28">
+        <v>214</v>
+      </c>
+      <c r="W66" s="30">
+        <v>1759918</v>
+      </c>
+      <c r="X66" s="28">
+        <v>127</v>
+      </c>
+      <c r="Y66" s="30">
+        <v>227076</v>
+      </c>
+      <c r="Z66" s="26">
+        <v>488</v>
+      </c>
+      <c r="AA66" s="27">
+        <v>1509921</v>
+      </c>
+      <c r="AB66" s="28">
+        <v>134</v>
+      </c>
+      <c r="AC66" s="29">
+        <v>90825</v>
+      </c>
+      <c r="AD66" s="26">
+        <v>266</v>
+      </c>
+      <c r="AE66" s="30">
+        <v>1128931</v>
+      </c>
+      <c r="AF66" s="28">
+        <v>48</v>
+      </c>
+      <c r="AG66" s="30">
+        <v>182663</v>
+      </c>
+      <c r="AH66" s="28">
+        <v>218</v>
+      </c>
+      <c r="AI66" s="30">
+        <v>946268</v>
+      </c>
+      <c r="AJ66" s="28">
+        <v>88</v>
+      </c>
+      <c r="AK66" s="30">
+        <v>290164</v>
+      </c>
+      <c r="AL66" s="31"/>
+      <c r="AM66" s="31"/>
+      <c r="AN66" s="31"/>
+      <c r="AO66" s="31"/>
+      <c r="AP66" s="31"/>
+    </row>
+    <row r="67" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="16">
+        <v>1041</v>
+      </c>
+      <c r="C67" s="7">
+        <v>4583795</v>
+      </c>
+      <c r="D67" s="6">
+        <v>162</v>
+      </c>
+      <c r="E67" s="17">
+        <v>100733</v>
+      </c>
+      <c r="F67" s="16">
+        <v>664</v>
+      </c>
+      <c r="G67" s="18">
+        <v>3955245</v>
+      </c>
+      <c r="H67" s="6">
+        <v>232</v>
+      </c>
+      <c r="I67" s="18">
+        <v>1250040</v>
+      </c>
+      <c r="J67" s="6">
+        <v>432</v>
+      </c>
+      <c r="K67" s="18">
+        <v>2705205</v>
+      </c>
+      <c r="L67" s="6">
+        <v>215</v>
+      </c>
+      <c r="M67" s="18">
+        <v>527818</v>
+      </c>
+      <c r="N67" s="16">
+        <v>553</v>
+      </c>
+      <c r="O67" s="7">
+        <v>3064793</v>
+      </c>
+      <c r="P67" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>10587</v>
+      </c>
+      <c r="R67" s="16">
+        <v>398</v>
+      </c>
+      <c r="S67" s="18">
+        <v>2824374</v>
+      </c>
+      <c r="T67" s="6">
+        <v>184</v>
+      </c>
+      <c r="U67" s="18">
+        <v>1066752</v>
+      </c>
+      <c r="V67" s="6">
+        <v>214</v>
+      </c>
+      <c r="W67" s="18">
+        <v>1757622</v>
+      </c>
+      <c r="X67" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y67" s="18">
+        <v>229832</v>
+      </c>
+      <c r="Z67" s="16">
+        <v>488</v>
+      </c>
+      <c r="AA67" s="7">
+        <v>1519002</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>134</v>
+      </c>
+      <c r="AC67" s="17">
+        <v>90145</v>
+      </c>
+      <c r="AD67" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE67" s="18">
+        <v>1130871</v>
+      </c>
+      <c r="AF67" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG67" s="18">
+        <v>183288</v>
+      </c>
+      <c r="AH67" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI67" s="18">
+        <v>947583</v>
+      </c>
+      <c r="AJ67" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK67" s="18">
+        <v>297986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="1"/>
@@ -11923,7 +12499,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="1"/>
@@ -11943,7 +12519,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="1"/>
@@ -11963,7 +12539,7 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="1"/>
@@ -11983,7 +12559,7 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="1"/>
@@ -12003,7 +12579,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="1"/>
@@ -12023,7 +12599,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="1"/>
@@ -12043,7 +12619,7 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="1"/>
@@ -12063,7 +12639,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="1"/>
@@ -12083,7 +12659,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="13:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="1"/>
@@ -12103,7 +12679,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="1"/>
@@ -12123,7 +12699,7 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="1"/>
@@ -12143,7 +12719,7 @@
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
     </row>
-    <row r="80" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="1"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E527D76-F886-AD4F-BC4D-618D3287EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E8273-C4E7-9747-958F-5FA208AA46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53240" yWindow="500" windowWidth="38280" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39720" yWindow="740" windowWidth="46040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>DATE</t>
   </si>
@@ -276,6 +276,9 @@
   <si>
     <t xml:space="preserve">09/21/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">09/28/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -509,16 +512,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +530,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -643,9 +656,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -774,6 +785,9 @@
                 <c:pt idx="37">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -896,6 +910,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7.4563378707541801E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.2435560900850399E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,10 +941,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1056,6 +1070,9 @@
                 <c:pt idx="37">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1178,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6.0142219361145385E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.656345416266733E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,6 +1685,9 @@
                 <c:pt idx="57">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1847,6 +1870,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3064793</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3062573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,6 +2090,9 @@
                 <c:pt idx="57">
                   <c:v>44825</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>44832</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2246,6 +2275,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1519002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1527594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,13 +3603,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>300462</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23232</xdr:rowOff>
+      <xdr:rowOff>23231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>595923</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3610,10 +3642,10 @@
       <xdr:rowOff>107462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>781538</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>576384</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>185615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3901,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3999,7 +4031,7 @@
         <v>1427699</v>
       </c>
       <c r="F4" s="25">
-        <f t="shared" ref="F4:F59" si="1">(E4-E3)/E3</f>
+        <f t="shared" ref="F4:F58" si="1">(E4-E3)/E3</f>
         <v>1.3227541059030884E-3</v>
       </c>
     </row>
@@ -5404,7 +5436,32 @@
         <v>6.0142219361145385E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
+        <f t="shared" ref="A60" si="39">VALUE(B60)</f>
+        <v>44832</v>
+      </c>
+      <c r="B60" s="21" t="str">
+        <f>'Public Report'!A68</f>
+        <v xml:space="preserve">09/28/2022 </v>
+      </c>
+      <c r="C60" s="23">
+        <f>'Public Report'!O68</f>
+        <v>3062573</v>
+      </c>
+      <c r="D60" s="25">
+        <f>(C60-C59)/C59</f>
+        <v>-7.2435560900850399E-4</v>
+      </c>
+      <c r="E60" s="24">
+        <f>'Public Report'!AA68</f>
+        <v>1527594</v>
+      </c>
+      <c r="F60" s="25">
+        <f>(E60-E59)/E59</f>
+        <v>5.656345416266733E-3</v>
+      </c>
+    </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2"/>
@@ -5501,7 +5558,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5518,7 +5575,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5587,48 +5644,48 @@
       <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34" t="s">
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5637,42 +5694,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5680,15 +5737,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="32" t="s">
         <v>5</v>
       </c>
@@ -5697,7 +5754,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="33" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="32"/>
@@ -5705,10 +5762,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="32"/>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="32" t="s">
         <v>5</v>
       </c>
@@ -5717,7 +5774,7 @@
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
-      <c r="X7" s="36" t="s">
+      <c r="X7" s="33" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="32"/>
@@ -5725,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="32"/>
-      <c r="AB7" s="35" t="s">
+      <c r="AB7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="35"/>
+      <c r="AC7" s="34"/>
       <c r="AD7" s="32" t="s">
         <v>5</v>
       </c>
@@ -5737,7 +5794,7 @@
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="36" t="s">
+      <c r="AJ7" s="33" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="32"/>
@@ -5748,11 +5805,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="32" t="s">
         <v>3</v>
       </c>
@@ -5765,12 +5822,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="32"/>
-      <c r="L8" s="36"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="32" t="s">
         <v>3</v>
       </c>
@@ -5783,12 +5840,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="32"/>
-      <c r="X8" s="36"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="32"/>
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
       <c r="AD8" s="32" t="s">
         <v>3</v>
       </c>
@@ -5801,7 +5858,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="33"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5810,7 +5867,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -12479,25 +12536,118 @@
         <v>297986</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
+    <row r="68" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="16">
+        <v>1037</v>
+      </c>
+      <c r="C68" s="7">
+        <v>4590166</v>
+      </c>
+      <c r="D68" s="6">
+        <v>158</v>
+      </c>
+      <c r="E68" s="17">
+        <v>99921</v>
+      </c>
+      <c r="F68" s="16">
+        <v>664</v>
+      </c>
+      <c r="G68" s="18">
+        <v>3961485</v>
+      </c>
+      <c r="H68" s="6">
+        <v>232</v>
+      </c>
+      <c r="I68" s="18">
+        <v>1250019</v>
+      </c>
+      <c r="J68" s="6">
+        <v>432</v>
+      </c>
+      <c r="K68" s="18">
+        <v>2711466</v>
+      </c>
+      <c r="L68" s="6">
+        <v>215</v>
+      </c>
+      <c r="M68" s="18">
+        <v>528760</v>
+      </c>
+      <c r="N68" s="16">
+        <v>553</v>
+      </c>
+      <c r="O68" s="7">
+        <v>3062573</v>
+      </c>
+      <c r="P68" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>9869</v>
+      </c>
+      <c r="R68" s="16">
+        <v>398</v>
+      </c>
+      <c r="S68" s="18">
+        <v>2828691</v>
+      </c>
+      <c r="T68" s="6">
+        <v>184</v>
+      </c>
+      <c r="U68" s="18">
+        <v>1066407</v>
+      </c>
+      <c r="V68" s="6">
+        <v>214</v>
+      </c>
+      <c r="W68" s="18">
+        <v>1762284</v>
+      </c>
+      <c r="X68" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y68" s="18">
+        <v>224013</v>
+      </c>
+      <c r="Z68" s="16">
+        <v>484</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>1527594</v>
+      </c>
+      <c r="AB68" s="6">
+        <v>130</v>
+      </c>
+      <c r="AC68" s="17">
+        <v>90052</v>
+      </c>
+      <c r="AD68" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE68" s="18">
+        <v>1132795</v>
+      </c>
+      <c r="AF68" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG68" s="18">
+        <v>183612</v>
+      </c>
+      <c r="AH68" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI68" s="18">
+        <v>949182</v>
+      </c>
+      <c r="AJ68" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK68" s="18">
+        <v>304747</v>
+      </c>
     </row>
     <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M69" s="10"/>
@@ -12841,15 +12991,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -12866,6 +13007,15 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E8273-C4E7-9747-958F-5FA208AA46AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802740CA-7C9C-2B4B-AD0D-996B8FB7581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="740" windowWidth="46040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21720" yWindow="500" windowWidth="46040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>DATE</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t xml:space="preserve">09/28/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/05/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2022 </t>
   </si>
 </sst>
 </file>
@@ -530,17 +536,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -788,6 +784,12 @@
                 <c:pt idx="38">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -913,6 +915,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-7.2435560900850399E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.0025609185479007E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.8171302687774177E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,6 +1081,12 @@
                 <c:pt idx="38">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1198,6 +1212,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>5.656345416266733E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.008775892023666E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.616960163421482E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,6 +1708,12 @@
                 <c:pt idx="58">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1873,6 +1899,12 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3062573</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3035002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3033540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,6 +2125,12 @@
                 <c:pt idx="58">
                   <c:v>44832</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>44839</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2278,6 +2316,12 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1527594</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1543004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1554757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3933,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5462,8 +5506,58 @@
         <v>5.656345416266733E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="22">
+        <f t="shared" ref="A61" si="40">VALUE(B61)</f>
+        <v>44839</v>
+      </c>
+      <c r="B61" s="21" t="str">
+        <f>'Public Report'!A69</f>
+        <v xml:space="preserve">10/05/2022 </v>
+      </c>
+      <c r="C61" s="23">
+        <f>'Public Report'!O69</f>
+        <v>3035002</v>
+      </c>
+      <c r="D61" s="25">
+        <f>(C61-C60)/C60</f>
+        <v>-9.0025609185479007E-3</v>
+      </c>
+      <c r="E61" s="24">
+        <f>'Public Report'!AA69</f>
+        <v>1543004</v>
+      </c>
+      <c r="F61" s="25">
+        <f>(E61-E60)/E60</f>
+        <v>1.008775892023666E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="22">
+        <f t="shared" ref="A62" si="41">VALUE(B62)</f>
+        <v>44846</v>
+      </c>
+      <c r="B62" s="21" t="str">
+        <f>'Public Report'!A70</f>
+        <v xml:space="preserve">10/12/2022 </v>
+      </c>
+      <c r="C62" s="23">
+        <f>'Public Report'!O70</f>
+        <v>3033540</v>
+      </c>
+      <c r="D62" s="25">
+        <f>(C62-C61)/C61</f>
+        <v>-4.8171302687774177E-4</v>
+      </c>
+      <c r="E62" s="24">
+        <f>'Public Report'!AA70</f>
+        <v>1554757</v>
+      </c>
+      <c r="F62" s="25">
+        <f>(E62-E61)/E61</f>
+        <v>7.616960163421482E-3</v>
+      </c>
+    </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="65" x14ac:dyDescent="0.2"/>
@@ -5557,8 +5651,8 @@
     <row r="153" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D1:D1048576 F1:F63 F65:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5575,7 +5669,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12649,45 +12743,231 @@
         <v>304747</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-    </row>
-    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
+    <row r="69" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="16">
+        <v>1039</v>
+      </c>
+      <c r="C69" s="7">
+        <v>4578006</v>
+      </c>
+      <c r="D69" s="6">
+        <v>158</v>
+      </c>
+      <c r="E69" s="17">
+        <v>101932</v>
+      </c>
+      <c r="F69" s="16">
+        <v>666</v>
+      </c>
+      <c r="G69" s="18">
+        <v>3933777</v>
+      </c>
+      <c r="H69" s="6">
+        <v>232</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1240568</v>
+      </c>
+      <c r="J69" s="6">
+        <v>434</v>
+      </c>
+      <c r="K69" s="18">
+        <v>2693209</v>
+      </c>
+      <c r="L69" s="6">
+        <v>215</v>
+      </c>
+      <c r="M69" s="18">
+        <v>542297</v>
+      </c>
+      <c r="N69" s="16">
+        <v>555</v>
+      </c>
+      <c r="O69" s="7">
+        <v>3035002</v>
+      </c>
+      <c r="P69" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q69" s="17">
+        <v>10624</v>
+      </c>
+      <c r="R69" s="16">
+        <v>400</v>
+      </c>
+      <c r="S69" s="18">
+        <v>2796617</v>
+      </c>
+      <c r="T69" s="6">
+        <v>184</v>
+      </c>
+      <c r="U69" s="18">
+        <v>1053519</v>
+      </c>
+      <c r="V69" s="6">
+        <v>216</v>
+      </c>
+      <c r="W69" s="18">
+        <v>1743098</v>
+      </c>
+      <c r="X69" s="6">
+        <v>127</v>
+      </c>
+      <c r="Y69" s="18">
+        <v>227761</v>
+      </c>
+      <c r="Z69" s="16">
+        <v>484</v>
+      </c>
+      <c r="AA69" s="7">
+        <v>1543004</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>130</v>
+      </c>
+      <c r="AC69" s="17">
+        <v>91308</v>
+      </c>
+      <c r="AD69" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE69" s="18">
+        <v>1137160</v>
+      </c>
+      <c r="AF69" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG69" s="18">
+        <v>187048</v>
+      </c>
+      <c r="AH69" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI69" s="18">
+        <v>950111</v>
+      </c>
+      <c r="AJ69" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK69" s="18">
+        <v>314536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="16">
+        <v>1040</v>
+      </c>
+      <c r="C70" s="7">
+        <v>4588297</v>
+      </c>
+      <c r="D70" s="6">
+        <v>158</v>
+      </c>
+      <c r="E70" s="17">
+        <v>105310</v>
+      </c>
+      <c r="F70" s="16">
+        <v>666</v>
+      </c>
+      <c r="G70" s="18">
+        <v>3930993</v>
+      </c>
+      <c r="H70" s="6">
+        <v>232</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1246345</v>
+      </c>
+      <c r="J70" s="6">
+        <v>434</v>
+      </c>
+      <c r="K70" s="18">
+        <v>2684648</v>
+      </c>
+      <c r="L70" s="6">
+        <v>216</v>
+      </c>
+      <c r="M70" s="18">
+        <v>551994</v>
+      </c>
+      <c r="N70" s="16">
+        <v>556</v>
+      </c>
+      <c r="O70" s="7">
+        <v>3033540</v>
+      </c>
+      <c r="P70" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q70" s="17">
+        <v>11099</v>
+      </c>
+      <c r="R70" s="16">
+        <v>400</v>
+      </c>
+      <c r="S70" s="18">
+        <v>2792679</v>
+      </c>
+      <c r="T70" s="6">
+        <v>184</v>
+      </c>
+      <c r="U70" s="18">
+        <v>1057837</v>
+      </c>
+      <c r="V70" s="6">
+        <v>216</v>
+      </c>
+      <c r="W70" s="18">
+        <v>1734843</v>
+      </c>
+      <c r="X70" s="6">
+        <v>128</v>
+      </c>
+      <c r="Y70" s="18">
+        <v>229762</v>
+      </c>
+      <c r="Z70" s="16">
+        <v>484</v>
+      </c>
+      <c r="AA70" s="7">
+        <v>1554757</v>
+      </c>
+      <c r="AB70" s="6">
+        <v>130</v>
+      </c>
+      <c r="AC70" s="17">
+        <v>94212</v>
+      </c>
+      <c r="AD70" s="16">
+        <v>266</v>
+      </c>
+      <c r="AE70" s="18">
+        <v>1138314</v>
+      </c>
+      <c r="AF70" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG70" s="18">
+        <v>188508</v>
+      </c>
+      <c r="AH70" s="6">
+        <v>218</v>
+      </c>
+      <c r="AI70" s="18">
+        <v>949805</v>
+      </c>
+      <c r="AJ70" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK70" s="18">
+        <v>322232</v>
+      </c>
     </row>
     <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M71" s="10"/>

--- a/ICI fund flow/money_market_2022.xlsx
+++ b/ICI fund flow/money_market_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802740CA-7C9C-2B4B-AD0D-996B8FB7581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB1F6B-AC7D-0F4A-8B3A-219F86BD90B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21720" yWindow="500" windowWidth="46040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27980" yWindow="500" windowWidth="46040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>DATE</t>
   </si>
@@ -285,6 +285,12 @@
   <si>
     <t xml:space="preserve">10/12/2022 </t>
   </si>
+  <si>
+    <t xml:space="preserve">10/26/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/02/2022 </t>
+  </si>
 </sst>
 </file>
 
@@ -518,16 +524,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,6 +796,15 @@
                 <c:pt idx="40">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -921,6 +936,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-4.8171302687774177E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.4024209339583454E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.9518147597406604E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2083829886960294E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,6 +1111,15 @@
                 <c:pt idx="40">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1218,6 +1251,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7.616960163421482E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0141777782637416E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5102911446809187E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.0721645036477543E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,6 +1756,15 @@
                 <c:pt idx="60">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1905,6 +1956,15 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>3033540</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3014118</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3008235</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3044586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,6 +2191,15 @@
                 <c:pt idx="60">
                   <c:v>44846</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>44853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44867</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2322,6 +2391,15 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1554757</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1570525</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1576038</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1587184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,8 +4055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z81" sqref="Z81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5558,24 +5636,99 @@
         <v>7.616960163421482E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2"/>
-    <row r="65" x14ac:dyDescent="0.2"/>
-    <row r="66" x14ac:dyDescent="0.2"/>
-    <row r="67" x14ac:dyDescent="0.2"/>
-    <row r="68" x14ac:dyDescent="0.2"/>
-    <row r="69" x14ac:dyDescent="0.2"/>
-    <row r="70" x14ac:dyDescent="0.2"/>
-    <row r="71" x14ac:dyDescent="0.2"/>
-    <row r="72" x14ac:dyDescent="0.2"/>
-    <row r="73" x14ac:dyDescent="0.2"/>
-    <row r="74" x14ac:dyDescent="0.2"/>
-    <row r="75" x14ac:dyDescent="0.2"/>
-    <row r="76" x14ac:dyDescent="0.2"/>
-    <row r="77" x14ac:dyDescent="0.2"/>
-    <row r="78" x14ac:dyDescent="0.2"/>
-    <row r="79" x14ac:dyDescent="0.2"/>
-    <row r="80" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="22">
+        <f t="shared" ref="A63" si="42">VALUE(B63)</f>
+        <v>44853</v>
+      </c>
+      <c r="B63" s="21">
+        <f>'Public Report'!A71</f>
+        <v>44853</v>
+      </c>
+      <c r="C63" s="23">
+        <f>'Public Report'!O71</f>
+        <v>3014118</v>
+      </c>
+      <c r="D63" s="25">
+        <f>(C63-C62)/C62</f>
+        <v>-6.4024209339583454E-3</v>
+      </c>
+      <c r="E63" s="24">
+        <f>'Public Report'!AA71</f>
+        <v>1570525</v>
+      </c>
+      <c r="F63" s="25">
+        <f>(E63-E62)/E62</f>
+        <v>1.0141777782637416E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="22">
+        <f t="shared" ref="A64:A65" si="43">VALUE(B64)</f>
+        <v>44860</v>
+      </c>
+      <c r="B64" s="21" t="str">
+        <f>'Public Report'!A72</f>
+        <v xml:space="preserve">10/26/2022 </v>
+      </c>
+      <c r="C64" s="23">
+        <f>'Public Report'!O72</f>
+        <v>3008235</v>
+      </c>
+      <c r="D64" s="25">
+        <f t="shared" ref="D64:D65" si="44">(C64-C63)/C63</f>
+        <v>-1.9518147597406604E-3</v>
+      </c>
+      <c r="E64" s="24">
+        <f>'Public Report'!AA72</f>
+        <v>1576038</v>
+      </c>
+      <c r="F64" s="25">
+        <f t="shared" ref="F64:F65" si="45">(E64-E63)/E63</f>
+        <v>3.5102911446809187E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="22">
+        <f t="shared" si="43"/>
+        <v>44867</v>
+      </c>
+      <c r="B65" s="21" t="str">
+        <f>'Public Report'!A73</f>
+        <v xml:space="preserve">11/02/2022 </v>
+      </c>
+      <c r="C65" s="23">
+        <f>'Public Report'!O73</f>
+        <v>3044586</v>
+      </c>
+      <c r="D65" s="25">
+        <f t="shared" si="44"/>
+        <v>1.2083829886960294E-2</v>
+      </c>
+      <c r="E65" s="24">
+        <f>'Public Report'!AA73</f>
+        <v>1587184</v>
+      </c>
+      <c r="F65" s="25">
+        <f t="shared" si="45"/>
+        <v>7.0721645036477543E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2"/>
     <row r="81" x14ac:dyDescent="0.2"/>
     <row r="82" x14ac:dyDescent="0.2"/>
     <row r="83" x14ac:dyDescent="0.2"/>
@@ -5651,7 +5804,7 @@
     <row r="153" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576 F1:F63 F65:F1048576">
+  <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5669,7 +5822,7 @@
   <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5738,48 +5891,48 @@
       <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
@@ -5788,42 +5941,42 @@
     </row>
     <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
@@ -5831,15 +5984,15 @@
       <c r="AP6" s="12"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="32" t="s">
         <v>5</v>
       </c>
@@ -5848,7 +6001,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="32"/>
@@ -5856,10 +6009,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="32"/>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="32" t="s">
         <v>5</v>
       </c>
@@ -5868,7 +6021,7 @@
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
-      <c r="X7" s="33" t="s">
+      <c r="X7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="32"/>
@@ -5876,10 +6029,10 @@
         <v>3</v>
       </c>
       <c r="AA7" s="32"/>
-      <c r="AB7" s="34" t="s">
+      <c r="AB7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="34"/>
+      <c r="AC7" s="35"/>
       <c r="AD7" s="32" t="s">
         <v>5</v>
       </c>
@@ -5888,7 +6041,7 @@
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="33" t="s">
+      <c r="AJ7" s="36" t="s">
         <v>6</v>
       </c>
       <c r="AK7" s="32"/>
@@ -5899,11 +6052,11 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="32" t="s">
         <v>3</v>
       </c>
@@ -5916,12 +6069,12 @@
         <v>8</v>
       </c>
       <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="32" t="s">
         <v>3</v>
       </c>
@@ -5934,12 +6087,12 @@
         <v>8</v>
       </c>
       <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="32"/>
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
       <c r="AD8" s="32" t="s">
         <v>3</v>
       </c>
@@ -5952,7 +6105,7 @@
         <v>8</v>
       </c>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="33"/>
+      <c r="AJ8" s="36"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -5961,7 +6114,7 @@
       <c r="AP8" s="13"/>
     </row>
     <row r="9" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -12970,64 +13123,348 @@
       </c>
     </row>
     <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-    </row>
-    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-    </row>
-    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
+      <c r="A71" s="19">
+        <v>44853</v>
+      </c>
+      <c r="B71" s="26">
+        <v>1040</v>
+      </c>
+      <c r="C71" s="27">
+        <v>4584643</v>
+      </c>
+      <c r="D71" s="28">
+        <v>158</v>
+      </c>
+      <c r="E71" s="29">
+        <v>107427</v>
+      </c>
+      <c r="F71" s="26">
+        <v>666</v>
+      </c>
+      <c r="G71" s="30">
+        <v>3917466</v>
+      </c>
+      <c r="H71" s="28">
+        <v>232</v>
+      </c>
+      <c r="I71" s="30">
+        <v>1249041</v>
+      </c>
+      <c r="J71" s="28">
+        <v>434</v>
+      </c>
+      <c r="K71" s="30">
+        <v>2668424</v>
+      </c>
+      <c r="L71" s="28">
+        <v>216</v>
+      </c>
+      <c r="M71" s="30">
+        <v>559750</v>
+      </c>
+      <c r="N71" s="26">
+        <v>556</v>
+      </c>
+      <c r="O71" s="27">
+        <v>3014118</v>
+      </c>
+      <c r="P71" s="28">
+        <v>28</v>
+      </c>
+      <c r="Q71" s="29">
+        <v>11189</v>
+      </c>
+      <c r="R71" s="26">
+        <v>400</v>
+      </c>
+      <c r="S71" s="30">
+        <v>2774633</v>
+      </c>
+      <c r="T71" s="28">
+        <v>184</v>
+      </c>
+      <c r="U71" s="30">
+        <v>1059167</v>
+      </c>
+      <c r="V71" s="28">
+        <v>216</v>
+      </c>
+      <c r="W71" s="30">
+        <v>1715465</v>
+      </c>
+      <c r="X71" s="28">
+        <v>128</v>
+      </c>
+      <c r="Y71" s="30">
+        <v>228296</v>
+      </c>
+      <c r="Z71" s="26">
+        <v>484</v>
+      </c>
+      <c r="AA71" s="27">
+        <v>1570525</v>
+      </c>
+      <c r="AB71" s="28">
+        <v>130</v>
+      </c>
+      <c r="AC71" s="29">
+        <v>96237</v>
+      </c>
+      <c r="AD71" s="26">
+        <v>266</v>
+      </c>
+      <c r="AE71" s="30">
+        <v>1142833</v>
+      </c>
+      <c r="AF71" s="28">
+        <v>48</v>
+      </c>
+      <c r="AG71" s="30">
+        <v>189874</v>
+      </c>
+      <c r="AH71" s="28">
+        <v>218</v>
+      </c>
+      <c r="AI71" s="30">
+        <v>952959</v>
+      </c>
+      <c r="AJ71" s="28">
+        <v>88</v>
+      </c>
+      <c r="AK71" s="30">
+        <v>331454</v>
+      </c>
+      <c r="AL71" s="31"/>
+      <c r="AM71" s="31"/>
+      <c r="AN71" s="31"/>
+      <c r="AO71" s="31"/>
+      <c r="AP71" s="31"/>
+    </row>
+    <row r="72" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="16">
+        <v>1041</v>
+      </c>
+      <c r="C72" s="7">
+        <v>4584273</v>
+      </c>
+      <c r="D72" s="6">
+        <v>158</v>
+      </c>
+      <c r="E72" s="17">
+        <v>109766</v>
+      </c>
+      <c r="F72" s="16">
+        <v>667</v>
+      </c>
+      <c r="G72" s="18">
+        <v>3909006</v>
+      </c>
+      <c r="H72" s="6">
+        <v>232</v>
+      </c>
+      <c r="I72" s="18">
+        <v>1246158</v>
+      </c>
+      <c r="J72" s="6">
+        <v>435</v>
+      </c>
+      <c r="K72" s="18">
+        <v>2662848</v>
+      </c>
+      <c r="L72" s="6">
+        <v>216</v>
+      </c>
+      <c r="M72" s="18">
+        <v>565501</v>
+      </c>
+      <c r="N72" s="16">
+        <v>556</v>
+      </c>
+      <c r="O72" s="7">
+        <v>3008235</v>
+      </c>
+      <c r="P72" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>11608</v>
+      </c>
+      <c r="R72" s="16">
+        <v>400</v>
+      </c>
+      <c r="S72" s="18">
+        <v>2767914</v>
+      </c>
+      <c r="T72" s="6">
+        <v>184</v>
+      </c>
+      <c r="U72" s="18">
+        <v>1055097</v>
+      </c>
+      <c r="V72" s="6">
+        <v>216</v>
+      </c>
+      <c r="W72" s="18">
+        <v>1712817</v>
+      </c>
+      <c r="X72" s="6">
+        <v>128</v>
+      </c>
+      <c r="Y72" s="18">
+        <v>228713</v>
+      </c>
+      <c r="Z72" s="16">
+        <v>485</v>
+      </c>
+      <c r="AA72" s="7">
+        <v>1576038</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>130</v>
+      </c>
+      <c r="AC72" s="17">
+        <v>98158</v>
+      </c>
+      <c r="AD72" s="16">
+        <v>267</v>
+      </c>
+      <c r="AE72" s="18">
+        <v>1141092</v>
+      </c>
+      <c r="AF72" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG72" s="18">
+        <v>191061</v>
+      </c>
+      <c r="AH72" s="6">
+        <v>219</v>
+      </c>
+      <c r="AI72" s="18">
+        <v>950031</v>
+      </c>
+      <c r="AJ72" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK72" s="18">
+        <v>336788</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="16">
+        <v>1041</v>
+      </c>
+      <c r="C73" s="7">
+        <v>4631770</v>
+      </c>
+      <c r="D73" s="6">
+        <v>158</v>
+      </c>
+      <c r="E73" s="17">
+        <v>113469</v>
+      </c>
+      <c r="F73" s="16">
+        <v>667</v>
+      </c>
+      <c r="G73" s="18">
+        <v>3945101</v>
+      </c>
+      <c r="H73" s="6">
+        <v>232</v>
+      </c>
+      <c r="I73" s="18">
+        <v>1268892</v>
+      </c>
+      <c r="J73" s="6">
+        <v>435</v>
+      </c>
+      <c r="K73" s="18">
+        <v>2676209</v>
+      </c>
+      <c r="L73" s="6">
+        <v>216</v>
+      </c>
+      <c r="M73" s="18">
+        <v>573200</v>
+      </c>
+      <c r="N73" s="16">
+        <v>556</v>
+      </c>
+      <c r="O73" s="7">
+        <v>3044586</v>
+      </c>
+      <c r="P73" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q73" s="17">
+        <v>13342</v>
+      </c>
+      <c r="R73" s="16">
+        <v>400</v>
+      </c>
+      <c r="S73" s="18">
+        <v>2800534</v>
+      </c>
+      <c r="T73" s="6">
+        <v>184</v>
+      </c>
+      <c r="U73" s="18">
+        <v>1074259</v>
+      </c>
+      <c r="V73" s="6">
+        <v>216</v>
+      </c>
+      <c r="W73" s="18">
+        <v>1726275</v>
+      </c>
+      <c r="X73" s="6">
+        <v>128</v>
+      </c>
+      <c r="Y73" s="18">
+        <v>230710</v>
+      </c>
+      <c r="Z73" s="16">
+        <v>485</v>
+      </c>
+      <c r="AA73" s="7">
+        <v>1587184</v>
+      </c>
+      <c r="AB73" s="6">
+        <v>130</v>
+      </c>
+      <c r="AC73" s="17">
+        <v>100127</v>
+      </c>
+      <c r="AD73" s="16">
+        <v>267</v>
+      </c>
+      <c r="AE73" s="18">
+        <v>1144567</v>
+      </c>
+      <c r="AF73" s="6">
+        <v>48</v>
+      </c>
+      <c r="AG73" s="18">
+        <v>194634</v>
+      </c>
+      <c r="AH73" s="6">
+        <v>219</v>
+      </c>
+      <c r="AI73" s="18">
+        <v>949934</v>
+      </c>
+      <c r="AJ73" s="6">
+        <v>88</v>
+      </c>
+      <c r="AK73" s="18">
+        <v>342490</v>
+      </c>
     </row>
     <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M74" s="10"/>
@@ -13271,6 +13708,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:M6"/>
     <mergeCell ref="N5:Y6"/>
@@ -13287,15 +13733,6 @@
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.18" top="0.93" bottom="0.46" header="0.37" footer="0.24"/>
   <pageSetup scale="91" orientation="landscape"/>
